--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E35D63-AEF5-4DE0-B064-2D4666D1DE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A213F669-85F0-4362-877E-397C7CC0A87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="39">
   <si>
     <t>Precio de contado</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F38534-621C-456A-88D0-E73BF73C904A}">
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L130"/>
+      <selection activeCell="A2" sqref="A2:L125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,19 +1409,19 @@
         <v>13</v>
       </c>
       <c r="H23">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I23">
         <v>2.1</v>
       </c>
       <c r="J23">
-        <v>1.1506849315068493</v>
+        <v>2.3013698630136985</v>
       </c>
       <c r="K23" s="2">
-        <v>103.27484931506849</v>
+        <v>104.44969863013698</v>
       </c>
       <c r="L23" s="2">
-        <v>5.692000000000004E-2</v>
+        <v>7.7339999999999853E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1447,19 +1447,19 @@
         <v>13</v>
       </c>
       <c r="H24">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I24">
         <v>2.1</v>
       </c>
       <c r="J24">
-        <v>2.2191780821917808</v>
+        <v>5.1780821917808222</v>
       </c>
       <c r="K24" s="2">
-        <v>104.36578082191781</v>
+        <v>107.38682191780821</v>
       </c>
       <c r="L24" s="2">
-        <v>5.9018888888888899E-2</v>
+        <v>9.9858888888888567E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2701,19 +2701,19 @@
         <v>16</v>
       </c>
       <c r="H57">
-        <v>0.55500000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="I57">
         <v>10.9</v>
       </c>
       <c r="J57">
-        <v>27.36986301369863</v>
+        <v>26.630136986301373</v>
       </c>
       <c r="K57" s="2">
-        <v>141.25317808219179</v>
+        <v>140.43282191780821</v>
       </c>
       <c r="L57" s="2">
-        <v>0.83652277777777806</v>
+        <v>0.81988777777777766</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2739,19 +2739,19 @@
         <v>16</v>
       </c>
       <c r="H58">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="I58">
         <v>10.9</v>
       </c>
       <c r="J58">
-        <v>45.863013698630141</v>
+        <v>47.342465753424655</v>
       </c>
       <c r="K58" s="2">
-        <v>161.76208219178082</v>
+        <v>163.40279452054796</v>
       </c>
       <c r="L58" s="2">
-        <v>0.8349318518518517</v>
+        <v>0.85711185185185201</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2777,19 +2777,19 @@
         <v>16</v>
       </c>
       <c r="H59">
-        <v>0.65500000000000003</v>
+        <v>0.69</v>
       </c>
       <c r="I59">
         <v>10.9</v>
       </c>
       <c r="J59">
-        <v>64.602739726027394</v>
+        <v>68.054794520547944</v>
       </c>
       <c r="K59" s="2">
-        <v>182.54443835616439</v>
+        <v>186.37276712328767</v>
       </c>
       <c r="L59" s="2">
-        <v>0.83690888888888892</v>
+        <v>0.87572388888888897</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2815,19 +2815,19 @@
         <v>16</v>
       </c>
       <c r="H60">
-        <v>0.55500000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="I60">
         <v>10.9</v>
       </c>
       <c r="J60">
-        <v>27.36986301369863</v>
+        <v>26.630136986301373</v>
       </c>
       <c r="K60" s="2">
-        <v>141.25317808219179</v>
+        <v>140.43282191780821</v>
       </c>
       <c r="L60" s="2">
-        <v>0.83652277777777806</v>
+        <v>0.81988777777777766</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2853,19 +2853,19 @@
         <v>16</v>
       </c>
       <c r="H61">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="I61">
         <v>10.9</v>
       </c>
       <c r="J61">
-        <v>45.863013698630141</v>
+        <v>47.342465753424655</v>
       </c>
       <c r="K61" s="2">
-        <v>161.76208219178082</v>
+        <v>163.40279452054796</v>
       </c>
       <c r="L61" s="2">
-        <v>0.8349318518518517</v>
+        <v>0.85711185185185201</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2891,19 +2891,19 @@
         <v>16</v>
       </c>
       <c r="H62">
-        <v>0.65500000000000003</v>
+        <v>0.69</v>
       </c>
       <c r="I62">
         <v>10.9</v>
       </c>
       <c r="J62">
-        <v>64.602739726027394</v>
+        <v>68.054794520547944</v>
       </c>
       <c r="K62" s="2">
-        <v>182.54443835616439</v>
+        <v>186.37276712328767</v>
       </c>
       <c r="L62" s="2">
-        <v>0.83690888888888892</v>
+        <v>0.87572388888888897</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
@@ -3046,16 +3046,16 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>20.527913861308324</v>
+        <v>17.39030612244898</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>120.52791386130832</v>
+        <v>117.39030612244899</v>
       </c>
       <c r="L66" s="2">
-        <v>1.2487814265629229</v>
+        <v>1.0579102891156467</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3066,7 +3066,7 @@
         <v>100</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
@@ -3084,16 +3084,16 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>31.729722566457259</v>
+        <v>26.192934316583777</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" s="2">
-        <v>131.72972256645724</v>
+        <v>126.19293431658379</v>
       </c>
       <c r="L67" s="2">
-        <v>1.2868165263063209</v>
+        <v>1.0622690028392312</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3104,7 +3104,7 @@
         <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
         <v>19</v>
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>45.248249260974724</v>
+        <v>36.435992578849721</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" s="2">
-        <v>145.24824926097472</v>
+        <v>136.43599257884972</v>
       </c>
       <c r="L68" s="2">
-        <v>1.3763009150213146</v>
+        <v>1.1082614409400127</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3142,7 +3142,7 @@
         <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
@@ -3160,16 +3160,16 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>61.885088376603349</v>
+        <v>48.504546373004636</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" s="2">
-        <v>161.88508837660333</v>
+        <v>148.50454637300464</v>
       </c>
       <c r="L69" s="2">
-        <v>1.5058704838306811</v>
+        <v>1.1802772950764466</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3180,7 +3180,7 @@
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
         <v>19</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>82.859853316326522</v>
+        <v>62.934338952972489</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" s="2">
-        <v>182.85985331632654</v>
+        <v>162.9343389529725</v>
       </c>
       <c r="L70" s="2">
-        <v>1.6802136922477324</v>
+        <v>1.27616853987972</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3218,7 +3218,7 @@
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
@@ -3236,16 +3236,16 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>17.39030612244898</v>
+        <v>12</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" s="2">
-        <v>117.39030612244899</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L71" s="2">
-        <v>1.0579102891156467</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3256,7 +3256,7 @@
         <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
         <v>19</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>26.192934316583777</v>
+        <v>16</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" s="2">
-        <v>126.19293431658379</v>
+        <v>115.99999999999999</v>
       </c>
       <c r="L72" s="2">
-        <v>1.0622690028392312</v>
+        <v>0.64888888888888863</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3294,7 +3294,7 @@
         <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73" t="s">
         <v>19</v>
@@ -3312,16 +3312,16 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>36.435992578849721</v>
+        <v>21</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" s="2">
-        <v>136.43599257884972</v>
+        <v>121</v>
       </c>
       <c r="L73" s="2">
-        <v>1.1082614409400127</v>
+        <v>0.63874999999999982</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D74" t="s">
         <v>19</v>
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>48.504546373004636</v>
+        <v>26</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74" s="2">
-        <v>148.50454637300464</v>
+        <v>126</v>
       </c>
       <c r="L74" s="2">
-        <v>1.1802772950764466</v>
+        <v>0.63266666666666671</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3370,7 +3370,7 @@
         <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
@@ -3388,16 +3388,16 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>62.934338952972489</v>
+        <v>31</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" s="2">
-        <v>162.9343389529725</v>
+        <v>131</v>
       </c>
       <c r="L75" s="2">
-        <v>1.27616853987972</v>
+        <v>0.62861111111111123</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3408,7 +3408,7 @@
         <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
@@ -3446,7 +3446,7 @@
         <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
         <v>19</v>
@@ -3484,7 +3484,7 @@
         <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
         <v>19</v>
@@ -3522,7 +3522,7 @@
         <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
         <v>19</v>
@@ -3560,7 +3560,7 @@
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
         <v>19</v>
@@ -3598,7 +3598,7 @@
         <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -3636,7 +3636,7 @@
         <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
         <v>19</v>
@@ -3674,7 +3674,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
         <v>19</v>
@@ -3712,7 +3712,7 @@
         <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
         <v>19</v>
@@ -3750,7 +3750,7 @@
         <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
         <v>19</v>
@@ -3788,7 +3788,7 @@
         <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
         <v>19</v>
@@ -3826,7 +3826,7 @@
         <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
         <v>19</v>
@@ -3864,7 +3864,7 @@
         <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
         <v>19</v>
@@ -3902,7 +3902,7 @@
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
         <v>19</v>
@@ -3940,7 +3940,7 @@
         <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D90" t="s">
         <v>19</v>
@@ -3978,7 +3978,7 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
@@ -4016,7 +4016,7 @@
         <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s">
         <v>19</v>
@@ -4054,7 +4054,7 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D93" t="s">
         <v>19</v>
@@ -4092,7 +4092,7 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
         <v>19</v>
@@ -4130,7 +4130,7 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D95" t="s">
         <v>19</v>
@@ -4168,7 +4168,7 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s">
         <v>19</v>
@@ -4206,7 +4206,7 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D97" t="s">
         <v>19</v>
@@ -4244,7 +4244,7 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D98" t="s">
         <v>19</v>
@@ -4282,7 +4282,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D99" t="s">
         <v>19</v>
@@ -4320,7 +4320,7 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D100" t="s">
         <v>19</v>
@@ -4358,7 +4358,7 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
         <v>19</v>
@@ -4396,7 +4396,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D102" t="s">
         <v>19</v>
@@ -4434,7 +4434,7 @@
         <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D103" t="s">
         <v>19</v>
@@ -4472,7 +4472,7 @@
         <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D104" t="s">
         <v>19</v>
@@ -4510,7 +4510,7 @@
         <v>100</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D105" t="s">
         <v>19</v>
@@ -4548,13 +4548,13 @@
         <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F106">
         <v>60</v>
@@ -4563,19 +4563,19 @@
         <v>16</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>0.68756874999999962</v>
       </c>
       <c r="I106">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>11.302499999999993</v>
       </c>
       <c r="K106" s="2">
-        <v>112.00000000000001</v>
+        <v>113.52855</v>
       </c>
       <c r="L106" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.82298679166666644</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4586,13 +4586,13 @@
         <v>100</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D107" t="s">
         <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F107">
         <v>90</v>
@@ -4601,19 +4601,19 @@
         <v>16</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>0.70664557638888814</v>
       </c>
       <c r="I107">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>17.424137499999979</v>
       </c>
       <c r="K107" s="2">
-        <v>115.99999999999999</v>
+        <v>119.77262024999997</v>
       </c>
       <c r="L107" s="2">
-        <v>0.64888888888888863</v>
+        <v>0.80188959902777668</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4624,34 +4624,34 @@
         <v>100</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D108" t="s">
         <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F108">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G108" t="s">
         <v>16</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>0.76820902482272202</v>
       </c>
       <c r="I108">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>37.884280676189029</v>
       </c>
       <c r="K108" s="2">
-        <v>121</v>
+        <v>140.6419662897128</v>
       </c>
       <c r="L108" s="2">
-        <v>0.63874999999999982</v>
+        <v>0.82412876087473164</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4662,34 +4662,34 @@
         <v>100</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D109" t="s">
         <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F109">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="G109" t="s">
         <v>16</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>0.91596428303281763</v>
       </c>
       <c r="I109">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>67.756262032564592</v>
       </c>
       <c r="K109" s="2">
-        <v>126</v>
+        <v>171.11138727321588</v>
       </c>
       <c r="L109" s="2">
-        <v>0.63266666666666671</v>
+        <v>0.96132060573051104</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -4700,34 +4700,34 @@
         <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D110" t="s">
         <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F110">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G110" t="s">
         <v>16</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1.0070911208344702</v>
       </c>
       <c r="I110">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>99.329535205591569</v>
       </c>
       <c r="K110" s="2">
-        <v>131</v>
+        <v>203.3161259097034</v>
       </c>
       <c r="L110" s="2">
-        <v>0.62861111111111123</v>
+        <v>1.0475107210289369</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4738,7 +4738,7 @@
         <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
         <v>19</v>
@@ -4753,19 +4753,19 @@
         <v>16</v>
       </c>
       <c r="H111">
-        <v>0.68756874999999962</v>
+        <v>0.73</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111">
-        <v>11.302499999999993</v>
+        <v>12</v>
       </c>
       <c r="K111" s="2">
-        <v>113.52855</v>
+        <v>114.24000000000001</v>
       </c>
       <c r="L111" s="2">
-        <v>0.82298679166666644</v>
+        <v>0.86626666666666707</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -4776,7 +4776,7 @@
         <v>100</v>
       </c>
       <c r="C112" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D112" t="s">
         <v>19</v>
@@ -4791,19 +4791,19 @@
         <v>16</v>
       </c>
       <c r="H112">
-        <v>0.70664557638888814</v>
+        <v>0.73</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>17.424137499999979</v>
+        <v>18</v>
       </c>
       <c r="K112" s="2">
-        <v>119.77262024999997</v>
+        <v>120.36</v>
       </c>
       <c r="L112" s="2">
-        <v>0.80188959902777668</v>
+        <v>0.82571111111111117</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4814,7 +4814,7 @@
         <v>100</v>
       </c>
       <c r="C113" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s">
         <v>19</v>
@@ -4829,19 +4829,19 @@
         <v>16</v>
       </c>
       <c r="H113">
-        <v>0.76820902482272202</v>
+        <v>0.73</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>37.884280676189029</v>
+        <v>36</v>
       </c>
       <c r="K113" s="2">
-        <v>140.6419662897128</v>
+        <v>138.72</v>
       </c>
       <c r="L113" s="2">
-        <v>0.82412876087473164</v>
+        <v>0.7851555555555555</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -4852,7 +4852,7 @@
         <v>100</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s">
         <v>19</v>
@@ -4867,19 +4867,19 @@
         <v>16</v>
       </c>
       <c r="H114">
-        <v>0.91596428303281763</v>
+        <v>0.73</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114">
-        <v>67.756262032564592</v>
+        <v>54</v>
       </c>
       <c r="K114" s="2">
-        <v>171.11138727321588</v>
+        <v>157.08000000000001</v>
       </c>
       <c r="L114" s="2">
-        <v>0.96132060573051104</v>
+        <v>0.77163703703703723</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4890,7 +4890,7 @@
         <v>100</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s">
         <v>19</v>
@@ -4905,19 +4905,19 @@
         <v>16</v>
       </c>
       <c r="H115">
-        <v>1.0070911208344702</v>
+        <v>0.73</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115">
-        <v>99.329535205591569</v>
+        <v>72</v>
       </c>
       <c r="K115" s="2">
-        <v>203.3161259097034</v>
+        <v>175.44</v>
       </c>
       <c r="L115" s="2">
-        <v>1.0475107210289369</v>
+        <v>0.76487777777777766</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -4928,7 +4928,7 @@
         <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D116" t="s">
         <v>19</v>
@@ -4943,19 +4943,19 @@
         <v>16</v>
       </c>
       <c r="H116">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>12.657534246575342</v>
+        <v>10.684931506849315</v>
       </c>
       <c r="K116" s="2">
-        <v>114.91068493150685</v>
+        <v>112.89863013698628</v>
       </c>
       <c r="L116" s="2">
-        <v>0.90706666666666647</v>
+        <v>0.78466666666666596</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -4966,7 +4966,7 @@
         <v>100</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D117" t="s">
         <v>19</v>
@@ -4981,19 +4981,19 @@
         <v>16</v>
       </c>
       <c r="H117">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
       <c r="J117">
-        <v>18.986301369863014</v>
+        <v>16.027397260273972</v>
       </c>
       <c r="K117" s="2">
-        <v>121.36602739726027</v>
+        <v>118.34794520547946</v>
       </c>
       <c r="L117" s="2">
-        <v>0.86651111111111134</v>
+        <v>0.74411111111111161</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -5004,7 +5004,7 @@
         <v>100</v>
       </c>
       <c r="C118" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D118" t="s">
         <v>19</v>
@@ -5019,19 +5019,19 @@
         <v>16</v>
       </c>
       <c r="H118">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="I118">
         <v>2</v>
       </c>
       <c r="J118">
-        <v>37.972602739726028</v>
+        <v>32.054794520547944</v>
       </c>
       <c r="K118" s="2">
-        <v>140.73205479452054</v>
+        <v>134.6958904109589</v>
       </c>
       <c r="L118" s="2">
-        <v>0.82595555555555522</v>
+        <v>0.70355555555555516</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5042,7 +5042,7 @@
         <v>100</v>
       </c>
       <c r="C119" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D119" t="s">
         <v>19</v>
@@ -5057,30 +5057,30 @@
         <v>16</v>
       </c>
       <c r="H119">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119">
-        <v>56.958904109589035</v>
+        <v>48.082191780821923</v>
       </c>
       <c r="K119" s="2">
-        <v>160.0980821917808</v>
+        <v>151.04383561643834</v>
       </c>
       <c r="L119" s="2">
-        <v>0.81243703703703696</v>
+        <v>0.69003703703703689</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120">
         <v>100</v>
       </c>
       <c r="C120" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D120" t="s">
         <v>19</v>
@@ -5095,30 +5095,30 @@
         <v>16</v>
       </c>
       <c r="H120">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="I120">
         <v>2</v>
       </c>
       <c r="J120">
-        <v>75.945205479452056</v>
-      </c>
-      <c r="K120" s="2">
-        <v>179.4641095890411</v>
-      </c>
-      <c r="L120" s="2">
-        <v>0.80567777777777783</v>
+        <v>64.109589041095887</v>
+      </c>
+      <c r="K120">
+        <v>167.39178082191779</v>
+      </c>
+      <c r="L120">
+        <v>0.68327777777777765</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>33</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121">
         <v>100</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
         <v>19</v>
@@ -5133,30 +5133,30 @@
         <v>16</v>
       </c>
       <c r="H121">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="I121">
         <v>2</v>
       </c>
       <c r="J121">
-        <v>10.684931506849315</v>
-      </c>
-      <c r="K121" s="2">
-        <v>112.89863013698628</v>
-      </c>
-      <c r="L121" s="2">
-        <v>0.78466666666666596</v>
+        <v>11.178082191780824</v>
+      </c>
+      <c r="K121">
+        <v>113.40164383561644</v>
+      </c>
+      <c r="L121">
+        <v>0.8152666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>33</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122">
         <v>100</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D122" t="s">
         <v>19</v>
@@ -5171,30 +5171,30 @@
         <v>16</v>
       </c>
       <c r="H122">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="I122">
         <v>2</v>
       </c>
       <c r="J122">
-        <v>16.027397260273972</v>
-      </c>
-      <c r="K122" s="2">
-        <v>118.34794520547946</v>
-      </c>
-      <c r="L122" s="2">
-        <v>0.74411111111111161</v>
+        <v>16.767123287671236</v>
+      </c>
+      <c r="K122">
+        <v>119.10246575342467</v>
+      </c>
+      <c r="L122">
+        <v>0.77471111111111157</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>33</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123">
         <v>100</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D123" t="s">
         <v>19</v>
@@ -5209,30 +5209,30 @@
         <v>16</v>
       </c>
       <c r="H123">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="I123">
         <v>2</v>
       </c>
       <c r="J123">
-        <v>32.054794520547944</v>
-      </c>
-      <c r="K123" s="2">
-        <v>134.6958904109589</v>
-      </c>
-      <c r="L123" s="2">
-        <v>0.70355555555555516</v>
+        <v>33.534246575342472</v>
+      </c>
+      <c r="K123">
+        <v>136.20493150684933</v>
+      </c>
+      <c r="L123">
+        <v>0.73415555555555589</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>33</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124">
         <v>100</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D124" t="s">
         <v>19</v>
@@ -5247,19 +5247,19 @@
         <v>16</v>
       </c>
       <c r="H124">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124">
-        <v>48.082191780821923</v>
-      </c>
-      <c r="K124" s="2">
-        <v>151.04383561643834</v>
-      </c>
-      <c r="L124" s="2">
-        <v>0.69003703703703689</v>
+        <v>50.301369863013704</v>
+      </c>
+      <c r="K124">
+        <v>153.30739726027397</v>
+      </c>
+      <c r="L124">
+        <v>0.72063703703703719</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -5270,7 +5270,7 @@
         <v>100</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D125" t="s">
         <v>19</v>
@@ -5285,208 +5285,18 @@
         <v>16</v>
       </c>
       <c r="H125">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125">
-        <v>64.109589041095887</v>
+        <v>67.068493150684944</v>
       </c>
       <c r="K125">
-        <v>167.39178082191779</v>
+        <v>170.40986301369864</v>
       </c>
       <c r="L125">
-        <v>0.68327777777777765</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>33</v>
-      </c>
-      <c r="B126">
-        <v>100</v>
-      </c>
-      <c r="C126" t="s">
-        <v>29</v>
-      </c>
-      <c r="D126" t="s">
-        <v>19</v>
-      </c>
-      <c r="E126" t="s">
-        <v>27</v>
-      </c>
-      <c r="F126">
-        <v>60</v>
-      </c>
-      <c r="G126" t="s">
-        <v>16</v>
-      </c>
-      <c r="H126">
-        <v>0.68</v>
-      </c>
-      <c r="I126">
-        <v>2</v>
-      </c>
-      <c r="J126">
-        <v>11.178082191780824</v>
-      </c>
-      <c r="K126">
-        <v>113.40164383561644</v>
-      </c>
-      <c r="L126">
-        <v>0.8152666666666667</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>33</v>
-      </c>
-      <c r="B127">
-        <v>100</v>
-      </c>
-      <c r="C127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D127" t="s">
-        <v>19</v>
-      </c>
-      <c r="E127" t="s">
-        <v>27</v>
-      </c>
-      <c r="F127">
-        <v>90</v>
-      </c>
-      <c r="G127" t="s">
-        <v>16</v>
-      </c>
-      <c r="H127">
-        <v>0.68</v>
-      </c>
-      <c r="I127">
-        <v>2</v>
-      </c>
-      <c r="J127">
-        <v>16.767123287671236</v>
-      </c>
-      <c r="K127">
-        <v>119.10246575342467</v>
-      </c>
-      <c r="L127">
-        <v>0.77471111111111157</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>33</v>
-      </c>
-      <c r="B128">
-        <v>100</v>
-      </c>
-      <c r="C128" t="s">
-        <v>29</v>
-      </c>
-      <c r="D128" t="s">
-        <v>19</v>
-      </c>
-      <c r="E128" t="s">
-        <v>27</v>
-      </c>
-      <c r="F128">
-        <v>180</v>
-      </c>
-      <c r="G128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H128">
-        <v>0.68</v>
-      </c>
-      <c r="I128">
-        <v>2</v>
-      </c>
-      <c r="J128">
-        <v>33.534246575342472</v>
-      </c>
-      <c r="K128">
-        <v>136.20493150684933</v>
-      </c>
-      <c r="L128">
-        <v>0.73415555555555589</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>33</v>
-      </c>
-      <c r="B129">
-        <v>100</v>
-      </c>
-      <c r="C129" t="s">
-        <v>29</v>
-      </c>
-      <c r="D129" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129" t="s">
-        <v>27</v>
-      </c>
-      <c r="F129">
-        <v>270</v>
-      </c>
-      <c r="G129" t="s">
-        <v>16</v>
-      </c>
-      <c r="H129">
-        <v>0.68</v>
-      </c>
-      <c r="I129">
-        <v>2</v>
-      </c>
-      <c r="J129">
-        <v>50.301369863013704</v>
-      </c>
-      <c r="K129">
-        <v>153.30739726027397</v>
-      </c>
-      <c r="L129">
-        <v>0.72063703703703719</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>33</v>
-      </c>
-      <c r="B130">
-        <v>100</v>
-      </c>
-      <c r="C130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D130" t="s">
-        <v>19</v>
-      </c>
-      <c r="E130" t="s">
-        <v>27</v>
-      </c>
-      <c r="F130">
-        <v>360</v>
-      </c>
-      <c r="G130" t="s">
-        <v>16</v>
-      </c>
-      <c r="H130">
-        <v>0.68</v>
-      </c>
-      <c r="I130">
-        <v>2</v>
-      </c>
-      <c r="J130">
-        <v>67.068493150684944</v>
-      </c>
-      <c r="K130">
-        <v>170.40986301369864</v>
-      </c>
-      <c r="L130">
         <v>0.71387777777777794</v>
       </c>
     </row>

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A213F669-85F0-4362-877E-397C7CC0A87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C354A8-8106-4DE9-A260-18A0EB8788C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -4943,19 +4943,19 @@
         <v>16</v>
       </c>
       <c r="H116">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>10.684931506849315</v>
+        <v>9.0410958904109595</v>
       </c>
       <c r="K116" s="2">
-        <v>112.89863013698628</v>
+        <v>111.22191780821917</v>
       </c>
       <c r="L116" s="2">
-        <v>0.78466666666666596</v>
+        <v>0.68266666666666631</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -4981,19 +4981,19 @@
         <v>16</v>
       </c>
       <c r="H117">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
       <c r="J117">
-        <v>16.027397260273972</v>
+        <v>13.561643835616438</v>
       </c>
       <c r="K117" s="2">
-        <v>118.34794520547946</v>
+        <v>115.83287671232877</v>
       </c>
       <c r="L117" s="2">
-        <v>0.74411111111111161</v>
+        <v>0.64211111111111074</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -5019,19 +5019,19 @@
         <v>16</v>
       </c>
       <c r="H118">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I118">
         <v>2</v>
       </c>
       <c r="J118">
-        <v>32.054794520547944</v>
+        <v>27.123287671232877</v>
       </c>
       <c r="K118" s="2">
-        <v>134.6958904109589</v>
+        <v>129.66575342465754</v>
       </c>
       <c r="L118" s="2">
-        <v>0.70355555555555516</v>
+        <v>0.60155555555555562</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5057,19 +5057,19 @@
         <v>16</v>
       </c>
       <c r="H119">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119">
-        <v>48.082191780821923</v>
+        <v>40.684931506849317</v>
       </c>
       <c r="K119" s="2">
-        <v>151.04383561643834</v>
+        <v>143.49863013698629</v>
       </c>
       <c r="L119" s="2">
-        <v>0.69003703703703689</v>
+        <v>0.58803703703703691</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5095,19 +5095,19 @@
         <v>16</v>
       </c>
       <c r="H120">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I120">
         <v>2</v>
       </c>
       <c r="J120">
-        <v>64.109589041095887</v>
+        <v>54.246575342465754</v>
       </c>
       <c r="K120">
-        <v>167.39178082191779</v>
+        <v>157.33150684931508</v>
       </c>
       <c r="L120">
-        <v>0.68327777777777765</v>
+        <v>0.58127777777777778</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C354A8-8106-4DE9-A260-18A0EB8788C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF5B5C3-3F6F-4D5F-A025-40802D282B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="39">
   <si>
     <t>Precio de contado</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F38534-621C-456A-88D0-E73BF73C904A}">
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L125"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,16 +1222,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>105</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="L18" s="2">
-        <v>0.10138888888888899</v>
+        <v>0.11355555555555566</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>107.60000000000001</v>
+        <v>108.5</v>
       </c>
       <c r="L19" s="2">
-        <v>0.10274074074074083</v>
+        <v>0.11490740740740736</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1298,16 +1298,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.600000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>111.60000000000001</v>
+        <v>112.6</v>
       </c>
       <c r="L20" s="2">
-        <v>0.11761111111111121</v>
+        <v>0.12774999999999989</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1333,19 +1333,19 @@
         <v>13</v>
       </c>
       <c r="H21">
-        <v>0.105</v>
+        <v>0.115</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>10.356164383561643</v>
+        <v>11.342465753424658</v>
       </c>
       <c r="K21" s="2">
-        <v>111.45972602739725</v>
+        <v>112.4558904109589</v>
       </c>
       <c r="L21" s="2">
-        <v>0.11618888888888872</v>
+        <v>0.12628888888888878</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1713,19 +1713,19 @@
         <v>16</v>
       </c>
       <c r="H31">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="I31">
         <v>14.899999999999999</v>
       </c>
       <c r="J31">
-        <v>18.739726027397261</v>
+        <v>17.753424657534246</v>
       </c>
       <c r="K31" s="2">
-        <v>136.43194520547945</v>
+        <v>135.29868493150684</v>
       </c>
       <c r="L31" s="2">
-        <v>0.73875888888888896</v>
+        <v>0.71577888888888885</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1751,19 +1751,19 @@
         <v>16</v>
       </c>
       <c r="H32">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="I32">
         <v>14.899999999999999</v>
       </c>
       <c r="J32">
-        <v>33.287671232876711</v>
+        <v>32.547945205479458</v>
       </c>
       <c r="K32" s="2">
-        <v>153.14753424657533</v>
+        <v>152.2975890410959</v>
       </c>
       <c r="L32" s="2">
-        <v>0.71847592592592568</v>
+        <v>0.70698592592592602</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1827,19 +1827,19 @@
         <v>16</v>
       </c>
       <c r="H34">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="I34">
         <v>14.899999999999999</v>
       </c>
       <c r="J34">
-        <v>20.219178082191782</v>
+        <v>19.726027397260275</v>
       </c>
       <c r="K34" s="2">
-        <v>138.13183561643837</v>
+        <v>137.56520547945206</v>
       </c>
       <c r="L34" s="2">
-        <v>0.77322888888888885</v>
+        <v>0.76173888888888897</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2476,16 +2476,16 @@
         <v>0.435</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J51">
         <v>21.452054794520549</v>
       </c>
       <c r="K51" s="2">
-        <v>121.45205479452055</v>
+        <v>127.52465753424657</v>
       </c>
       <c r="L51" s="2">
-        <v>0.435</v>
+        <v>0.55813888888888896</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
@@ -2505,36 +2505,36 @@
         <v>12</v>
       </c>
       <c r="F52">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G52" t="s">
         <v>16</v>
       </c>
       <c r="H52">
-        <v>0.46500000000000002</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J52">
-        <v>34.397260273972606</v>
+        <v>15.041095890410958</v>
       </c>
       <c r="K52" s="2">
-        <v>134.39726027397262</v>
+        <v>126.54520547945208</v>
       </c>
       <c r="L52" s="2">
-        <v>0.46500000000000036</v>
+        <v>0.53827777777777819</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B53" s="1">
         <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -2543,36 +2543,36 @@
         <v>12</v>
       </c>
       <c r="F53">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G53" t="s">
         <v>16</v>
       </c>
       <c r="H53">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="J53">
-        <v>47.342465753424655</v>
+        <v>22.19178082191781</v>
       </c>
       <c r="K53" s="2">
-        <v>147.34246575342468</v>
+        <v>135.51068493150686</v>
       </c>
       <c r="L53" s="2">
-        <v>0.48000000000000009</v>
+        <v>0.72007777777777804</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B54" s="1">
         <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
@@ -2581,36 +2581,36 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G54" t="s">
         <v>16</v>
       </c>
       <c r="H54">
-        <v>0.30499999999999999</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="J54">
-        <v>15.041095890410958</v>
+        <v>40.684931506849317</v>
       </c>
       <c r="K54" s="2">
-        <v>115.04109589041096</v>
+        <v>156.01958904109588</v>
       </c>
       <c r="L54" s="2">
-        <v>0.30500000000000005</v>
+        <v>0.75730185185185162</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B55" s="1">
         <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
@@ -2619,36 +2619,36 @@
         <v>12</v>
       </c>
       <c r="F55">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G55" t="s">
         <v>16</v>
       </c>
       <c r="H55">
-        <v>0.37</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="J55">
-        <v>27.36986301369863</v>
+        <v>58.684931506849317</v>
       </c>
       <c r="K55" s="2">
-        <v>127.36986301369863</v>
+        <v>175.98158904109587</v>
       </c>
       <c r="L55" s="2">
-        <v>0.37000000000000011</v>
+        <v>0.77036888888888866</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B56" s="1">
         <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
@@ -2657,30 +2657,30 @@
         <v>12</v>
       </c>
       <c r="F56">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G56" t="s">
         <v>16</v>
       </c>
       <c r="H56">
-        <v>0.40500000000000003</v>
+        <v>0.45</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="J56">
-        <v>39.945205479452056</v>
+        <v>22.19178082191781</v>
       </c>
       <c r="K56" s="2">
-        <v>139.94520547945206</v>
+        <v>135.51068493150686</v>
       </c>
       <c r="L56" s="2">
-        <v>0.40500000000000008</v>
+        <v>0.72007777777777804</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57" s="1">
         <v>100</v>
@@ -2695,30 +2695,30 @@
         <v>12</v>
       </c>
       <c r="F57">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
       </c>
       <c r="H57">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I57">
         <v>10.9</v>
       </c>
       <c r="J57">
-        <v>26.630136986301373</v>
+        <v>40.684931506849317</v>
       </c>
       <c r="K57" s="2">
-        <v>140.43282191780821</v>
+        <v>156.01958904109588</v>
       </c>
       <c r="L57" s="2">
-        <v>0.81988777777777766</v>
+        <v>0.75730185185185162</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B58" s="1">
         <v>100</v>
@@ -2733,177 +2733,177 @@
         <v>12</v>
       </c>
       <c r="F58">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G58" t="s">
         <v>16</v>
       </c>
       <c r="H58">
-        <v>0.64</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="I58">
         <v>10.9</v>
       </c>
       <c r="J58">
-        <v>47.342465753424655</v>
+        <v>58.684931506849317</v>
       </c>
       <c r="K58" s="2">
-        <v>163.40279452054796</v>
+        <v>175.98158904109587</v>
       </c>
       <c r="L58" s="2">
-        <v>0.85711185185185201</v>
+        <v>0.77036888888888866</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B59" s="1">
         <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F59">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G59" t="s">
         <v>16</v>
       </c>
       <c r="H59">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>10.9</v>
+        <v>18.147631812115161</v>
       </c>
       <c r="J59">
-        <v>68.054794520547944</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2">
-        <v>186.37276712328767</v>
+        <v>118.14763181211516</v>
       </c>
       <c r="L59" s="2">
-        <v>0.87572388888888897</v>
+        <v>1.1039809352370056</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B60" s="1">
         <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F60">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s">
         <v>16</v>
       </c>
       <c r="H60">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>10.9</v>
+        <v>25.734637028384011</v>
       </c>
       <c r="J60">
-        <v>26.630136986301373</v>
+        <v>0</v>
       </c>
       <c r="K60" s="2">
-        <v>140.43282191780821</v>
+        <v>125.73463702838401</v>
       </c>
       <c r="L60" s="2">
-        <v>0.81988777777777766</v>
+        <v>1.0436825017066849</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B61" s="1">
         <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F61">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="G61" t="s">
         <v>16</v>
       </c>
       <c r="H61">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>10.9</v>
+        <v>33.344173594159535</v>
       </c>
       <c r="J61">
-        <v>47.342465753424655</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2">
-        <v>163.40279452054796</v>
+        <v>133.34417359415954</v>
       </c>
       <c r="L61" s="2">
-        <v>0.85711185185185201</v>
+        <v>1.0142186134890192</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B62" s="1">
         <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F62">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G62" t="s">
         <v>16</v>
       </c>
       <c r="H62">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>10.9</v>
+        <v>17.39030612244898</v>
       </c>
       <c r="J62">
-        <v>68.054794520547944</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2">
-        <v>186.37276712328767</v>
+        <v>117.39030612244899</v>
       </c>
       <c r="L62" s="2">
-        <v>0.87572388888888897</v>
+        <v>1.0579102891156467</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2914,7 +2914,7 @@
         <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
@@ -2923,7 +2923,7 @@
         <v>14</v>
       </c>
       <c r="F63">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G63" t="s">
         <v>16</v>
@@ -2932,16 +2932,16 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>18.147631812115161</v>
+        <v>26.192934316583777</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" s="2">
-        <v>118.14763181211516</v>
+        <v>126.19293431658379</v>
       </c>
       <c r="L63" s="2">
-        <v>1.1039809352370056</v>
+        <v>1.0622690028392312</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2952,7 +2952,7 @@
         <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
         <v>19</v>
@@ -2961,7 +2961,7 @@
         <v>14</v>
       </c>
       <c r="F64">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G64" t="s">
         <v>16</v>
@@ -2970,16 +2970,16 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>25.734637028384011</v>
+        <v>36.435992578849721</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64" s="2">
-        <v>125.73463702838401</v>
+        <v>136.43599257884972</v>
       </c>
       <c r="L64" s="2">
-        <v>1.0436825017066849</v>
+        <v>1.1082614409400127</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2990,7 +2990,7 @@
         <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
         <v>19</v>
@@ -2999,7 +2999,7 @@
         <v>14</v>
       </c>
       <c r="F65">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
@@ -3008,16 +3008,16 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>33.344173594159535</v>
+        <v>48.504546373004636</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65" s="2">
-        <v>133.34417359415954</v>
+        <v>148.50454637300464</v>
       </c>
       <c r="L65" s="2">
-        <v>1.0142186134890192</v>
+        <v>1.1802772950764466</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3037,7 +3037,7 @@
         <v>14</v>
       </c>
       <c r="F66">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G66" t="s">
         <v>16</v>
@@ -3046,16 +3046,16 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>17.39030612244898</v>
+        <v>62.934338952972489</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>117.39030612244899</v>
+        <v>162.9343389529725</v>
       </c>
       <c r="L66" s="2">
-        <v>1.0579102891156467</v>
+        <v>1.27616853987972</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3066,7 +3066,7 @@
         <v>100</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
@@ -3075,7 +3075,7 @@
         <v>14</v>
       </c>
       <c r="F67">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G67" t="s">
         <v>16</v>
@@ -3084,16 +3084,16 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>26.192934316583777</v>
+        <v>12</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" s="2">
-        <v>126.19293431658379</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L67" s="2">
-        <v>1.0622690028392312</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3104,7 +3104,7 @@
         <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
         <v>19</v>
@@ -3113,7 +3113,7 @@
         <v>14</v>
       </c>
       <c r="F68">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G68" t="s">
         <v>16</v>
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>36.435992578849721</v>
+        <v>17</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" s="2">
-        <v>136.43599257884972</v>
+        <v>117</v>
       </c>
       <c r="L68" s="2">
-        <v>1.1082614409400127</v>
+        <v>0.68944444444444419</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3142,7 +3142,7 @@
         <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
@@ -3151,7 +3151,7 @@
         <v>14</v>
       </c>
       <c r="F69">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
@@ -3160,16 +3160,16 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>48.504546373004636</v>
+        <v>22</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" s="2">
-        <v>148.50454637300464</v>
+        <v>122</v>
       </c>
       <c r="L69" s="2">
-        <v>1.1802772950764466</v>
+        <v>0.66916666666666658</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3180,7 +3180,7 @@
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
         <v>19</v>
@@ -3189,7 +3189,7 @@
         <v>14</v>
       </c>
       <c r="F70">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G70" t="s">
         <v>16</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>62.934338952972489</v>
+        <v>27</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" s="2">
-        <v>162.9343389529725</v>
+        <v>127</v>
       </c>
       <c r="L70" s="2">
-        <v>1.27616853987972</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3227,7 +3227,7 @@
         <v>14</v>
       </c>
       <c r="F71">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G71" t="s">
         <v>16</v>
@@ -3236,16 +3236,16 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" s="2">
-        <v>112.00000000000001</v>
+        <v>132</v>
       </c>
       <c r="L71" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.64888888888888896</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3256,7 +3256,7 @@
         <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D72" t="s">
         <v>19</v>
@@ -3265,7 +3265,7 @@
         <v>14</v>
       </c>
       <c r="F72">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G72" t="s">
         <v>16</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" s="2">
-        <v>115.99999999999999</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L72" s="2">
-        <v>0.64888888888888863</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3294,7 +3294,7 @@
         <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D73" t="s">
         <v>19</v>
@@ -3303,7 +3303,7 @@
         <v>14</v>
       </c>
       <c r="F73">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
@@ -3312,16 +3312,16 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L73" s="2">
-        <v>0.63874999999999982</v>
+        <v>0.68944444444444419</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D74" t="s">
         <v>19</v>
@@ -3341,7 +3341,7 @@
         <v>14</v>
       </c>
       <c r="F74">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G74" t="s">
         <v>16</v>
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L74" s="2">
-        <v>0.63266666666666671</v>
+        <v>0.66916666666666658</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3370,7 +3370,7 @@
         <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
@@ -3379,7 +3379,7 @@
         <v>14</v>
       </c>
       <c r="F75">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G75" t="s">
         <v>16</v>
@@ -3388,16 +3388,16 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L75" s="2">
-        <v>0.62861111111111123</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3417,7 +3417,7 @@
         <v>14</v>
       </c>
       <c r="F76">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" s="2">
-        <v>112.00000000000001</v>
+        <v>132</v>
       </c>
       <c r="L76" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.64888888888888896</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3446,7 +3446,7 @@
         <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
         <v>19</v>
@@ -3455,7 +3455,7 @@
         <v>14</v>
       </c>
       <c r="F77">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G77" t="s">
         <v>16</v>
@@ -3464,16 +3464,16 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" s="2">
-        <v>115.99999999999999</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L77" s="2">
-        <v>0.64888888888888863</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
         <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
         <v>19</v>
@@ -3493,7 +3493,7 @@
         <v>14</v>
       </c>
       <c r="F78">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
@@ -3502,16 +3502,16 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L78" s="2">
-        <v>0.63874999999999982</v>
+        <v>0.68944444444444419</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3522,7 +3522,7 @@
         <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
         <v>19</v>
@@ -3531,7 +3531,7 @@
         <v>14</v>
       </c>
       <c r="F79">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
@@ -3540,16 +3540,16 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L79" s="2">
-        <v>0.63266666666666671</v>
+        <v>0.66916666666666658</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3560,7 +3560,7 @@
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
         <v>19</v>
@@ -3569,7 +3569,7 @@
         <v>14</v>
       </c>
       <c r="F80">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
@@ -3578,16 +3578,16 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L80" s="2">
-        <v>0.62861111111111123</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3607,7 +3607,7 @@
         <v>14</v>
       </c>
       <c r="F81">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
@@ -3616,16 +3616,16 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" s="2">
-        <v>112.00000000000001</v>
+        <v>132</v>
       </c>
       <c r="L81" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.64888888888888896</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3636,7 +3636,7 @@
         <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s">
         <v>19</v>
@@ -3645,7 +3645,7 @@
         <v>14</v>
       </c>
       <c r="F82">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G82" t="s">
         <v>16</v>
@@ -3654,16 +3654,16 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82" s="2">
-        <v>115.99999999999999</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L82" s="2">
-        <v>0.64888888888888863</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3674,7 +3674,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D83" t="s">
         <v>19</v>
@@ -3683,7 +3683,7 @@
         <v>14</v>
       </c>
       <c r="F83">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G83" t="s">
         <v>16</v>
@@ -3692,16 +3692,16 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L83" s="2">
-        <v>0.63874999999999982</v>
+        <v>0.68944444444444419</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3712,7 +3712,7 @@
         <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
         <v>19</v>
@@ -3721,7 +3721,7 @@
         <v>14</v>
       </c>
       <c r="F84">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G84" t="s">
         <v>16</v>
@@ -3730,16 +3730,16 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L84" s="2">
-        <v>0.63266666666666671</v>
+        <v>0.66916666666666658</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3750,7 +3750,7 @@
         <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
         <v>19</v>
@@ -3759,7 +3759,7 @@
         <v>14</v>
       </c>
       <c r="F85">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
@@ -3768,16 +3768,16 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L85" s="2">
-        <v>0.62861111111111123</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3797,7 +3797,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G86" t="s">
         <v>16</v>
@@ -3806,16 +3806,16 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" s="2">
-        <v>112.00000000000001</v>
+        <v>132</v>
       </c>
       <c r="L86" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.64888888888888896</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3826,7 +3826,7 @@
         <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D87" t="s">
         <v>19</v>
@@ -3835,7 +3835,7 @@
         <v>14</v>
       </c>
       <c r="F87">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G87" t="s">
         <v>16</v>
@@ -3844,16 +3844,16 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" s="2">
-        <v>115.99999999999999</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L87" s="2">
-        <v>0.64888888888888863</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3864,7 +3864,7 @@
         <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
         <v>19</v>
@@ -3873,7 +3873,7 @@
         <v>14</v>
       </c>
       <c r="F88">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G88" t="s">
         <v>16</v>
@@ -3882,16 +3882,16 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L88" s="2">
-        <v>0.63874999999999982</v>
+        <v>0.68944444444444419</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3902,7 +3902,7 @@
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
         <v>19</v>
@@ -3911,7 +3911,7 @@
         <v>14</v>
       </c>
       <c r="F89">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G89" t="s">
         <v>16</v>
@@ -3920,16 +3920,16 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L89" s="2">
-        <v>0.63266666666666671</v>
+        <v>0.66916666666666658</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3940,7 +3940,7 @@
         <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D90" t="s">
         <v>19</v>
@@ -3949,7 +3949,7 @@
         <v>14</v>
       </c>
       <c r="F90">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
@@ -3958,16 +3958,16 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L90" s="2">
-        <v>0.62861111111111123</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3987,7 +3987,7 @@
         <v>14</v>
       </c>
       <c r="F91">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G91" t="s">
         <v>16</v>
@@ -3996,16 +3996,16 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91" s="2">
-        <v>112.00000000000001</v>
+        <v>132</v>
       </c>
       <c r="L91" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.64888888888888896</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4016,7 +4016,7 @@
         <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
         <v>19</v>
@@ -4025,7 +4025,7 @@
         <v>14</v>
       </c>
       <c r="F92">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G92" t="s">
         <v>16</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92" s="2">
-        <v>115.99999999999999</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L92" s="2">
-        <v>0.64888888888888863</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4054,7 +4054,7 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D93" t="s">
         <v>19</v>
@@ -4063,7 +4063,7 @@
         <v>14</v>
       </c>
       <c r="F93">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
@@ -4072,16 +4072,16 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L93" s="2">
-        <v>0.63874999999999982</v>
+        <v>0.68944444444444419</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4092,7 +4092,7 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D94" t="s">
         <v>19</v>
@@ -4101,7 +4101,7 @@
         <v>14</v>
       </c>
       <c r="F94">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G94" t="s">
         <v>16</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L94" s="2">
-        <v>0.63266666666666671</v>
+        <v>0.66916666666666658</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4130,7 +4130,7 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D95" t="s">
         <v>19</v>
@@ -4139,7 +4139,7 @@
         <v>14</v>
       </c>
       <c r="F95">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G95" t="s">
         <v>16</v>
@@ -4148,16 +4148,16 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L95" s="2">
-        <v>0.62861111111111123</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4177,7 +4177,7 @@
         <v>14</v>
       </c>
       <c r="F96">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G96" t="s">
         <v>16</v>
@@ -4186,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96" s="2">
-        <v>112.00000000000001</v>
+        <v>132</v>
       </c>
       <c r="L96" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.64888888888888896</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4206,7 +4206,7 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D97" t="s">
         <v>19</v>
@@ -4215,7 +4215,7 @@
         <v>14</v>
       </c>
       <c r="F97">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G97" t="s">
         <v>16</v>
@@ -4224,16 +4224,16 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97" s="2">
-        <v>115.99999999999999</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L97" s="2">
-        <v>0.64888888888888863</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4244,7 +4244,7 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D98" t="s">
         <v>19</v>
@@ -4253,7 +4253,7 @@
         <v>14</v>
       </c>
       <c r="F98">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G98" t="s">
         <v>16</v>
@@ -4262,16 +4262,16 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L98" s="2">
-        <v>0.63874999999999982</v>
+        <v>0.68944444444444419</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4282,7 +4282,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D99" t="s">
         <v>19</v>
@@ -4291,7 +4291,7 @@
         <v>14</v>
       </c>
       <c r="F99">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G99" t="s">
         <v>16</v>
@@ -4300,16 +4300,16 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L99" s="2">
-        <v>0.63266666666666671</v>
+        <v>0.66916666666666658</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4320,7 +4320,7 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D100" t="s">
         <v>19</v>
@@ -4329,7 +4329,7 @@
         <v>14</v>
       </c>
       <c r="F100">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G100" t="s">
         <v>16</v>
@@ -4338,16 +4338,16 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L100" s="2">
-        <v>0.62861111111111123</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4367,7 +4367,7 @@
         <v>14</v>
       </c>
       <c r="F101">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G101" t="s">
         <v>16</v>
@@ -4376,16 +4376,16 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101" s="2">
-        <v>112.00000000000001</v>
+        <v>132</v>
       </c>
       <c r="L101" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.64888888888888896</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4396,34 +4396,34 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D102" t="s">
         <v>19</v>
       </c>
       <c r="E102" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F102">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G102" t="s">
         <v>16</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>0.62354166666666688</v>
       </c>
       <c r="I102">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>10.250000000000004</v>
       </c>
       <c r="K102" s="2">
-        <v>115.99999999999999</v>
+        <v>112.455</v>
       </c>
       <c r="L102" s="2">
-        <v>0.64888888888888863</v>
+        <v>0.75767916666666624</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4434,34 +4434,34 @@
         <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D103" t="s">
         <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F103">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G103" t="s">
         <v>16</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>0.63925694444444492</v>
       </c>
       <c r="I103">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>15.762500000000014</v>
       </c>
       <c r="K103" s="2">
-        <v>121</v>
+        <v>118.07775000000001</v>
       </c>
       <c r="L103" s="2">
-        <v>0.63874999999999982</v>
+        <v>0.7331531944444446</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4472,34 +4472,34 @@
         <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D104" t="s">
         <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F104">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G104" t="s">
         <v>16</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>0.68963838237847208</v>
       </c>
       <c r="I104">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>34.00956406249999</v>
       </c>
       <c r="K104" s="2">
-        <v>126</v>
+        <v>136.68975534374999</v>
       </c>
       <c r="L104" s="2">
-        <v>0.63266666666666671</v>
+        <v>0.74398670558159685</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4510,34 +4510,34 @@
         <v>100</v>
       </c>
       <c r="C105" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D105" t="s">
         <v>19</v>
       </c>
       <c r="E105" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F105">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G105" t="s">
         <v>16</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>0.82141279606950668</v>
       </c>
       <c r="I105">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>60.762042448977205</v>
       </c>
       <c r="K105" s="2">
-        <v>131</v>
+        <v>163.97728329795675</v>
       </c>
       <c r="L105" s="2">
-        <v>0.62861111111111123</v>
+        <v>0.86487808902793395</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4557,25 +4557,25 @@
         <v>27</v>
       </c>
       <c r="F106">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G106" t="s">
         <v>16</v>
       </c>
       <c r="H106">
-        <v>0.68756874999999962</v>
+        <v>0.89553221043543629</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106">
-        <v>11.302499999999993</v>
+        <v>88.326464590892357</v>
       </c>
       <c r="K106" s="2">
-        <v>113.52855</v>
+        <v>192.09299388271023</v>
       </c>
       <c r="L106" s="2">
-        <v>0.82298679166666644</v>
+        <v>0.93372063242192338</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4586,7 +4586,7 @@
         <v>100</v>
       </c>
       <c r="C107" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D107" t="s">
         <v>19</v>
@@ -4595,25 +4595,25 @@
         <v>27</v>
       </c>
       <c r="F107">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G107" t="s">
         <v>16</v>
       </c>
       <c r="H107">
-        <v>0.70664557638888814</v>
+        <v>0.64</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107">
-        <v>17.424137499999979</v>
+        <v>10.520547945205481</v>
       </c>
       <c r="K107" s="2">
-        <v>119.77262024999997</v>
+        <v>112.73095890410958</v>
       </c>
       <c r="L107" s="2">
-        <v>0.80188959902777668</v>
+        <v>0.77446666666666608</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4624,7 +4624,7 @@
         <v>100</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D108" t="s">
         <v>19</v>
@@ -4633,25 +4633,25 @@
         <v>27</v>
       </c>
       <c r="F108">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G108" t="s">
         <v>16</v>
       </c>
       <c r="H108">
-        <v>0.76820902482272202</v>
+        <v>0.64</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108">
-        <v>37.884280676189029</v>
+        <v>15.780821917808218</v>
       </c>
       <c r="K108" s="2">
-        <v>140.6419662897128</v>
+        <v>118.09643835616437</v>
       </c>
       <c r="L108" s="2">
-        <v>0.82412876087473164</v>
+        <v>0.7339111111111104</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4662,7 +4662,7 @@
         <v>100</v>
       </c>
       <c r="C109" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
         <v>19</v>
@@ -4671,25 +4671,25 @@
         <v>27</v>
       </c>
       <c r="F109">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G109" t="s">
         <v>16</v>
       </c>
       <c r="H109">
-        <v>0.91596428303281763</v>
+        <v>0.64</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109">
-        <v>67.756262032564592</v>
+        <v>31.561643835616437</v>
       </c>
       <c r="K109" s="2">
-        <v>171.11138727321588</v>
+        <v>134.19287671232877</v>
       </c>
       <c r="L109" s="2">
-        <v>0.96132060573051104</v>
+        <v>0.69335555555555572</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -4700,7 +4700,7 @@
         <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
         <v>19</v>
@@ -4709,25 +4709,25 @@
         <v>27</v>
       </c>
       <c r="F110">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G110" t="s">
         <v>16</v>
       </c>
       <c r="H110">
-        <v>1.0070911208344702</v>
+        <v>0.64</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110">
-        <v>99.329535205591569</v>
+        <v>47.342465753424655</v>
       </c>
       <c r="K110" s="2">
-        <v>203.3161259097034</v>
+        <v>150.28931506849315</v>
       </c>
       <c r="L110" s="2">
-        <v>1.0475107210289369</v>
+        <v>0.67983703703703691</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4747,25 +4747,25 @@
         <v>27</v>
       </c>
       <c r="F111">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G111" t="s">
         <v>16</v>
       </c>
       <c r="H111">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111">
-        <v>12</v>
+        <v>63.123287671232873</v>
       </c>
       <c r="K111" s="2">
-        <v>114.24000000000001</v>
+        <v>166.38575342465754</v>
       </c>
       <c r="L111" s="2">
-        <v>0.86626666666666707</v>
+        <v>0.67307777777777777</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -4776,7 +4776,7 @@
         <v>100</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D112" t="s">
         <v>19</v>
@@ -4785,25 +4785,25 @@
         <v>27</v>
       </c>
       <c r="F112">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G112" t="s">
         <v>16</v>
       </c>
       <c r="H112">
-        <v>0.73</v>
+        <v>0.45</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>18</v>
+        <v>7.397260273972603</v>
       </c>
       <c r="K112" s="2">
-        <v>120.36</v>
+        <v>109.54520547945205</v>
       </c>
       <c r="L112" s="2">
-        <v>0.82571111111111117</v>
+        <v>0.58066666666666678</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4814,7 +4814,7 @@
         <v>100</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D113" t="s">
         <v>19</v>
@@ -4823,25 +4823,25 @@
         <v>27</v>
       </c>
       <c r="F113">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G113" t="s">
         <v>16</v>
       </c>
       <c r="H113">
-        <v>0.73</v>
+        <v>0.45</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>36</v>
+        <v>11.095890410958905</v>
       </c>
       <c r="K113" s="2">
-        <v>138.72</v>
+        <v>113.31780821917809</v>
       </c>
       <c r="L113" s="2">
-        <v>0.7851555555555555</v>
+        <v>0.54011111111111165</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -4852,7 +4852,7 @@
         <v>100</v>
       </c>
       <c r="C114" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D114" t="s">
         <v>19</v>
@@ -4861,25 +4861,25 @@
         <v>27</v>
       </c>
       <c r="F114">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G114" t="s">
         <v>16</v>
       </c>
       <c r="H114">
-        <v>0.73</v>
+        <v>0.45</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114">
-        <v>54</v>
+        <v>22.19178082191781</v>
       </c>
       <c r="K114" s="2">
-        <v>157.08000000000001</v>
+        <v>124.63561643835618</v>
       </c>
       <c r="L114" s="2">
-        <v>0.77163703703703723</v>
+        <v>0.49955555555555609</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4890,7 +4890,7 @@
         <v>100</v>
       </c>
       <c r="C115" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D115" t="s">
         <v>19</v>
@@ -4899,32 +4899,32 @@
         <v>27</v>
       </c>
       <c r="F115">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G115" t="s">
         <v>16</v>
       </c>
       <c r="H115">
-        <v>0.73</v>
+        <v>0.45</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115">
-        <v>72</v>
+        <v>33.287671232876711</v>
       </c>
       <c r="K115" s="2">
-        <v>175.44</v>
+        <v>135.95342465753424</v>
       </c>
       <c r="L115" s="2">
-        <v>0.76487777777777766</v>
+        <v>0.48603703703703693</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>33</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116">
         <v>100</v>
       </c>
       <c r="C116" t="s">
@@ -4937,36 +4937,36 @@
         <v>27</v>
       </c>
       <c r="F116">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G116" t="s">
         <v>16</v>
       </c>
       <c r="H116">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>9.0410958904109595</v>
-      </c>
-      <c r="K116" s="2">
-        <v>111.22191780821917</v>
-      </c>
-      <c r="L116" s="2">
-        <v>0.68266666666666631</v>
+        <v>44.38356164383562</v>
+      </c>
+      <c r="K116">
+        <v>147.27123287671233</v>
+      </c>
+      <c r="L116">
+        <v>0.4792777777777778</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117">
         <v>100</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D117" t="s">
         <v>19</v>
@@ -4975,36 +4975,36 @@
         <v>27</v>
       </c>
       <c r="F117">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G117" t="s">
         <v>16</v>
       </c>
       <c r="H117">
-        <v>0.55000000000000004</v>
+        <v>0.68</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
       <c r="J117">
-        <v>13.561643835616438</v>
-      </c>
-      <c r="K117" s="2">
-        <v>115.83287671232877</v>
-      </c>
-      <c r="L117" s="2">
-        <v>0.64211111111111074</v>
+        <v>11.178082191780824</v>
+      </c>
+      <c r="K117">
+        <v>113.40164383561644</v>
+      </c>
+      <c r="L117">
+        <v>0.8152666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>33</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118">
         <v>100</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D118" t="s">
         <v>19</v>
@@ -5013,36 +5013,36 @@
         <v>27</v>
       </c>
       <c r="F118">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G118" t="s">
         <v>16</v>
       </c>
       <c r="H118">
-        <v>0.55000000000000004</v>
+        <v>0.68</v>
       </c>
       <c r="I118">
         <v>2</v>
       </c>
       <c r="J118">
-        <v>27.123287671232877</v>
-      </c>
-      <c r="K118" s="2">
-        <v>129.66575342465754</v>
-      </c>
-      <c r="L118" s="2">
-        <v>0.60155555555555562</v>
+        <v>16.767123287671236</v>
+      </c>
+      <c r="K118">
+        <v>119.10246575342467</v>
+      </c>
+      <c r="L118">
+        <v>0.77471111111111157</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119">
         <v>100</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D119" t="s">
         <v>19</v>
@@ -5051,25 +5051,25 @@
         <v>27</v>
       </c>
       <c r="F119">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G119" t="s">
         <v>16</v>
       </c>
       <c r="H119">
-        <v>0.55000000000000004</v>
+        <v>0.68</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119">
-        <v>40.684931506849317</v>
-      </c>
-      <c r="K119" s="2">
-        <v>143.49863013698629</v>
-      </c>
-      <c r="L119" s="2">
-        <v>0.58803703703703691</v>
+        <v>33.534246575342472</v>
+      </c>
+      <c r="K119">
+        <v>136.20493150684933</v>
+      </c>
+      <c r="L119">
+        <v>0.73415555555555589</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5080,7 +5080,7 @@
         <v>100</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D120" t="s">
         <v>19</v>
@@ -5089,25 +5089,25 @@
         <v>27</v>
       </c>
       <c r="F120">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G120" t="s">
         <v>16</v>
       </c>
       <c r="H120">
-        <v>0.55000000000000004</v>
+        <v>0.68</v>
       </c>
       <c r="I120">
         <v>2</v>
       </c>
       <c r="J120">
-        <v>54.246575342465754</v>
+        <v>50.301369863013704</v>
       </c>
       <c r="K120">
-        <v>157.33150684931508</v>
+        <v>153.30739726027397</v>
       </c>
       <c r="L120">
-        <v>0.58127777777777778</v>
+        <v>0.72063703703703719</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -5127,7 +5127,7 @@
         <v>27</v>
       </c>
       <c r="F121">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G121" t="s">
         <v>16</v>
@@ -5139,164 +5139,12 @@
         <v>2</v>
       </c>
       <c r="J121">
-        <v>11.178082191780824</v>
+        <v>67.068493150684944</v>
       </c>
       <c r="K121">
-        <v>113.40164383561644</v>
+        <v>170.40986301369864</v>
       </c>
       <c r="L121">
-        <v>0.8152666666666667</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>33</v>
-      </c>
-      <c r="B122">
-        <v>100</v>
-      </c>
-      <c r="C122" t="s">
-        <v>29</v>
-      </c>
-      <c r="D122" t="s">
-        <v>19</v>
-      </c>
-      <c r="E122" t="s">
-        <v>27</v>
-      </c>
-      <c r="F122">
-        <v>90</v>
-      </c>
-      <c r="G122" t="s">
-        <v>16</v>
-      </c>
-      <c r="H122">
-        <v>0.68</v>
-      </c>
-      <c r="I122">
-        <v>2</v>
-      </c>
-      <c r="J122">
-        <v>16.767123287671236</v>
-      </c>
-      <c r="K122">
-        <v>119.10246575342467</v>
-      </c>
-      <c r="L122">
-        <v>0.77471111111111157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>33</v>
-      </c>
-      <c r="B123">
-        <v>100</v>
-      </c>
-      <c r="C123" t="s">
-        <v>29</v>
-      </c>
-      <c r="D123" t="s">
-        <v>19</v>
-      </c>
-      <c r="E123" t="s">
-        <v>27</v>
-      </c>
-      <c r="F123">
-        <v>180</v>
-      </c>
-      <c r="G123" t="s">
-        <v>16</v>
-      </c>
-      <c r="H123">
-        <v>0.68</v>
-      </c>
-      <c r="I123">
-        <v>2</v>
-      </c>
-      <c r="J123">
-        <v>33.534246575342472</v>
-      </c>
-      <c r="K123">
-        <v>136.20493150684933</v>
-      </c>
-      <c r="L123">
-        <v>0.73415555555555589</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>33</v>
-      </c>
-      <c r="B124">
-        <v>100</v>
-      </c>
-      <c r="C124" t="s">
-        <v>29</v>
-      </c>
-      <c r="D124" t="s">
-        <v>19</v>
-      </c>
-      <c r="E124" t="s">
-        <v>27</v>
-      </c>
-      <c r="F124">
-        <v>270</v>
-      </c>
-      <c r="G124" t="s">
-        <v>16</v>
-      </c>
-      <c r="H124">
-        <v>0.68</v>
-      </c>
-      <c r="I124">
-        <v>2</v>
-      </c>
-      <c r="J124">
-        <v>50.301369863013704</v>
-      </c>
-      <c r="K124">
-        <v>153.30739726027397</v>
-      </c>
-      <c r="L124">
-        <v>0.72063703703703719</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>33</v>
-      </c>
-      <c r="B125">
-        <v>100</v>
-      </c>
-      <c r="C125" t="s">
-        <v>29</v>
-      </c>
-      <c r="D125" t="s">
-        <v>19</v>
-      </c>
-      <c r="E125" t="s">
-        <v>27</v>
-      </c>
-      <c r="F125">
-        <v>360</v>
-      </c>
-      <c r="G125" t="s">
-        <v>16</v>
-      </c>
-      <c r="H125">
-        <v>0.68</v>
-      </c>
-      <c r="I125">
-        <v>2</v>
-      </c>
-      <c r="J125">
-        <v>67.068493150684944</v>
-      </c>
-      <c r="K125">
-        <v>170.40986301369864</v>
-      </c>
-      <c r="L125">
         <v>0.71387777777777794</v>
       </c>
     </row>

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF5B5C3-3F6F-4D5F-A025-40802D282B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736DA537-4470-4E5A-8972-630A9E53CE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="37">
   <si>
     <t>Precio de contado</t>
   </si>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <t>Tipo de Empresa</t>
-  </si>
-  <si>
-    <t>PROCAMPO DIGITAL - Promo 1</t>
-  </si>
-  <si>
-    <t>PROCAMPO DIGITAL - Promo 2</t>
   </si>
 </sst>
 </file>
@@ -538,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F38534-621C-456A-88D0-E73BF73C904A}">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,19 +2239,19 @@
         <v>16</v>
       </c>
       <c r="H45">
-        <v>0.40500000000000003</v>
+        <v>0.505</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45">
-        <v>19.972602739726028</v>
+        <v>24.904109589041095</v>
       </c>
       <c r="K45" s="2">
-        <v>122.37205479452055</v>
+        <v>127.40219178082192</v>
       </c>
       <c r="L45" s="2">
-        <v>0.45365555555555576</v>
+        <v>0.55565555555555579</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2283,19 +2277,19 @@
         <v>16</v>
       </c>
       <c r="H46">
-        <v>0.41</v>
+        <v>0.51</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46">
-        <v>23.589041095890412</v>
+        <v>29.342465753424662</v>
       </c>
       <c r="K46" s="2">
-        <v>126.06082191780823</v>
+        <v>131.92931506849314</v>
       </c>
       <c r="L46" s="2">
-        <v>0.4529619047619049</v>
+        <v>0.55496190476190466</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2321,19 +2315,19 @@
         <v>16</v>
       </c>
       <c r="H47">
-        <v>0.41499999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="I47">
         <v>2</v>
       </c>
       <c r="J47">
-        <v>30.698630136986299</v>
+        <v>38.465753424657535</v>
       </c>
       <c r="K47" s="2">
-        <v>133.31260273972603</v>
+        <v>141.23506849315066</v>
       </c>
       <c r="L47" s="2">
-        <v>0.45033703703703704</v>
+        <v>0.55743703703703673</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2359,19 +2353,19 @@
         <v>16</v>
       </c>
       <c r="H48">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
       <c r="I48">
         <v>0.5</v>
       </c>
       <c r="J48">
-        <v>35.506849315068493</v>
+        <v>34.027397260273972</v>
       </c>
       <c r="K48" s="2">
-        <v>136.18438356164381</v>
+        <v>134.69753424657532</v>
       </c>
       <c r="L48" s="2">
-        <v>0.7337388888888885</v>
+        <v>0.70358888888888826</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2397,19 +2391,19 @@
         <v>16</v>
       </c>
       <c r="H49">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
       <c r="I49">
         <v>0.5</v>
       </c>
       <c r="J49">
-        <v>53.260273972602732</v>
+        <v>51.041095890410958</v>
       </c>
       <c r="K49" s="2">
-        <v>154.02657534246572</v>
+        <v>151.79630136986302</v>
       </c>
       <c r="L49" s="2">
-        <v>0.73035925925925871</v>
+        <v>0.70020925925925936</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2435,30 +2429,30 @@
         <v>16</v>
       </c>
       <c r="H50">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
       <c r="I50">
         <v>0.5</v>
       </c>
       <c r="J50">
-        <v>71.013698630136986</v>
+        <v>68.054794520547944</v>
       </c>
       <c r="K50" s="2">
-        <v>171.86876712328763</v>
+        <v>168.89506849315066</v>
       </c>
       <c r="L50" s="2">
-        <v>0.72866944444444404</v>
+        <v>0.69851944444444414</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B51" s="1">
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
@@ -2473,30 +2467,30 @@
         <v>16</v>
       </c>
       <c r="H51">
-        <v>0.435</v>
+        <v>0.77</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>10.9</v>
       </c>
       <c r="J51">
-        <v>21.452054794520549</v>
+        <v>37.972602739726028</v>
       </c>
       <c r="K51" s="2">
-        <v>127.52465753424657</v>
+        <v>153.01161643835616</v>
       </c>
       <c r="L51" s="2">
-        <v>0.55813888888888896</v>
+        <v>1.0749577777777775</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B52" s="1">
         <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
@@ -2505,25 +2499,25 @@
         <v>12</v>
       </c>
       <c r="F52">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G52" t="s">
         <v>16</v>
       </c>
       <c r="H52">
-        <v>0.30499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>10.9</v>
       </c>
       <c r="J52">
-        <v>15.041095890410958</v>
+        <v>62.876712328767113</v>
       </c>
       <c r="K52" s="2">
-        <v>126.54520547945208</v>
+        <v>180.63027397260274</v>
       </c>
       <c r="L52" s="2">
-        <v>0.53827777777777819</v>
+        <v>1.0900018518518519</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2543,30 +2537,30 @@
         <v>12</v>
       </c>
       <c r="F53">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G53" t="s">
         <v>16</v>
       </c>
       <c r="H53">
-        <v>0.45</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="I53">
         <v>10.9</v>
       </c>
       <c r="J53">
-        <v>22.19178082191781</v>
+        <v>89.260273972602747</v>
       </c>
       <c r="K53" s="2">
-        <v>135.51068493150686</v>
+        <v>209.88964383561645</v>
       </c>
       <c r="L53" s="2">
-        <v>0.72007777777777804</v>
+        <v>1.1141588888888891</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54" s="1">
         <v>100</v>
@@ -2581,30 +2575,30 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G54" t="s">
         <v>16</v>
       </c>
       <c r="H54">
-        <v>0.55000000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="I54">
         <v>10.9</v>
       </c>
       <c r="J54">
-        <v>40.684931506849317</v>
+        <v>37.972602739726028</v>
       </c>
       <c r="K54" s="2">
-        <v>156.01958904109588</v>
+        <v>153.01161643835616</v>
       </c>
       <c r="L54" s="2">
-        <v>0.75730185185185162</v>
+        <v>1.0749577777777775</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55" s="1">
         <v>100</v>
@@ -2619,25 +2613,25 @@
         <v>12</v>
       </c>
       <c r="F55">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G55" t="s">
         <v>16</v>
       </c>
       <c r="H55">
-        <v>0.59499999999999997</v>
+        <v>0.85</v>
       </c>
       <c r="I55">
         <v>10.9</v>
       </c>
       <c r="J55">
-        <v>58.684931506849317</v>
+        <v>62.876712328767113</v>
       </c>
       <c r="K55" s="2">
-        <v>175.98158904109587</v>
+        <v>180.63027397260274</v>
       </c>
       <c r="L55" s="2">
-        <v>0.77036888888888866</v>
+        <v>1.0900018518518519</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2657,101 +2651,101 @@
         <v>12</v>
       </c>
       <c r="F56">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G56" t="s">
         <v>16</v>
       </c>
       <c r="H56">
-        <v>0.45</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="I56">
         <v>10.9</v>
       </c>
       <c r="J56">
-        <v>22.19178082191781</v>
+        <v>89.260273972602747</v>
       </c>
       <c r="K56" s="2">
-        <v>135.51068493150686</v>
+        <v>209.88964383561645</v>
       </c>
       <c r="L56" s="2">
-        <v>0.72007777777777804</v>
+        <v>1.1141588888888891</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B57" s="1">
         <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F57">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
       </c>
       <c r="H57">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>10.9</v>
+        <v>18.147631812115161</v>
       </c>
       <c r="J57">
-        <v>40.684931506849317</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2">
-        <v>156.01958904109588</v>
+        <v>118.14763181211516</v>
       </c>
       <c r="L57" s="2">
-        <v>0.75730185185185162</v>
+        <v>1.1039809352370056</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B58" s="1">
         <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F58">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s">
         <v>16</v>
       </c>
       <c r="H58">
-        <v>0.59499999999999997</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>10.9</v>
+        <v>25.734637028384011</v>
       </c>
       <c r="J58">
-        <v>58.684931506849317</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2">
-        <v>175.98158904109587</v>
+        <v>125.73463702838401</v>
       </c>
       <c r="L58" s="2">
-        <v>0.77036888888888866</v>
+        <v>1.0436825017066849</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2771,7 +2765,7 @@
         <v>14</v>
       </c>
       <c r="F59">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G59" t="s">
         <v>16</v>
@@ -2780,16 +2774,16 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>18.147631812115161</v>
+        <v>33.344173594159535</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59" s="2">
-        <v>118.14763181211516</v>
+        <v>133.34417359415954</v>
       </c>
       <c r="L59" s="2">
-        <v>1.1039809352370056</v>
+        <v>1.0142186134890192</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2800,7 +2794,7 @@
         <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
@@ -2809,7 +2803,7 @@
         <v>14</v>
       </c>
       <c r="F60">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G60" t="s">
         <v>16</v>
@@ -2818,16 +2812,16 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>25.734637028384011</v>
+        <v>17.39030612244898</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60" s="2">
-        <v>125.73463702838401</v>
+        <v>117.39030612244899</v>
       </c>
       <c r="L60" s="2">
-        <v>1.0436825017066849</v>
+        <v>1.0579102891156467</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2838,7 +2832,7 @@
         <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
@@ -2847,7 +2841,7 @@
         <v>14</v>
       </c>
       <c r="F61">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s">
         <v>16</v>
@@ -2856,16 +2850,16 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>33.344173594159535</v>
+        <v>26.192934316583777</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" s="2">
-        <v>133.34417359415954</v>
+        <v>126.19293431658379</v>
       </c>
       <c r="L61" s="2">
-        <v>1.0142186134890192</v>
+        <v>1.0622690028392312</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2885,7 +2879,7 @@
         <v>14</v>
       </c>
       <c r="F62">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G62" t="s">
         <v>16</v>
@@ -2894,16 +2888,16 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>17.39030612244898</v>
+        <v>36.435992578849721</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62" s="2">
-        <v>117.39030612244899</v>
+        <v>136.43599257884972</v>
       </c>
       <c r="L62" s="2">
-        <v>1.0579102891156467</v>
+        <v>1.1082614409400127</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2923,7 +2917,7 @@
         <v>14</v>
       </c>
       <c r="F63">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G63" t="s">
         <v>16</v>
@@ -2932,16 +2926,16 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>26.192934316583777</v>
+        <v>48.504546373004636</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" s="2">
-        <v>126.19293431658379</v>
+        <v>148.50454637300464</v>
       </c>
       <c r="L63" s="2">
-        <v>1.0622690028392312</v>
+        <v>1.1802772950764466</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2961,7 +2955,7 @@
         <v>14</v>
       </c>
       <c r="F64">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G64" t="s">
         <v>16</v>
@@ -2970,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>36.435992578849721</v>
+        <v>62.934338952972489</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64" s="2">
-        <v>136.43599257884972</v>
+        <v>162.9343389529725</v>
       </c>
       <c r="L64" s="2">
-        <v>1.1082614409400127</v>
+        <v>1.27616853987972</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2990,7 +2984,7 @@
         <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
         <v>19</v>
@@ -2999,7 +2993,7 @@
         <v>14</v>
       </c>
       <c r="F65">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
@@ -3008,16 +3002,16 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>48.504546373004636</v>
+        <v>12</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65" s="2">
-        <v>148.50454637300464</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L65" s="2">
-        <v>1.1802772950764466</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3028,7 +3022,7 @@
         <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
@@ -3037,7 +3031,7 @@
         <v>14</v>
       </c>
       <c r="F66">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G66" t="s">
         <v>16</v>
@@ -3046,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>62.934338952972489</v>
+        <v>17</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>162.9343389529725</v>
+        <v>117</v>
       </c>
       <c r="L66" s="2">
-        <v>1.27616853987972</v>
+        <v>0.68944444444444419</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3075,7 +3069,7 @@
         <v>14</v>
       </c>
       <c r="F67">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G67" t="s">
         <v>16</v>
@@ -3084,16 +3078,16 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" s="2">
-        <v>112.00000000000001</v>
+        <v>122</v>
       </c>
       <c r="L67" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.66916666666666658</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3113,7 +3107,7 @@
         <v>14</v>
       </c>
       <c r="F68">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G68" t="s">
         <v>16</v>
@@ -3122,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" s="2">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L68" s="2">
-        <v>0.68944444444444419</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3151,7 +3145,7 @@
         <v>14</v>
       </c>
       <c r="F69">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
@@ -3160,16 +3154,16 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L69" s="2">
-        <v>0.66916666666666658</v>
+        <v>0.64888888888888896</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3180,7 +3174,7 @@
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D70" t="s">
         <v>19</v>
@@ -3189,7 +3183,7 @@
         <v>14</v>
       </c>
       <c r="F70">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G70" t="s">
         <v>16</v>
@@ -3198,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" s="2">
-        <v>127</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L70" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3218,7 +3212,7 @@
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
@@ -3227,7 +3221,7 @@
         <v>14</v>
       </c>
       <c r="F71">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s">
         <v>16</v>
@@ -3236,16 +3230,16 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" s="2">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L71" s="2">
-        <v>0.64888888888888896</v>
+        <v>0.68944444444444419</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3265,7 +3259,7 @@
         <v>14</v>
       </c>
       <c r="F72">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G72" t="s">
         <v>16</v>
@@ -3274,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" s="2">
-        <v>112.00000000000001</v>
+        <v>122</v>
       </c>
       <c r="L72" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.66916666666666658</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3303,7 +3297,7 @@
         <v>14</v>
       </c>
       <c r="F73">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
@@ -3312,16 +3306,16 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" s="2">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L73" s="2">
-        <v>0.68944444444444419</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3341,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="F74">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G74" t="s">
         <v>16</v>
@@ -3350,16 +3344,16 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L74" s="2">
-        <v>0.66916666666666658</v>
+        <v>0.64888888888888896</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3370,7 +3364,7 @@
         <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
@@ -3379,7 +3373,7 @@
         <v>14</v>
       </c>
       <c r="F75">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G75" t="s">
         <v>16</v>
@@ -3388,16 +3382,16 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" s="2">
-        <v>127</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L75" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3408,7 +3402,7 @@
         <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
@@ -3417,7 +3411,7 @@
         <v>14</v>
       </c>
       <c r="F76">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
@@ -3426,16 +3420,16 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" s="2">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L76" s="2">
-        <v>0.64888888888888896</v>
+        <v>0.68944444444444419</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3455,7 +3449,7 @@
         <v>14</v>
       </c>
       <c r="F77">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G77" t="s">
         <v>16</v>
@@ -3464,16 +3458,16 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" s="2">
-        <v>112.00000000000001</v>
+        <v>122</v>
       </c>
       <c r="L77" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.66916666666666658</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3493,7 +3487,7 @@
         <v>14</v>
       </c>
       <c r="F78">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
@@ -3502,16 +3496,16 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" s="2">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L78" s="2">
-        <v>0.68944444444444419</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3531,7 +3525,7 @@
         <v>14</v>
       </c>
       <c r="F79">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
@@ -3540,16 +3534,16 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L79" s="2">
-        <v>0.66916666666666658</v>
+        <v>0.64888888888888896</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3560,7 +3554,7 @@
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D80" t="s">
         <v>19</v>
@@ -3569,7 +3563,7 @@
         <v>14</v>
       </c>
       <c r="F80">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
@@ -3578,16 +3572,16 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" s="2">
-        <v>127</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L80" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3598,7 +3592,7 @@
         <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -3607,7 +3601,7 @@
         <v>14</v>
       </c>
       <c r="F81">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
@@ -3616,16 +3610,16 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" s="2">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L81" s="2">
-        <v>0.64888888888888896</v>
+        <v>0.68944444444444419</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3645,7 +3639,7 @@
         <v>14</v>
       </c>
       <c r="F82">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G82" t="s">
         <v>16</v>
@@ -3654,16 +3648,16 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82" s="2">
-        <v>112.00000000000001</v>
+        <v>122</v>
       </c>
       <c r="L82" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.66916666666666658</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3683,7 +3677,7 @@
         <v>14</v>
       </c>
       <c r="F83">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G83" t="s">
         <v>16</v>
@@ -3692,16 +3686,16 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" s="2">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L83" s="2">
-        <v>0.68944444444444419</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3721,7 +3715,7 @@
         <v>14</v>
       </c>
       <c r="F84">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G84" t="s">
         <v>16</v>
@@ -3730,16 +3724,16 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L84" s="2">
-        <v>0.66916666666666658</v>
+        <v>0.64888888888888896</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3750,7 +3744,7 @@
         <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D85" t="s">
         <v>19</v>
@@ -3759,7 +3753,7 @@
         <v>14</v>
       </c>
       <c r="F85">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
@@ -3768,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85" s="2">
-        <v>127</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L85" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3788,7 +3782,7 @@
         <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D86" t="s">
         <v>19</v>
@@ -3797,7 +3791,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G86" t="s">
         <v>16</v>
@@ -3806,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" s="2">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L86" s="2">
-        <v>0.64888888888888896</v>
+        <v>0.68944444444444419</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3835,7 +3829,7 @@
         <v>14</v>
       </c>
       <c r="F87">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G87" t="s">
         <v>16</v>
@@ -3844,16 +3838,16 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" s="2">
-        <v>112.00000000000001</v>
+        <v>122</v>
       </c>
       <c r="L87" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.66916666666666658</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3873,7 +3867,7 @@
         <v>14</v>
       </c>
       <c r="F88">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G88" t="s">
         <v>16</v>
@@ -3882,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" s="2">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L88" s="2">
-        <v>0.68944444444444419</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3911,7 +3905,7 @@
         <v>14</v>
       </c>
       <c r="F89">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G89" t="s">
         <v>16</v>
@@ -3920,16 +3914,16 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L89" s="2">
-        <v>0.66916666666666658</v>
+        <v>0.64888888888888896</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3940,7 +3934,7 @@
         <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
         <v>19</v>
@@ -3949,7 +3943,7 @@
         <v>14</v>
       </c>
       <c r="F90">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
@@ -3958,16 +3952,16 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90" s="2">
-        <v>127</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L90" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3978,34 +3972,34 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91">
+        <v>90</v>
+      </c>
+      <c r="G91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
         <v>17</v>
       </c>
-      <c r="D91" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91">
-        <v>180</v>
-      </c>
-      <c r="G91" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>32</v>
-      </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91" s="2">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L91" s="2">
-        <v>0.64888888888888896</v>
+        <v>0.68944444444444419</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4025,7 +4019,7 @@
         <v>14</v>
       </c>
       <c r="F92">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G92" t="s">
         <v>16</v>
@@ -4034,16 +4028,16 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92" s="2">
-        <v>112.00000000000001</v>
+        <v>122</v>
       </c>
       <c r="L92" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.66916666666666658</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4063,7 +4057,7 @@
         <v>14</v>
       </c>
       <c r="F93">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
@@ -4072,16 +4066,16 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" s="2">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L93" s="2">
-        <v>0.68944444444444419</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4101,7 +4095,7 @@
         <v>14</v>
       </c>
       <c r="F94">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G94" t="s">
         <v>16</v>
@@ -4110,16 +4104,16 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L94" s="2">
-        <v>0.66916666666666658</v>
+        <v>0.64888888888888896</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4130,7 +4124,7 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D95" t="s">
         <v>19</v>
@@ -4139,7 +4133,7 @@
         <v>14</v>
       </c>
       <c r="F95">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G95" t="s">
         <v>16</v>
@@ -4148,16 +4142,16 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95" s="2">
-        <v>127</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L95" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4168,7 +4162,7 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
         <v>19</v>
@@ -4177,7 +4171,7 @@
         <v>14</v>
       </c>
       <c r="F96">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G96" t="s">
         <v>16</v>
@@ -4186,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96" s="2">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L96" s="2">
-        <v>0.64888888888888896</v>
+        <v>0.68944444444444419</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4215,7 +4209,7 @@
         <v>14</v>
       </c>
       <c r="F97">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G97" t="s">
         <v>16</v>
@@ -4224,16 +4218,16 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97" s="2">
-        <v>112.00000000000001</v>
+        <v>122</v>
       </c>
       <c r="L97" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.66916666666666658</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4253,7 +4247,7 @@
         <v>14</v>
       </c>
       <c r="F98">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G98" t="s">
         <v>16</v>
@@ -4262,16 +4256,16 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" s="2">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L98" s="2">
-        <v>0.68944444444444419</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4291,7 +4285,7 @@
         <v>14</v>
       </c>
       <c r="F99">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G99" t="s">
         <v>16</v>
@@ -4300,16 +4294,16 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L99" s="2">
-        <v>0.66916666666666658</v>
+        <v>0.64888888888888896</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4320,34 +4314,34 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D100" t="s">
         <v>19</v>
       </c>
       <c r="E100" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F100">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G100" t="s">
         <v>16</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>0.62354166666666688</v>
       </c>
       <c r="I100">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>10.250000000000004</v>
       </c>
       <c r="K100" s="2">
-        <v>127</v>
+        <v>112.455</v>
       </c>
       <c r="L100" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.75767916666666624</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4358,34 +4352,34 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
         <v>19</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F101">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G101" t="s">
         <v>16</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>0.63925694444444492</v>
       </c>
       <c r="I101">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>15.762500000000014</v>
       </c>
       <c r="K101" s="2">
-        <v>132</v>
+        <v>118.07775000000001</v>
       </c>
       <c r="L101" s="2">
-        <v>0.64888888888888896</v>
+        <v>0.7331531944444446</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4405,25 +4399,25 @@
         <v>27</v>
       </c>
       <c r="F102">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G102" t="s">
         <v>16</v>
       </c>
       <c r="H102">
-        <v>0.62354166666666688</v>
+        <v>0.68963838237847208</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102">
-        <v>10.250000000000004</v>
+        <v>34.00956406249999</v>
       </c>
       <c r="K102" s="2">
-        <v>112.455</v>
+        <v>136.68975534374999</v>
       </c>
       <c r="L102" s="2">
-        <v>0.75767916666666624</v>
+        <v>0.74398670558159685</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4443,25 +4437,25 @@
         <v>27</v>
       </c>
       <c r="F103">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G103" t="s">
         <v>16</v>
       </c>
       <c r="H103">
-        <v>0.63925694444444492</v>
+        <v>0.82141279606950668</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103">
-        <v>15.762500000000014</v>
+        <v>60.762042448977205</v>
       </c>
       <c r="K103" s="2">
-        <v>118.07775000000001</v>
+        <v>163.97728329795675</v>
       </c>
       <c r="L103" s="2">
-        <v>0.7331531944444446</v>
+        <v>0.86487808902793395</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4481,25 +4475,25 @@
         <v>27</v>
       </c>
       <c r="F104">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G104" t="s">
         <v>16</v>
       </c>
       <c r="H104">
-        <v>0.68963838237847208</v>
+        <v>0.89553221043543629</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104">
-        <v>34.00956406249999</v>
+        <v>88.326464590892357</v>
       </c>
       <c r="K104" s="2">
-        <v>136.68975534374999</v>
+        <v>192.09299388271023</v>
       </c>
       <c r="L104" s="2">
-        <v>0.74398670558159685</v>
+        <v>0.93372063242192338</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4510,7 +4504,7 @@
         <v>100</v>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D105" t="s">
         <v>19</v>
@@ -4519,25 +4513,25 @@
         <v>27</v>
       </c>
       <c r="F105">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="G105" t="s">
         <v>16</v>
       </c>
       <c r="H105">
-        <v>0.82141279606950668</v>
+        <v>0.7</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105">
-        <v>60.762042448977205</v>
+        <v>11.506849315068493</v>
       </c>
       <c r="K105" s="2">
-        <v>163.97728329795675</v>
+        <v>113.73698630136985</v>
       </c>
       <c r="L105" s="2">
-        <v>0.86487808902793395</v>
+        <v>0.83566666666666634</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4548,7 +4542,7 @@
         <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
@@ -4557,25 +4551,25 @@
         <v>27</v>
       </c>
       <c r="F106">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="G106" t="s">
         <v>16</v>
       </c>
       <c r="H106">
-        <v>0.89553221043543629</v>
+        <v>0.7</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106">
-        <v>88.326464590892357</v>
+        <v>17.260273972602739</v>
       </c>
       <c r="K106" s="2">
-        <v>192.09299388271023</v>
+        <v>119.60547945205479</v>
       </c>
       <c r="L106" s="2">
-        <v>0.93372063242192338</v>
+        <v>0.79511111111111121</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4595,25 +4589,25 @@
         <v>27</v>
       </c>
       <c r="F107">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G107" t="s">
         <v>16</v>
       </c>
       <c r="H107">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107">
-        <v>10.520547945205481</v>
+        <v>34.520547945205479</v>
       </c>
       <c r="K107" s="2">
-        <v>112.73095890410958</v>
+        <v>137.21095890410959</v>
       </c>
       <c r="L107" s="2">
-        <v>0.77446666666666608</v>
+        <v>0.75455555555555553</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4633,25 +4627,25 @@
         <v>27</v>
       </c>
       <c r="F108">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G108" t="s">
         <v>16</v>
       </c>
       <c r="H108">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108">
-        <v>15.780821917808218</v>
+        <v>51.780821917808218</v>
       </c>
       <c r="K108" s="2">
-        <v>118.09643835616437</v>
+        <v>154.81643835616438</v>
       </c>
       <c r="L108" s="2">
-        <v>0.7339111111111104</v>
+        <v>0.74103703703703716</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4671,36 +4665,36 @@
         <v>27</v>
       </c>
       <c r="F109">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G109" t="s">
         <v>16</v>
       </c>
       <c r="H109">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109">
-        <v>31.561643835616437</v>
+        <v>69.041095890410958</v>
       </c>
       <c r="K109" s="2">
-        <v>134.19287671232877</v>
+        <v>172.42191780821915</v>
       </c>
       <c r="L109" s="2">
-        <v>0.69335555555555572</v>
+        <v>0.73427777777777747</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>33</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110">
         <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D110" t="s">
         <v>19</v>
@@ -4709,36 +4703,36 @@
         <v>27</v>
       </c>
       <c r="F110">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="G110" t="s">
         <v>16</v>
       </c>
       <c r="H110">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110">
-        <v>47.342465753424655</v>
-      </c>
-      <c r="K110" s="2">
-        <v>150.28931506849315</v>
-      </c>
-      <c r="L110" s="2">
-        <v>0.67983703703703691</v>
+        <v>7.397260273972603</v>
+      </c>
+      <c r="K110">
+        <v>109.54520547945205</v>
+      </c>
+      <c r="L110">
+        <v>0.58066666666666678</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111">
         <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D111" t="s">
         <v>19</v>
@@ -4747,32 +4741,32 @@
         <v>27</v>
       </c>
       <c r="F111">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="G111" t="s">
         <v>16</v>
       </c>
       <c r="H111">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111">
-        <v>63.123287671232873</v>
-      </c>
-      <c r="K111" s="2">
-        <v>166.38575342465754</v>
-      </c>
-      <c r="L111" s="2">
-        <v>0.67307777777777777</v>
+        <v>11.095890410958905</v>
+      </c>
+      <c r="K111">
+        <v>113.31780821917809</v>
+      </c>
+      <c r="L111">
+        <v>0.54011111111111165</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>33</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112">
         <v>100</v>
       </c>
       <c r="C112" t="s">
@@ -4785,7 +4779,7 @@
         <v>27</v>
       </c>
       <c r="F112">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G112" t="s">
         <v>16</v>
@@ -4797,20 +4791,20 @@
         <v>2</v>
       </c>
       <c r="J112">
-        <v>7.397260273972603</v>
-      </c>
-      <c r="K112" s="2">
-        <v>109.54520547945205</v>
-      </c>
-      <c r="L112" s="2">
-        <v>0.58066666666666678</v>
+        <v>22.19178082191781</v>
+      </c>
+      <c r="K112">
+        <v>124.63561643835618</v>
+      </c>
+      <c r="L112">
+        <v>0.49955555555555609</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113">
         <v>100</v>
       </c>
       <c r="C113" t="s">
@@ -4823,7 +4817,7 @@
         <v>27</v>
       </c>
       <c r="F113">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G113" t="s">
         <v>16</v>
@@ -4835,20 +4829,20 @@
         <v>2</v>
       </c>
       <c r="J113">
-        <v>11.095890410958905</v>
-      </c>
-      <c r="K113" s="2">
-        <v>113.31780821917809</v>
-      </c>
-      <c r="L113" s="2">
-        <v>0.54011111111111165</v>
+        <v>33.287671232876711</v>
+      </c>
+      <c r="K113">
+        <v>135.95342465753424</v>
+      </c>
+      <c r="L113">
+        <v>0.48603703703703693</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>33</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114">
         <v>100</v>
       </c>
       <c r="C114" t="s">
@@ -4861,7 +4855,7 @@
         <v>27</v>
       </c>
       <c r="F114">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G114" t="s">
         <v>16</v>
@@ -4873,24 +4867,24 @@
         <v>2</v>
       </c>
       <c r="J114">
-        <v>22.19178082191781</v>
-      </c>
-      <c r="K114" s="2">
-        <v>124.63561643835618</v>
-      </c>
-      <c r="L114" s="2">
-        <v>0.49955555555555609</v>
+        <v>44.38356164383562</v>
+      </c>
+      <c r="K114">
+        <v>147.27123287671233</v>
+      </c>
+      <c r="L114">
+        <v>0.4792777777777778</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>33</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115">
         <v>100</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
         <v>19</v>
@@ -4899,25 +4893,25 @@
         <v>27</v>
       </c>
       <c r="F115">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="G115" t="s">
         <v>16</v>
       </c>
       <c r="H115">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115">
-        <v>33.287671232876711</v>
-      </c>
-      <c r="K115" s="2">
-        <v>135.95342465753424</v>
-      </c>
-      <c r="L115" s="2">
-        <v>0.48603703703703693</v>
+        <v>11.178082191780824</v>
+      </c>
+      <c r="K115">
+        <v>113.40164383561644</v>
+      </c>
+      <c r="L115">
+        <v>0.8152666666666667</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -4928,7 +4922,7 @@
         <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
         <v>19</v>
@@ -4937,25 +4931,25 @@
         <v>27</v>
       </c>
       <c r="F116">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="G116" t="s">
         <v>16</v>
       </c>
       <c r="H116">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>44.38356164383562</v>
+        <v>16.767123287671236</v>
       </c>
       <c r="K116">
-        <v>147.27123287671233</v>
+        <v>119.10246575342467</v>
       </c>
       <c r="L116">
-        <v>0.4792777777777778</v>
+        <v>0.77471111111111157</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -4975,7 +4969,7 @@
         <v>27</v>
       </c>
       <c r="F117">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G117" t="s">
         <v>16</v>
@@ -4987,13 +4981,13 @@
         <v>2</v>
       </c>
       <c r="J117">
-        <v>11.178082191780824</v>
+        <v>33.534246575342472</v>
       </c>
       <c r="K117">
-        <v>113.40164383561644</v>
+        <v>136.20493150684933</v>
       </c>
       <c r="L117">
-        <v>0.8152666666666667</v>
+        <v>0.73415555555555589</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -5013,7 +5007,7 @@
         <v>27</v>
       </c>
       <c r="F118">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G118" t="s">
         <v>16</v>
@@ -5025,13 +5019,13 @@
         <v>2</v>
       </c>
       <c r="J118">
-        <v>16.767123287671236</v>
+        <v>50.301369863013704</v>
       </c>
       <c r="K118">
-        <v>119.10246575342467</v>
+        <v>153.30739726027397</v>
       </c>
       <c r="L118">
-        <v>0.77471111111111157</v>
+        <v>0.72063703703703719</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5051,7 +5045,7 @@
         <v>27</v>
       </c>
       <c r="F119">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G119" t="s">
         <v>16</v>
@@ -5063,88 +5057,12 @@
         <v>2</v>
       </c>
       <c r="J119">
-        <v>33.534246575342472</v>
+        <v>67.068493150684944</v>
       </c>
       <c r="K119">
-        <v>136.20493150684933</v>
+        <v>170.40986301369864</v>
       </c>
       <c r="L119">
-        <v>0.73415555555555589</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>33</v>
-      </c>
-      <c r="B120">
-        <v>100</v>
-      </c>
-      <c r="C120" t="s">
-        <v>29</v>
-      </c>
-      <c r="D120" t="s">
-        <v>19</v>
-      </c>
-      <c r="E120" t="s">
-        <v>27</v>
-      </c>
-      <c r="F120">
-        <v>270</v>
-      </c>
-      <c r="G120" t="s">
-        <v>16</v>
-      </c>
-      <c r="H120">
-        <v>0.68</v>
-      </c>
-      <c r="I120">
-        <v>2</v>
-      </c>
-      <c r="J120">
-        <v>50.301369863013704</v>
-      </c>
-      <c r="K120">
-        <v>153.30739726027397</v>
-      </c>
-      <c r="L120">
-        <v>0.72063703703703719</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>33</v>
-      </c>
-      <c r="B121">
-        <v>100</v>
-      </c>
-      <c r="C121" t="s">
-        <v>29</v>
-      </c>
-      <c r="D121" t="s">
-        <v>19</v>
-      </c>
-      <c r="E121" t="s">
-        <v>27</v>
-      </c>
-      <c r="F121">
-        <v>360</v>
-      </c>
-      <c r="G121" t="s">
-        <v>16</v>
-      </c>
-      <c r="H121">
-        <v>0.68</v>
-      </c>
-      <c r="I121">
-        <v>2</v>
-      </c>
-      <c r="J121">
-        <v>67.068493150684944</v>
-      </c>
-      <c r="K121">
-        <v>170.40986301369864</v>
-      </c>
-      <c r="L121">
         <v>0.71387777777777794</v>
       </c>
     </row>

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736DA537-4470-4E5A-8972-630A9E53CE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B97850-7B3D-4240-AC00-3DCF05F93D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="39">
   <si>
     <t>Precio de contado</t>
   </si>
@@ -148,6 +148,12 @@
   <si>
     <t>Tipo de Empresa</t>
   </si>
+  <si>
+    <t>PROCAMPO DIGITAL - Promo 1</t>
+  </si>
+  <si>
+    <t>PROCAMPO DIGITAL - Promo 2</t>
+  </si>
 </sst>
 </file>
 
@@ -193,10 +199,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -532,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F38534-621C-456A-88D0-E73BF73C904A}">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="A2" sqref="A2:L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,19 +1106,19 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>6.5000000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I15">
         <v>3.1</v>
       </c>
       <c r="J15">
-        <v>3.2054794520547945</v>
+        <v>3.4520547945205484</v>
       </c>
       <c r="K15" s="2">
-        <v>106.4048493150685</v>
+        <v>106.65906849315068</v>
       </c>
       <c r="L15" s="2">
-        <v>0.12987611111111139</v>
+        <v>0.13503111111111096</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1216,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.6000000000000005</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>105.60000000000001</v>
+        <v>105</v>
       </c>
       <c r="L18" s="2">
-        <v>0.11355555555555566</v>
+        <v>0.10138888888888899</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1254,16 +1261,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8.5</v>
+        <v>9.6</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>108.5</v>
+        <v>109.60000000000001</v>
       </c>
       <c r="L19" s="2">
-        <v>0.11490740740740736</v>
+        <v>0.12977777777777791</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1707,19 +1714,19 @@
         <v>16</v>
       </c>
       <c r="H31">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="I31">
         <v>14.899999999999999</v>
       </c>
       <c r="J31">
-        <v>17.753424657534246</v>
+        <v>21.698630136986303</v>
       </c>
       <c r="K31" s="2">
-        <v>135.29868493150684</v>
+        <v>139.83172602739725</v>
       </c>
       <c r="L31" s="2">
-        <v>0.71577888888888885</v>
+        <v>0.80769888888888886</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1745,19 +1752,19 @@
         <v>16</v>
       </c>
       <c r="H32">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="I32">
         <v>14.899999999999999</v>
       </c>
       <c r="J32">
-        <v>32.547945205479458</v>
+        <v>36.986301369863014</v>
       </c>
       <c r="K32" s="2">
-        <v>152.2975890410959</v>
+        <v>157.39726027397259</v>
       </c>
       <c r="L32" s="2">
-        <v>0.70698592592592602</v>
+        <v>0.77592592592592569</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1783,19 +1790,19 @@
         <v>16</v>
       </c>
       <c r="H33">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="I33">
         <v>14.899999999999999</v>
       </c>
       <c r="J33">
-        <v>47.342465753424655</v>
+        <v>53.260273972602747</v>
       </c>
       <c r="K33" s="2">
-        <v>169.29649315068494</v>
+        <v>176.09605479452054</v>
       </c>
       <c r="L33" s="2">
-        <v>0.70258944444444449</v>
+        <v>0.77152944444444438</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1821,19 +1828,19 @@
         <v>16</v>
       </c>
       <c r="H34">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="I34">
         <v>14.899999999999999</v>
       </c>
       <c r="J34">
-        <v>19.726027397260275</v>
+        <v>23.17808219178082</v>
       </c>
       <c r="K34" s="2">
-        <v>137.56520547945206</v>
+        <v>141.53161643835617</v>
       </c>
       <c r="L34" s="2">
-        <v>0.76173888888888897</v>
+        <v>0.84216888888888897</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1859,19 +1866,19 @@
         <v>16</v>
       </c>
       <c r="H35">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="I35">
         <v>14.899999999999999</v>
       </c>
       <c r="J35">
-        <v>35.506849315068493</v>
+        <v>39.945205479452063</v>
       </c>
       <c r="K35" s="2">
-        <v>155.69736986301371</v>
+        <v>160.79704109589042</v>
       </c>
       <c r="L35" s="2">
-        <v>0.75294592592592602</v>
+        <v>0.82188592592592591</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1897,30 +1904,30 @@
         <v>16</v>
       </c>
       <c r="H36">
-        <v>0.52</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I36">
         <v>14.899999999999999</v>
       </c>
       <c r="J36">
-        <v>51.287671232876711</v>
+        <v>57.205479452054789</v>
       </c>
       <c r="K36" s="2">
-        <v>173.82953424657532</v>
+        <v>180.62909589041095</v>
       </c>
       <c r="L36" s="2">
-        <v>0.74854944444444427</v>
+        <v>0.81748944444444449</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1">
         <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -1935,30 +1942,30 @@
         <v>16</v>
       </c>
       <c r="H37">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="I37">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="J37">
-        <v>16.767123287671236</v>
+        <v>33.534246575342472</v>
       </c>
       <c r="K37" s="2">
-        <v>120.38690410958905</v>
+        <v>140.61156164383561</v>
       </c>
       <c r="L37" s="2">
-        <v>0.41340111111111133</v>
+        <v>0.82351222222222209</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1">
         <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -1967,36 +1974,36 @@
         <v>12</v>
       </c>
       <c r="F38">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="G38" t="s">
         <v>16</v>
       </c>
       <c r="H38">
-        <v>0.36</v>
+        <v>0.76319999999999999</v>
       </c>
       <c r="I38">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="J38">
-        <v>20.712328767123285</v>
+        <v>50.183013698630127</v>
       </c>
       <c r="K38" s="2">
-        <v>124.45441095890409</v>
+        <v>158.14271342465753</v>
       </c>
       <c r="L38" s="2">
-        <v>0.42504095238095191</v>
+        <v>0.88425376666666655</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1">
         <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -2005,36 +2012,36 @@
         <v>12</v>
       </c>
       <c r="F39">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G39" t="s">
         <v>16</v>
       </c>
       <c r="H39">
-        <v>0.37</v>
+        <v>0.77429999999999999</v>
       </c>
       <c r="I39">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="J39">
-        <v>27.36986301369863</v>
+        <v>38.184657534246568</v>
       </c>
       <c r="K39" s="2">
-        <v>131.31832876712329</v>
+        <v>145.50844438356162</v>
       </c>
       <c r="L39" s="2">
-        <v>0.42337740740740737</v>
+        <v>0.92281012222222203</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1">
         <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -2043,36 +2050,36 @@
         <v>12</v>
       </c>
       <c r="F40">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
       </c>
       <c r="H40">
-        <v>0.4</v>
+        <v>0.8075</v>
       </c>
       <c r="I40">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="J40">
-        <v>39.452054794520549</v>
+        <v>53.095890410958901</v>
       </c>
       <c r="K40" s="2">
-        <v>143.77506849315068</v>
+        <v>161.20997260273973</v>
       </c>
       <c r="L40" s="2">
-        <v>0.44383055555555562</v>
+        <v>0.93090166666666663</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1">
         <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -2087,30 +2094,30 @@
         <v>16</v>
       </c>
       <c r="H41">
-        <v>0.68</v>
+        <v>0.505</v>
       </c>
       <c r="I41">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>33.534246575342472</v>
+        <v>24.904109589041095</v>
       </c>
       <c r="K41" s="2">
-        <v>140.61156164383561</v>
+        <v>127.40219178082192</v>
       </c>
       <c r="L41" s="2">
-        <v>0.82351222222222209</v>
+        <v>0.55565555555555579</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1">
         <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -2119,36 +2126,36 @@
         <v>12</v>
       </c>
       <c r="F42">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="G42" t="s">
         <v>16</v>
       </c>
       <c r="H42">
-        <v>0.76319999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="I42">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="J42">
-        <v>50.183013698630127</v>
+        <v>29.342465753424662</v>
       </c>
       <c r="K42" s="2">
-        <v>158.14271342465753</v>
+        <v>131.92931506849314</v>
       </c>
       <c r="L42" s="2">
-        <v>0.88425376666666655</v>
+        <v>0.55496190476190466</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B43" s="1">
         <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -2157,36 +2164,36 @@
         <v>12</v>
       </c>
       <c r="F43">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
       </c>
       <c r="H43">
-        <v>0.77429999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="I43">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>38.184657534246568</v>
+        <v>38.465753424657535</v>
       </c>
       <c r="K43" s="2">
-        <v>145.50844438356162</v>
+        <v>141.23506849315066</v>
       </c>
       <c r="L43" s="2">
-        <v>0.92281012222222203</v>
+        <v>0.55743703703703673</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1">
         <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -2195,36 +2202,36 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="G44" t="s">
         <v>16</v>
       </c>
       <c r="H44">
-        <v>0.8075</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I44">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="J44">
-        <v>53.095890410958901</v>
+        <v>28.602739726027394</v>
       </c>
       <c r="K44" s="2">
-        <v>161.20997260273973</v>
+        <v>129.24575342465749</v>
       </c>
       <c r="L44" s="2">
-        <v>0.93090166666666663</v>
+        <v>0.59303888888888812</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="1">
+        <v>35</v>
+      </c>
+      <c r="B45" s="3">
         <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -2233,36 +2240,36 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G45" t="s">
         <v>16</v>
       </c>
       <c r="H45">
-        <v>0.505</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J45">
-        <v>24.904109589041095</v>
+        <v>42.904109589041099</v>
       </c>
       <c r="K45" s="2">
-        <v>127.40219178082192</v>
+        <v>143.61863013698627</v>
       </c>
       <c r="L45" s="2">
-        <v>0.55565555555555579</v>
+        <v>0.58965925925925866</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="1">
+        <v>35</v>
+      </c>
+      <c r="B46" s="3">
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -2271,36 +2278,36 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="G46" t="s">
         <v>16</v>
       </c>
       <c r="H46">
-        <v>0.51</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J46">
-        <v>29.342465753424662</v>
+        <v>57.205479452054789</v>
       </c>
       <c r="K46" s="2">
-        <v>131.92931506849314</v>
+        <v>157.99150684931504</v>
       </c>
       <c r="L46" s="2">
-        <v>0.55496190476190466</v>
+        <v>0.58796944444444421</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="1">
+        <v>35</v>
+      </c>
+      <c r="B47" s="3">
         <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
@@ -2309,36 +2316,36 @@
         <v>12</v>
       </c>
       <c r="F47">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G47" t="s">
         <v>16</v>
       </c>
       <c r="H47">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J47">
-        <v>38.465753424657535</v>
+        <v>23.17808219178082</v>
       </c>
       <c r="K47" s="2">
-        <v>141.23506849315066</v>
+        <v>129.33698630136985</v>
       </c>
       <c r="L47" s="2">
-        <v>0.55743703703703673</v>
+        <v>0.59488888888888858</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="3">
         <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -2347,36 +2354,36 @@
         <v>12</v>
       </c>
       <c r="F48">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G48" t="s">
         <v>16</v>
       </c>
       <c r="H48">
-        <v>0.69</v>
+        <v>0.5</v>
       </c>
       <c r="I48">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J48">
-        <v>34.027397260273972</v>
+        <v>36.986301369863014</v>
       </c>
       <c r="K48" s="2">
-        <v>134.69753424657532</v>
+        <v>143.83561643835617</v>
       </c>
       <c r="L48" s="2">
-        <v>0.70358888888888826</v>
+        <v>0.59259259259259256</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="3">
         <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
@@ -2385,36 +2392,36 @@
         <v>12</v>
       </c>
       <c r="F49">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G49" t="s">
         <v>16</v>
       </c>
       <c r="H49">
-        <v>0.69</v>
+        <v>0.51</v>
       </c>
       <c r="I49">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J49">
-        <v>51.041095890410958</v>
+        <v>50.301369863013704</v>
       </c>
       <c r="K49" s="2">
-        <v>151.79630136986302</v>
+        <v>157.81643835616438</v>
       </c>
       <c r="L49" s="2">
-        <v>0.70020925925925936</v>
+        <v>0.58619444444444457</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="3">
         <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
@@ -2423,36 +2430,36 @@
         <v>12</v>
       </c>
       <c r="F50">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G50" t="s">
         <v>16</v>
       </c>
       <c r="H50">
-        <v>0.69</v>
+        <v>0.34</v>
       </c>
       <c r="I50">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="J50">
-        <v>68.054794520547944</v>
+        <v>16.767123287671236</v>
       </c>
       <c r="K50" s="2">
-        <v>168.89506849315066</v>
+        <v>128.44383561643838</v>
       </c>
       <c r="L50" s="2">
-        <v>0.69851944444444414</v>
+        <v>0.57677777777777817</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="1">
+        <v>35</v>
+      </c>
+      <c r="B51" s="3">
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
@@ -2461,36 +2468,36 @@
         <v>12</v>
       </c>
       <c r="F51">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G51" t="s">
         <v>16</v>
       </c>
       <c r="H51">
-        <v>0.77</v>
+        <v>0.4</v>
       </c>
       <c r="I51">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="J51">
-        <v>37.972602739726028</v>
+        <v>29.589041095890416</v>
       </c>
       <c r="K51" s="2">
-        <v>153.01161643835616</v>
+        <v>142.54794520547949</v>
       </c>
       <c r="L51" s="2">
-        <v>1.0749577777777775</v>
+        <v>0.57518518518518569</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="1">
+        <v>35</v>
+      </c>
+      <c r="B52" s="3">
         <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
@@ -2499,25 +2506,25 @@
         <v>12</v>
       </c>
       <c r="F52">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G52" t="s">
         <v>16</v>
       </c>
       <c r="H52">
-        <v>0.85</v>
+        <v>0.43</v>
       </c>
       <c r="I52">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="J52">
-        <v>62.876712328767113</v>
+        <v>42.410958904109592</v>
       </c>
       <c r="K52" s="2">
-        <v>180.63027397260274</v>
+        <v>156.65205479452058</v>
       </c>
       <c r="L52" s="2">
-        <v>1.0900018518518519</v>
+        <v>0.57438888888888928</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2537,30 +2544,30 @@
         <v>12</v>
       </c>
       <c r="F53">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G53" t="s">
         <v>16</v>
       </c>
       <c r="H53">
-        <v>0.90500000000000003</v>
+        <v>0.37</v>
       </c>
       <c r="I53">
         <v>10.9</v>
       </c>
       <c r="J53">
-        <v>89.260273972602747</v>
+        <v>18.246575342465754</v>
       </c>
       <c r="K53" s="2">
-        <v>209.88964383561645</v>
+        <v>131.13545205479451</v>
       </c>
       <c r="L53" s="2">
-        <v>1.1141588888888891</v>
+        <v>0.63135777777777757</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" s="1">
         <v>100</v>
@@ -2575,30 +2582,30 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G54" t="s">
         <v>16</v>
       </c>
       <c r="H54">
-        <v>0.77</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="I54">
         <v>10.9</v>
       </c>
       <c r="J54">
-        <v>37.972602739726028</v>
+        <v>34.397260273972606</v>
       </c>
       <c r="K54" s="2">
-        <v>153.01161643835616</v>
+        <v>149.04656164383562</v>
       </c>
       <c r="L54" s="2">
-        <v>1.0749577777777775</v>
+        <v>0.66303685185185179</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="1">
         <v>100</v>
@@ -2613,25 +2620,25 @@
         <v>12</v>
       </c>
       <c r="F55">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G55" t="s">
         <v>16</v>
       </c>
       <c r="H55">
-        <v>0.85</v>
+        <v>0.51</v>
       </c>
       <c r="I55">
         <v>10.9</v>
       </c>
       <c r="J55">
-        <v>62.876712328767113</v>
+        <v>50.301369863013704</v>
       </c>
       <c r="K55" s="2">
-        <v>180.63027397260274</v>
+        <v>166.6842191780822</v>
       </c>
       <c r="L55" s="2">
-        <v>1.0900018518518519</v>
+        <v>0.67610388888888895</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2651,101 +2658,101 @@
         <v>12</v>
       </c>
       <c r="F56">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G56" t="s">
         <v>16</v>
       </c>
       <c r="H56">
-        <v>0.90500000000000003</v>
+        <v>0.37</v>
       </c>
       <c r="I56">
         <v>10.9</v>
       </c>
       <c r="J56">
-        <v>89.260273972602747</v>
+        <v>18.246575342465754</v>
       </c>
       <c r="K56" s="2">
-        <v>209.88964383561645</v>
+        <v>131.13545205479451</v>
       </c>
       <c r="L56" s="2">
-        <v>1.1141588888888891</v>
+        <v>0.63135777777777757</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B57" s="1">
         <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F57">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="I57">
-        <v>18.147631812115161</v>
+        <v>10.9</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>34.397260273972606</v>
       </c>
       <c r="K57" s="2">
-        <v>118.14763181211516</v>
+        <v>149.04656164383562</v>
       </c>
       <c r="L57" s="2">
-        <v>1.1039809352370056</v>
+        <v>0.66303685185185179</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B58" s="1">
         <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F58">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="G58" t="s">
         <v>16</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="I58">
-        <v>25.734637028384011</v>
+        <v>10.9</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>50.301369863013704</v>
       </c>
       <c r="K58" s="2">
-        <v>125.73463702838401</v>
+        <v>166.6842191780822</v>
       </c>
       <c r="L58" s="2">
-        <v>1.0436825017066849</v>
+        <v>0.67610388888888895</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2765,7 +2772,7 @@
         <v>14</v>
       </c>
       <c r="F59">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G59" t="s">
         <v>16</v>
@@ -2774,16 +2781,16 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>33.344173594159535</v>
+        <v>18.147631812115161</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59" s="2">
-        <v>133.34417359415954</v>
+        <v>118.14763181211516</v>
       </c>
       <c r="L59" s="2">
-        <v>1.0142186134890192</v>
+        <v>1.1039809352370056</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2794,7 +2801,7 @@
         <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
@@ -2803,7 +2810,7 @@
         <v>14</v>
       </c>
       <c r="F60">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s">
         <v>16</v>
@@ -2812,16 +2819,16 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>17.39030612244898</v>
+        <v>25.734637028384011</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60" s="2">
-        <v>117.39030612244899</v>
+        <v>125.73463702838401</v>
       </c>
       <c r="L60" s="2">
-        <v>1.0579102891156467</v>
+        <v>1.0436825017066849</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2832,7 +2839,7 @@
         <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
@@ -2841,7 +2848,7 @@
         <v>14</v>
       </c>
       <c r="F61">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G61" t="s">
         <v>16</v>
@@ -2850,16 +2857,16 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>26.192934316583777</v>
+        <v>33.344173594159535</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" s="2">
-        <v>126.19293431658379</v>
+        <v>133.34417359415954</v>
       </c>
       <c r="L61" s="2">
-        <v>1.0622690028392312</v>
+        <v>1.0142186134890192</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2879,7 +2886,7 @@
         <v>14</v>
       </c>
       <c r="F62">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G62" t="s">
         <v>16</v>
@@ -2888,16 +2895,16 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>36.435992578849721</v>
+        <v>17.39030612244898</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62" s="2">
-        <v>136.43599257884972</v>
+        <v>117.39030612244899</v>
       </c>
       <c r="L62" s="2">
-        <v>1.1082614409400127</v>
+        <v>1.0579102891156467</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2917,7 +2924,7 @@
         <v>14</v>
       </c>
       <c r="F63">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="G63" t="s">
         <v>16</v>
@@ -2926,16 +2933,16 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>48.504546373004636</v>
+        <v>26.192934316583777</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" s="2">
-        <v>148.50454637300464</v>
+        <v>126.19293431658379</v>
       </c>
       <c r="L63" s="2">
-        <v>1.1802772950764466</v>
+        <v>1.0622690028392312</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2955,7 +2962,7 @@
         <v>14</v>
       </c>
       <c r="F64">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G64" t="s">
         <v>16</v>
@@ -2964,16 +2971,16 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>62.934338952972489</v>
+        <v>36.435992578849721</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64" s="2">
-        <v>162.9343389529725</v>
+        <v>136.43599257884972</v>
       </c>
       <c r="L64" s="2">
-        <v>1.27616853987972</v>
+        <v>1.1082614409400127</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2984,7 +2991,7 @@
         <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
         <v>19</v>
@@ -2993,7 +3000,7 @@
         <v>14</v>
       </c>
       <c r="F65">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
@@ -3002,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>12</v>
+        <v>48.504546373004636</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65" s="2">
-        <v>112.00000000000001</v>
+        <v>148.50454637300464</v>
       </c>
       <c r="L65" s="2">
-        <v>0.73000000000000065</v>
+        <v>1.1802772950764466</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3022,7 +3029,7 @@
         <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
@@ -3031,7 +3038,7 @@
         <v>14</v>
       </c>
       <c r="F66">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G66" t="s">
         <v>16</v>
@@ -3040,16 +3047,16 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>17</v>
+        <v>62.934338952972489</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>117</v>
+        <v>162.9343389529725</v>
       </c>
       <c r="L66" s="2">
-        <v>0.68944444444444419</v>
+        <v>1.27616853987972</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3069,7 +3076,7 @@
         <v>14</v>
       </c>
       <c r="F67">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G67" t="s">
         <v>16</v>
@@ -3078,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" s="2">
-        <v>122</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L67" s="2">
-        <v>0.66916666666666658</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3107,7 +3114,7 @@
         <v>14</v>
       </c>
       <c r="F68">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="G68" t="s">
         <v>16</v>
@@ -3116,16 +3123,16 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>27</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" s="2">
-        <v>127</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L68" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3145,7 +3152,7 @@
         <v>14</v>
       </c>
       <c r="F69">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
@@ -3154,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" s="2">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L69" s="2">
-        <v>0.64888888888888896</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3174,7 +3181,7 @@
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
         <v>19</v>
@@ -3183,7 +3190,7 @@
         <v>14</v>
       </c>
       <c r="F70">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G70" t="s">
         <v>16</v>
@@ -3192,16 +3199,16 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" s="2">
-        <v>112.00000000000001</v>
+        <v>120</v>
       </c>
       <c r="L70" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3212,7 +3219,7 @@
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
@@ -3221,7 +3228,7 @@
         <v>14</v>
       </c>
       <c r="F71">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G71" t="s">
         <v>16</v>
@@ -3230,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L71" s="2">
-        <v>0.68944444444444419</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3259,7 +3266,7 @@
         <v>14</v>
       </c>
       <c r="F72">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G72" t="s">
         <v>16</v>
@@ -3268,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" s="2">
-        <v>122</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L72" s="2">
-        <v>0.66916666666666658</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3297,7 +3304,7 @@
         <v>14</v>
       </c>
       <c r="F73">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
@@ -3306,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>27</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" s="2">
-        <v>127</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L73" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3335,7 +3342,7 @@
         <v>14</v>
       </c>
       <c r="F74">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G74" t="s">
         <v>16</v>
@@ -3344,16 +3351,16 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74" s="2">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L74" s="2">
-        <v>0.64888888888888896</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3364,7 +3371,7 @@
         <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
@@ -3373,7 +3380,7 @@
         <v>14</v>
       </c>
       <c r="F75">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G75" t="s">
         <v>16</v>
@@ -3382,16 +3389,16 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" s="2">
-        <v>112.00000000000001</v>
+        <v>120</v>
       </c>
       <c r="L75" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3402,7 +3409,7 @@
         <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
@@ -3411,7 +3418,7 @@
         <v>14</v>
       </c>
       <c r="F76">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
@@ -3420,16 +3427,16 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L76" s="2">
-        <v>0.68944444444444419</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3449,7 +3456,7 @@
         <v>14</v>
       </c>
       <c r="F77">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G77" t="s">
         <v>16</v>
@@ -3458,16 +3465,16 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" s="2">
-        <v>122</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L77" s="2">
-        <v>0.66916666666666658</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3487,7 +3494,7 @@
         <v>14</v>
       </c>
       <c r="F78">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
@@ -3496,16 +3503,16 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>27</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" s="2">
-        <v>127</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L78" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3525,7 +3532,7 @@
         <v>14</v>
       </c>
       <c r="F79">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
@@ -3534,16 +3541,16 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79" s="2">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L79" s="2">
-        <v>0.64888888888888896</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3554,7 +3561,7 @@
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
         <v>19</v>
@@ -3563,7 +3570,7 @@
         <v>14</v>
       </c>
       <c r="F80">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
@@ -3572,16 +3579,16 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" s="2">
-        <v>112.00000000000001</v>
+        <v>120</v>
       </c>
       <c r="L80" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3592,7 +3599,7 @@
         <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -3601,7 +3608,7 @@
         <v>14</v>
       </c>
       <c r="F81">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
@@ -3610,16 +3617,16 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L81" s="2">
-        <v>0.68944444444444419</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3639,7 +3646,7 @@
         <v>14</v>
       </c>
       <c r="F82">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G82" t="s">
         <v>16</v>
@@ -3648,16 +3655,16 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82" s="2">
-        <v>122</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L82" s="2">
-        <v>0.66916666666666658</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3677,7 +3684,7 @@
         <v>14</v>
       </c>
       <c r="F83">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="G83" t="s">
         <v>16</v>
@@ -3686,16 +3693,16 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>27</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" s="2">
-        <v>127</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L83" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3715,7 +3722,7 @@
         <v>14</v>
       </c>
       <c r="F84">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G84" t="s">
         <v>16</v>
@@ -3724,16 +3731,16 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84" s="2">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L84" s="2">
-        <v>0.64888888888888896</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3744,7 +3751,7 @@
         <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
         <v>19</v>
@@ -3753,7 +3760,7 @@
         <v>14</v>
       </c>
       <c r="F85">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
@@ -3762,16 +3769,16 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85" s="2">
-        <v>112.00000000000001</v>
+        <v>120</v>
       </c>
       <c r="L85" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3782,7 +3789,7 @@
         <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
         <v>19</v>
@@ -3791,7 +3798,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G86" t="s">
         <v>16</v>
@@ -3800,16 +3807,16 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L86" s="2">
-        <v>0.68944444444444419</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3829,7 +3836,7 @@
         <v>14</v>
       </c>
       <c r="F87">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G87" t="s">
         <v>16</v>
@@ -3838,16 +3845,16 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" s="2">
-        <v>122</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L87" s="2">
-        <v>0.66916666666666658</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3867,7 +3874,7 @@
         <v>14</v>
       </c>
       <c r="F88">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="G88" t="s">
         <v>16</v>
@@ -3876,16 +3883,16 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>27</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" s="2">
-        <v>127</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L88" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3905,7 +3912,7 @@
         <v>14</v>
       </c>
       <c r="F89">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G89" t="s">
         <v>16</v>
@@ -3914,16 +3921,16 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89" s="2">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L89" s="2">
-        <v>0.64888888888888896</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3934,7 +3941,7 @@
         <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D90" t="s">
         <v>19</v>
@@ -3943,7 +3950,7 @@
         <v>14</v>
       </c>
       <c r="F90">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
@@ -3952,16 +3959,16 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90" s="2">
-        <v>112.00000000000001</v>
+        <v>120</v>
       </c>
       <c r="L90" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3972,7 +3979,7 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
@@ -3981,7 +3988,7 @@
         <v>14</v>
       </c>
       <c r="F91">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G91" t="s">
         <v>16</v>
@@ -3990,16 +3997,16 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L91" s="2">
-        <v>0.68944444444444419</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4019,7 +4026,7 @@
         <v>14</v>
       </c>
       <c r="F92">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G92" t="s">
         <v>16</v>
@@ -4028,16 +4035,16 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92" s="2">
-        <v>122</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L92" s="2">
-        <v>0.66916666666666658</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4057,7 +4064,7 @@
         <v>14</v>
       </c>
       <c r="F93">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
@@ -4066,16 +4073,16 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>27</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" s="2">
-        <v>127</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L93" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4095,7 +4102,7 @@
         <v>14</v>
       </c>
       <c r="F94">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G94" t="s">
         <v>16</v>
@@ -4104,16 +4111,16 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94" s="2">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L94" s="2">
-        <v>0.64888888888888896</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4124,7 +4131,7 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D95" t="s">
         <v>19</v>
@@ -4133,7 +4140,7 @@
         <v>14</v>
       </c>
       <c r="F95">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G95" t="s">
         <v>16</v>
@@ -4142,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95" s="2">
-        <v>112.00000000000001</v>
+        <v>120</v>
       </c>
       <c r="L95" s="2">
-        <v>0.73000000000000065</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4162,7 +4169,7 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s">
         <v>19</v>
@@ -4171,7 +4178,7 @@
         <v>14</v>
       </c>
       <c r="F96">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G96" t="s">
         <v>16</v>
@@ -4180,16 +4187,16 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L96" s="2">
-        <v>0.68944444444444419</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4209,7 +4216,7 @@
         <v>14</v>
       </c>
       <c r="F97">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G97" t="s">
         <v>16</v>
@@ -4218,16 +4225,16 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97" s="2">
-        <v>122</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L97" s="2">
-        <v>0.66916666666666658</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4247,7 +4254,7 @@
         <v>14</v>
       </c>
       <c r="F98">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="G98" t="s">
         <v>16</v>
@@ -4256,16 +4263,16 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>27</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" s="2">
-        <v>127</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L98" s="2">
-        <v>0.65700000000000003</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4285,7 +4292,7 @@
         <v>14</v>
       </c>
       <c r="F99">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G99" t="s">
         <v>16</v>
@@ -4294,16 +4301,16 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" s="2">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L99" s="2">
-        <v>0.64888888888888896</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4314,34 +4321,34 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D100" t="s">
         <v>19</v>
       </c>
       <c r="E100" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F100">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G100" t="s">
         <v>16</v>
       </c>
       <c r="H100">
-        <v>0.62354166666666688</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J100">
-        <v>10.250000000000004</v>
+        <v>0</v>
       </c>
       <c r="K100" s="2">
-        <v>112.455</v>
+        <v>120</v>
       </c>
       <c r="L100" s="2">
-        <v>0.75767916666666624</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4352,34 +4359,34 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
         <v>19</v>
       </c>
       <c r="E101" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F101">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G101" t="s">
         <v>16</v>
       </c>
       <c r="H101">
-        <v>0.63925694444444492</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J101">
-        <v>15.762500000000014</v>
+        <v>0</v>
       </c>
       <c r="K101" s="2">
-        <v>118.07775000000001</v>
+        <v>123</v>
       </c>
       <c r="L101" s="2">
-        <v>0.7331531944444446</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4399,25 +4406,25 @@
         <v>27</v>
       </c>
       <c r="F102">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G102" t="s">
         <v>16</v>
       </c>
       <c r="H102">
-        <v>0.68963838237847208</v>
+        <v>0.62354166666666688</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102">
-        <v>34.00956406249999</v>
+        <v>10.250000000000004</v>
       </c>
       <c r="K102" s="2">
-        <v>136.68975534374999</v>
+        <v>112.455</v>
       </c>
       <c r="L102" s="2">
-        <v>0.74398670558159685</v>
+        <v>0.75767916666666624</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4437,25 +4444,25 @@
         <v>27</v>
       </c>
       <c r="F103">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="G103" t="s">
         <v>16</v>
       </c>
       <c r="H103">
-        <v>0.82141279606950668</v>
+        <v>0.63925694444444492</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103">
-        <v>60.762042448977205</v>
+        <v>15.762500000000014</v>
       </c>
       <c r="K103" s="2">
-        <v>163.97728329795675</v>
+        <v>118.07775000000001</v>
       </c>
       <c r="L103" s="2">
-        <v>0.86487808902793395</v>
+        <v>0.7331531944444446</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4475,25 +4482,25 @@
         <v>27</v>
       </c>
       <c r="F104">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G104" t="s">
         <v>16</v>
       </c>
       <c r="H104">
-        <v>0.89553221043543629</v>
+        <v>0.68963838237847208</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104">
-        <v>88.326464590892357</v>
+        <v>34.00956406249999</v>
       </c>
       <c r="K104" s="2">
-        <v>192.09299388271023</v>
+        <v>136.68975534374999</v>
       </c>
       <c r="L104" s="2">
-        <v>0.93372063242192338</v>
+        <v>0.74398670558159685</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4504,7 +4511,7 @@
         <v>100</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D105" t="s">
         <v>19</v>
@@ -4513,25 +4520,25 @@
         <v>27</v>
       </c>
       <c r="F105">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="G105" t="s">
         <v>16</v>
       </c>
       <c r="H105">
-        <v>0.7</v>
+        <v>0.82141279606950668</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105">
-        <v>11.506849315068493</v>
+        <v>60.762042448977205</v>
       </c>
       <c r="K105" s="2">
-        <v>113.73698630136985</v>
+        <v>163.97728329795675</v>
       </c>
       <c r="L105" s="2">
-        <v>0.83566666666666634</v>
+        <v>0.86487808902793395</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4542,7 +4549,7 @@
         <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
@@ -4551,25 +4558,25 @@
         <v>27</v>
       </c>
       <c r="F106">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="G106" t="s">
         <v>16</v>
       </c>
       <c r="H106">
-        <v>0.7</v>
+        <v>0.89553221043543629</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106">
-        <v>17.260273972602739</v>
+        <v>88.326464590892357</v>
       </c>
       <c r="K106" s="2">
-        <v>119.60547945205479</v>
+        <v>192.09299388271023</v>
       </c>
       <c r="L106" s="2">
-        <v>0.79511111111111121</v>
+        <v>0.93372063242192338</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4589,7 +4596,7 @@
         <v>27</v>
       </c>
       <c r="F107">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G107" t="s">
         <v>16</v>
@@ -4601,13 +4608,13 @@
         <v>2</v>
       </c>
       <c r="J107">
-        <v>34.520547945205479</v>
+        <v>11.506849315068493</v>
       </c>
       <c r="K107" s="2">
-        <v>137.21095890410959</v>
+        <v>113.73698630136985</v>
       </c>
       <c r="L107" s="2">
-        <v>0.75455555555555553</v>
+        <v>0.83566666666666634</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4627,7 +4634,7 @@
         <v>27</v>
       </c>
       <c r="F108">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="G108" t="s">
         <v>16</v>
@@ -4639,13 +4646,13 @@
         <v>2</v>
       </c>
       <c r="J108">
-        <v>51.780821917808218</v>
+        <v>17.260273972602739</v>
       </c>
       <c r="K108" s="2">
-        <v>154.81643835616438</v>
+        <v>119.60547945205479</v>
       </c>
       <c r="L108" s="2">
-        <v>0.74103703703703716</v>
+        <v>0.79511111111111121</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4665,7 +4672,7 @@
         <v>27</v>
       </c>
       <c r="F109">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G109" t="s">
         <v>16</v>
@@ -4677,24 +4684,24 @@
         <v>2</v>
       </c>
       <c r="J109">
-        <v>69.041095890410958</v>
+        <v>34.520547945205479</v>
       </c>
       <c r="K109" s="2">
-        <v>172.42191780821915</v>
+        <v>137.21095890410959</v>
       </c>
       <c r="L109" s="2">
-        <v>0.73427777777777747</v>
+        <v>0.75455555555555553</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>33</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
         <v>19</v>
@@ -4703,36 +4710,36 @@
         <v>27</v>
       </c>
       <c r="F110">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="G110" t="s">
         <v>16</v>
       </c>
       <c r="H110">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110">
-        <v>7.397260273972603</v>
-      </c>
-      <c r="K110">
-        <v>109.54520547945205</v>
-      </c>
-      <c r="L110">
-        <v>0.58066666666666678</v>
+        <v>51.780821917808218</v>
+      </c>
+      <c r="K110" s="2">
+        <v>154.81643835616438</v>
+      </c>
+      <c r="L110" s="2">
+        <v>0.74103703703703716</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
         <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
         <v>19</v>
@@ -4741,32 +4748,32 @@
         <v>27</v>
       </c>
       <c r="F111">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="G111" t="s">
         <v>16</v>
       </c>
       <c r="H111">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111">
-        <v>11.095890410958905</v>
-      </c>
-      <c r="K111">
-        <v>113.31780821917809</v>
-      </c>
-      <c r="L111">
-        <v>0.54011111111111165</v>
+        <v>69.041095890410958</v>
+      </c>
+      <c r="K111" s="2">
+        <v>172.42191780821915</v>
+      </c>
+      <c r="L111" s="2">
+        <v>0.73427777777777747</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>33</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1">
         <v>100</v>
       </c>
       <c r="C112" t="s">
@@ -4779,32 +4786,32 @@
         <v>27</v>
       </c>
       <c r="F112">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G112" t="s">
         <v>16</v>
       </c>
       <c r="H112">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>22.19178082191781</v>
-      </c>
-      <c r="K112">
-        <v>124.63561643835618</v>
-      </c>
-      <c r="L112">
-        <v>0.49955555555555609</v>
+        <v>7.7260273972602738</v>
+      </c>
+      <c r="K112" s="2">
+        <v>109.88054794520548</v>
+      </c>
+      <c r="L112" s="2">
+        <v>0.60106666666666642</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
         <v>100</v>
       </c>
       <c r="C113" t="s">
@@ -4817,32 +4824,32 @@
         <v>27</v>
       </c>
       <c r="F113">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="G113" t="s">
         <v>16</v>
       </c>
       <c r="H113">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>33.287671232876711</v>
-      </c>
-      <c r="K113">
-        <v>135.95342465753424</v>
-      </c>
-      <c r="L113">
-        <v>0.48603703703703693</v>
+        <v>11.58904109589041</v>
+      </c>
+      <c r="K113" s="2">
+        <v>113.82082191780822</v>
+      </c>
+      <c r="L113" s="2">
+        <v>0.56051111111111129</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>33</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>100</v>
       </c>
       <c r="C114" t="s">
@@ -4855,36 +4862,36 @@
         <v>27</v>
       </c>
       <c r="F114">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G114" t="s">
         <v>16</v>
       </c>
       <c r="H114">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114">
-        <v>44.38356164383562</v>
-      </c>
-      <c r="K114">
-        <v>147.27123287671233</v>
-      </c>
-      <c r="L114">
-        <v>0.4792777777777778</v>
+        <v>23.17808219178082</v>
+      </c>
+      <c r="K114" s="2">
+        <v>125.64164383561643</v>
+      </c>
+      <c r="L114" s="2">
+        <v>0.51995555555555573</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>33</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="1">
         <v>100</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D115" t="s">
         <v>19</v>
@@ -4893,36 +4900,36 @@
         <v>27</v>
       </c>
       <c r="F115">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="G115" t="s">
         <v>16</v>
       </c>
       <c r="H115">
-        <v>0.68</v>
+        <v>0.47</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115">
-        <v>11.178082191780824</v>
-      </c>
-      <c r="K115">
-        <v>113.40164383561644</v>
-      </c>
-      <c r="L115">
-        <v>0.8152666666666667</v>
+        <v>34.767123287671232</v>
+      </c>
+      <c r="K115" s="2">
+        <v>137.46246575342465</v>
+      </c>
+      <c r="L115" s="2">
+        <v>0.50643703703703691</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>33</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="1">
         <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D116" t="s">
         <v>19</v>
@@ -4931,32 +4938,32 @@
         <v>27</v>
       </c>
       <c r="F116">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="G116" t="s">
         <v>16</v>
       </c>
       <c r="H116">
-        <v>0.68</v>
+        <v>0.47</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>16.767123287671236</v>
-      </c>
-      <c r="K116">
-        <v>119.10246575342467</v>
-      </c>
-      <c r="L116">
-        <v>0.77471111111111157</v>
+        <v>46.356164383561641</v>
+      </c>
+      <c r="K116" s="2">
+        <v>149.28328767123287</v>
+      </c>
+      <c r="L116" s="2">
+        <v>0.49967777777777767</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1">
         <v>100</v>
       </c>
       <c r="C117" t="s">
@@ -4969,32 +4976,32 @@
         <v>27</v>
       </c>
       <c r="F117">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G117" t="s">
         <v>16</v>
       </c>
       <c r="H117">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
       <c r="J117">
-        <v>33.534246575342472</v>
-      </c>
-      <c r="K117">
-        <v>136.20493150684933</v>
-      </c>
-      <c r="L117">
-        <v>0.73415555555555589</v>
+        <v>11.342465753424657</v>
+      </c>
+      <c r="K117" s="2">
+        <v>113.56931506849315</v>
+      </c>
+      <c r="L117" s="2">
+        <v>0.82546666666666657</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>33</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
         <v>100</v>
       </c>
       <c r="C118" t="s">
@@ -5007,32 +5014,32 @@
         <v>27</v>
       </c>
       <c r="F118">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="G118" t="s">
         <v>16</v>
       </c>
       <c r="H118">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="I118">
         <v>2</v>
       </c>
       <c r="J118">
-        <v>50.301369863013704</v>
-      </c>
-      <c r="K118">
-        <v>153.30739726027397</v>
-      </c>
-      <c r="L118">
-        <v>0.72063703703703719</v>
+        <v>17.013698630136986</v>
+      </c>
+      <c r="K118" s="2">
+        <v>119.35397260273972</v>
+      </c>
+      <c r="L118" s="2">
+        <v>0.784911111111111</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1">
         <v>100</v>
       </c>
       <c r="C119" t="s">
@@ -5045,25 +5052,101 @@
         <v>27</v>
       </c>
       <c r="F119">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G119" t="s">
         <v>16</v>
       </c>
       <c r="H119">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119">
-        <v>67.068493150684944</v>
-      </c>
-      <c r="K119">
-        <v>170.40986301369864</v>
-      </c>
-      <c r="L119">
-        <v>0.71387777777777794</v>
+        <v>34.027397260273972</v>
+      </c>
+      <c r="K119" s="2">
+        <v>136.70794520547946</v>
+      </c>
+      <c r="L119" s="2">
+        <v>0.74435555555555588</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" s="1">
+        <v>100</v>
+      </c>
+      <c r="C120" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" t="s">
+        <v>27</v>
+      </c>
+      <c r="F120">
+        <v>270</v>
+      </c>
+      <c r="G120" t="s">
+        <v>16</v>
+      </c>
+      <c r="H120">
+        <v>0.69</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>51.041095890410958</v>
+      </c>
+      <c r="K120" s="2">
+        <v>154.06191780821919</v>
+      </c>
+      <c r="L120" s="2">
+        <v>0.73083703703703706</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121" s="1">
+        <v>100</v>
+      </c>
+      <c r="C121" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121">
+        <v>360</v>
+      </c>
+      <c r="G121" t="s">
+        <v>16</v>
+      </c>
+      <c r="H121">
+        <v>0.69</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>68.054794520547944</v>
+      </c>
+      <c r="K121" s="2">
+        <v>171.41589041095889</v>
+      </c>
+      <c r="L121" s="2">
+        <v>0.72407777777777782</v>
       </c>
     </row>
   </sheetData>

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B97850-7B3D-4240-AC00-3DCF05F93D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB682567-AD41-4E48-B7DD-F4EB792DC2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="39">
   <si>
     <t>Precio de contado</t>
   </si>
@@ -539,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F38534-621C-456A-88D0-E73BF73C904A}">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L121"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,19 +2094,19 @@
         <v>16</v>
       </c>
       <c r="H41">
-        <v>0.505</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41">
-        <v>24.904109589041095</v>
+        <v>22.93150684931507</v>
       </c>
       <c r="K41" s="2">
-        <v>127.40219178082192</v>
+        <v>125.39013698630137</v>
       </c>
       <c r="L41" s="2">
-        <v>0.55565555555555579</v>
+        <v>0.51485555555555562</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2132,19 +2132,19 @@
         <v>16</v>
       </c>
       <c r="H42">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="I42">
         <v>2</v>
       </c>
       <c r="J42">
-        <v>29.342465753424662</v>
+        <v>27.041095890410961</v>
       </c>
       <c r="K42" s="2">
-        <v>131.92931506849314</v>
+        <v>129.58191780821917</v>
       </c>
       <c r="L42" s="2">
-        <v>0.55496190476190466</v>
+        <v>0.5141619047619046</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2170,19 +2170,19 @@
         <v>16</v>
       </c>
       <c r="H43">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43">
-        <v>38.465753424657535</v>
+        <v>35.506849315068493</v>
       </c>
       <c r="K43" s="2">
-        <v>141.23506849315066</v>
+        <v>138.21698630136987</v>
       </c>
       <c r="L43" s="2">
-        <v>0.55743703703703673</v>
+        <v>0.51663703703703712</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2322,19 +2322,19 @@
         <v>16</v>
       </c>
       <c r="H47">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="I47">
         <v>5</v>
       </c>
       <c r="J47">
-        <v>23.17808219178082</v>
+        <v>16.273972602739725</v>
       </c>
       <c r="K47" s="2">
-        <v>129.33698630136985</v>
+        <v>122.08767123287672</v>
       </c>
       <c r="L47" s="2">
-        <v>0.59488888888888858</v>
+        <v>0.447888888888889</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2430,25 +2430,25 @@
         <v>12</v>
       </c>
       <c r="F50">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G50" t="s">
         <v>16</v>
       </c>
       <c r="H50">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I50">
         <v>10</v>
       </c>
       <c r="J50">
-        <v>16.767123287671236</v>
+        <v>29.589041095890416</v>
       </c>
       <c r="K50" s="2">
-        <v>128.44383561643838</v>
+        <v>142.54794520547949</v>
       </c>
       <c r="L50" s="2">
-        <v>0.57677777777777817</v>
+        <v>0.57518518518518569</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2468,36 +2468,36 @@
         <v>12</v>
       </c>
       <c r="F51">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G51" t="s">
         <v>16</v>
       </c>
       <c r="H51">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="I51">
         <v>10</v>
       </c>
       <c r="J51">
-        <v>29.589041095890416</v>
+        <v>42.410958904109592</v>
       </c>
       <c r="K51" s="2">
-        <v>142.54794520547949</v>
+        <v>156.65205479452058</v>
       </c>
       <c r="L51" s="2">
-        <v>0.57518518518518569</v>
+        <v>0.57438888888888928</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="3">
+        <v>30</v>
+      </c>
+      <c r="B52" s="1">
         <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
@@ -2506,25 +2506,25 @@
         <v>12</v>
       </c>
       <c r="F52">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G52" t="s">
         <v>16</v>
       </c>
       <c r="H52">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>10.9</v>
       </c>
       <c r="J52">
-        <v>42.410958904109592</v>
+        <v>18.246575342465754</v>
       </c>
       <c r="K52" s="2">
-        <v>156.65205479452058</v>
+        <v>131.13545205479451</v>
       </c>
       <c r="L52" s="2">
-        <v>0.57438888888888928</v>
+        <v>0.63135777777777757</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2544,25 +2544,25 @@
         <v>12</v>
       </c>
       <c r="F53">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G53" t="s">
         <v>16</v>
       </c>
       <c r="H53">
-        <v>0.37</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="I53">
         <v>10.9</v>
       </c>
       <c r="J53">
-        <v>18.246575342465754</v>
+        <v>34.397260273972606</v>
       </c>
       <c r="K53" s="2">
-        <v>131.13545205479451</v>
+        <v>149.04656164383562</v>
       </c>
       <c r="L53" s="2">
-        <v>0.63135777777777757</v>
+        <v>0.66303685185185179</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2582,30 +2582,30 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G54" t="s">
         <v>16</v>
       </c>
       <c r="H54">
-        <v>0.46500000000000002</v>
+        <v>0.51</v>
       </c>
       <c r="I54">
         <v>10.9</v>
       </c>
       <c r="J54">
-        <v>34.397260273972606</v>
+        <v>50.301369863013704</v>
       </c>
       <c r="K54" s="2">
-        <v>149.04656164383562</v>
+        <v>166.6842191780822</v>
       </c>
       <c r="L54" s="2">
-        <v>0.66303685185185179</v>
+        <v>0.67610388888888895</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55" s="1">
         <v>100</v>
@@ -2620,25 +2620,25 @@
         <v>12</v>
       </c>
       <c r="F55">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G55" t="s">
         <v>16</v>
       </c>
       <c r="H55">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="I55">
         <v>10.9</v>
       </c>
       <c r="J55">
-        <v>50.301369863013704</v>
+        <v>18.246575342465754</v>
       </c>
       <c r="K55" s="2">
-        <v>166.6842191780822</v>
+        <v>131.13545205479451</v>
       </c>
       <c r="L55" s="2">
-        <v>0.67610388888888895</v>
+        <v>0.63135777777777757</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2658,25 +2658,25 @@
         <v>12</v>
       </c>
       <c r="F56">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G56" t="s">
         <v>16</v>
       </c>
       <c r="H56">
-        <v>0.37</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="I56">
         <v>10.9</v>
       </c>
       <c r="J56">
-        <v>18.246575342465754</v>
+        <v>34.397260273972606</v>
       </c>
       <c r="K56" s="2">
-        <v>131.13545205479451</v>
+        <v>149.04656164383562</v>
       </c>
       <c r="L56" s="2">
-        <v>0.63135777777777757</v>
+        <v>0.66303685185185179</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2696,63 +2696,63 @@
         <v>12</v>
       </c>
       <c r="F57">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
       </c>
       <c r="H57">
-        <v>0.46500000000000002</v>
+        <v>0.51</v>
       </c>
       <c r="I57">
         <v>10.9</v>
       </c>
       <c r="J57">
-        <v>34.397260273972606</v>
+        <v>50.301369863013704</v>
       </c>
       <c r="K57" s="2">
-        <v>149.04656164383562</v>
+        <v>166.6842191780822</v>
       </c>
       <c r="L57" s="2">
-        <v>0.66303685185185179</v>
+        <v>0.67610388888888895</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B58" s="1">
         <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F58">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G58" t="s">
         <v>16</v>
       </c>
       <c r="H58">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>10.9</v>
+        <v>18.147631812115161</v>
       </c>
       <c r="J58">
-        <v>50.301369863013704</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2">
-        <v>166.6842191780822</v>
+        <v>118.14763181211516</v>
       </c>
       <c r="L58" s="2">
-        <v>0.67610388888888895</v>
+        <v>1.1039809352370056</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
         <v>14</v>
       </c>
       <c r="F59">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s">
         <v>16</v>
@@ -2781,16 +2781,16 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>18.147631812115161</v>
+        <v>25.734637028384011</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59" s="2">
-        <v>118.14763181211516</v>
+        <v>125.73463702838401</v>
       </c>
       <c r="L59" s="2">
-        <v>1.1039809352370056</v>
+        <v>1.0436825017066849</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2810,7 +2810,7 @@
         <v>14</v>
       </c>
       <c r="F60">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G60" t="s">
         <v>16</v>
@@ -2819,16 +2819,16 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>25.734637028384011</v>
+        <v>33.344173594159535</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60" s="2">
-        <v>125.73463702838401</v>
+        <v>133.34417359415954</v>
       </c>
       <c r="L60" s="2">
-        <v>1.0436825017066849</v>
+        <v>1.0142186134890192</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
         <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
@@ -2848,7 +2848,7 @@
         <v>14</v>
       </c>
       <c r="F61">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G61" t="s">
         <v>16</v>
@@ -2857,16 +2857,16 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>33.344173594159535</v>
+        <v>17.39030612244898</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" s="2">
-        <v>133.34417359415954</v>
+        <v>117.39030612244899</v>
       </c>
       <c r="L61" s="2">
-        <v>1.0142186134890192</v>
+        <v>1.0579102891156467</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2886,7 +2886,7 @@
         <v>14</v>
       </c>
       <c r="F62">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s">
         <v>16</v>
@@ -2895,16 +2895,16 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>17.39030612244898</v>
+        <v>26.192934316583777</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62" s="2">
-        <v>117.39030612244899</v>
+        <v>126.19293431658379</v>
       </c>
       <c r="L62" s="2">
-        <v>1.0579102891156467</v>
+        <v>1.0622690028392312</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2924,7 +2924,7 @@
         <v>14</v>
       </c>
       <c r="F63">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G63" t="s">
         <v>16</v>
@@ -2933,16 +2933,16 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>26.192934316583777</v>
+        <v>36.435992578849721</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" s="2">
-        <v>126.19293431658379</v>
+        <v>136.43599257884972</v>
       </c>
       <c r="L63" s="2">
-        <v>1.0622690028392312</v>
+        <v>1.1082614409400127</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2962,7 +2962,7 @@
         <v>14</v>
       </c>
       <c r="F64">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G64" t="s">
         <v>16</v>
@@ -2971,16 +2971,16 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>36.435992578849721</v>
+        <v>48.504546373004636</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64" s="2">
-        <v>136.43599257884972</v>
+        <v>148.50454637300464</v>
       </c>
       <c r="L64" s="2">
-        <v>1.1082614409400127</v>
+        <v>1.1802772950764466</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3000,7 +3000,7 @@
         <v>14</v>
       </c>
       <c r="F65">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>48.504546373004636</v>
+        <v>62.934338952972489</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65" s="2">
-        <v>148.50454637300464</v>
+        <v>162.9343389529725</v>
       </c>
       <c r="L65" s="2">
-        <v>1.1802772950764466</v>
+        <v>1.27616853987972</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3029,7 +3029,7 @@
         <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
@@ -3038,7 +3038,7 @@
         <v>14</v>
       </c>
       <c r="F66">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G66" t="s">
         <v>16</v>
@@ -3047,16 +3047,16 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>62.934338952972489</v>
+        <v>10</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>162.9343389529725</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L66" s="2">
-        <v>1.27616853987972</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
         <v>14</v>
       </c>
       <c r="F67">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s">
         <v>16</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L67" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3114,7 +3114,7 @@
         <v>14</v>
       </c>
       <c r="F68">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G68" t="s">
         <v>16</v>
@@ -3123,16 +3123,16 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>14.000000000000002</v>
+        <v>17</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" s="2">
-        <v>114.00000000000001</v>
+        <v>117</v>
       </c>
       <c r="L68" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3152,25 +3152,25 @@
         <v>14</v>
       </c>
       <c r="F69">
+        <v>150</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>20</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
         <v>120</v>
       </c>
-      <c r="G69" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>17</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69" s="2">
-        <v>117</v>
-      </c>
       <c r="L69" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3190,7 +3190,7 @@
         <v>14</v>
       </c>
       <c r="F70">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G70" t="s">
         <v>16</v>
@@ -3199,16 +3199,16 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L70" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3219,7 +3219,7 @@
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
@@ -3228,7 +3228,7 @@
         <v>14</v>
       </c>
       <c r="F71">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G71" t="s">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" s="2">
-        <v>123</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L71" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3266,7 +3266,7 @@
         <v>14</v>
       </c>
       <c r="F72">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G72" t="s">
         <v>16</v>
@@ -3275,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L72" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3304,7 +3304,7 @@
         <v>14</v>
       </c>
       <c r="F73">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>14.000000000000002</v>
+        <v>17</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" s="2">
-        <v>114.00000000000001</v>
+        <v>117</v>
       </c>
       <c r="L73" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3342,25 +3342,25 @@
         <v>14</v>
       </c>
       <c r="F74">
+        <v>150</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>20</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
         <v>120</v>
       </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>17</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74" s="2">
-        <v>117</v>
-      </c>
       <c r="L74" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
         <v>14</v>
       </c>
       <c r="F75">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G75" t="s">
         <v>16</v>
@@ -3389,16 +3389,16 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L75" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3409,7 +3409,7 @@
         <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
@@ -3418,7 +3418,7 @@
         <v>14</v>
       </c>
       <c r="F76">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
@@ -3427,16 +3427,16 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" s="2">
-        <v>123</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L76" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3456,7 +3456,7 @@
         <v>14</v>
       </c>
       <c r="F77">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G77" t="s">
         <v>16</v>
@@ -3465,16 +3465,16 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L77" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3494,7 +3494,7 @@
         <v>14</v>
       </c>
       <c r="F78">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
@@ -3503,16 +3503,16 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>14.000000000000002</v>
+        <v>17</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" s="2">
-        <v>114.00000000000001</v>
+        <v>117</v>
       </c>
       <c r="L78" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3532,25 +3532,25 @@
         <v>14</v>
       </c>
       <c r="F79">
+        <v>150</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>20</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
         <v>120</v>
       </c>
-      <c r="G79" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>17</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2">
-        <v>117</v>
-      </c>
       <c r="L79" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3570,7 +3570,7 @@
         <v>14</v>
       </c>
       <c r="F80">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
@@ -3579,16 +3579,16 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L80" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3599,7 +3599,7 @@
         <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -3608,7 +3608,7 @@
         <v>14</v>
       </c>
       <c r="F81">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
@@ -3617,16 +3617,16 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" s="2">
-        <v>123</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L81" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3646,7 +3646,7 @@
         <v>14</v>
       </c>
       <c r="F82">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G82" t="s">
         <v>16</v>
@@ -3655,16 +3655,16 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L82" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3684,7 +3684,7 @@
         <v>14</v>
       </c>
       <c r="F83">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G83" t="s">
         <v>16</v>
@@ -3693,16 +3693,16 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>14.000000000000002</v>
+        <v>17</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" s="2">
-        <v>114.00000000000001</v>
+        <v>117</v>
       </c>
       <c r="L83" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3722,25 +3722,25 @@
         <v>14</v>
       </c>
       <c r="F84">
+        <v>150</v>
+      </c>
+      <c r="G84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>20</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
         <v>120</v>
       </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>17</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84" s="2">
-        <v>117</v>
-      </c>
       <c r="L84" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3760,7 +3760,7 @@
         <v>14</v>
       </c>
       <c r="F85">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
@@ -3769,16 +3769,16 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L85" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3789,7 +3789,7 @@
         <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D86" t="s">
         <v>19</v>
@@ -3798,7 +3798,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G86" t="s">
         <v>16</v>
@@ -3807,16 +3807,16 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" s="2">
-        <v>123</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L86" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3836,7 +3836,7 @@
         <v>14</v>
       </c>
       <c r="F87">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G87" t="s">
         <v>16</v>
@@ -3845,16 +3845,16 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L87" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3874,7 +3874,7 @@
         <v>14</v>
       </c>
       <c r="F88">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G88" t="s">
         <v>16</v>
@@ -3883,16 +3883,16 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>14.000000000000002</v>
+        <v>17</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" s="2">
-        <v>114.00000000000001</v>
+        <v>117</v>
       </c>
       <c r="L88" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3912,25 +3912,25 @@
         <v>14</v>
       </c>
       <c r="F89">
+        <v>150</v>
+      </c>
+      <c r="G89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>20</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2">
         <v>120</v>
       </c>
-      <c r="G89" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>17</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89" s="2">
-        <v>117</v>
-      </c>
       <c r="L89" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3950,7 +3950,7 @@
         <v>14</v>
       </c>
       <c r="F90">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
@@ -3959,16 +3959,16 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L90" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3979,7 +3979,7 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
@@ -3988,7 +3988,7 @@
         <v>14</v>
       </c>
       <c r="F91">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G91" t="s">
         <v>16</v>
@@ -3997,16 +3997,16 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91" s="2">
-        <v>123</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L91" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4026,7 +4026,7 @@
         <v>14</v>
       </c>
       <c r="F92">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G92" t="s">
         <v>16</v>
@@ -4035,16 +4035,16 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L92" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4064,7 +4064,7 @@
         <v>14</v>
       </c>
       <c r="F93">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
@@ -4073,16 +4073,16 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>14.000000000000002</v>
+        <v>17</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" s="2">
-        <v>114.00000000000001</v>
+        <v>117</v>
       </c>
       <c r="L93" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4102,25 +4102,25 @@
         <v>14</v>
       </c>
       <c r="F94">
+        <v>150</v>
+      </c>
+      <c r="G94" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>20</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2">
         <v>120</v>
       </c>
-      <c r="G94" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>17</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94" s="2">
-        <v>117</v>
-      </c>
       <c r="L94" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4140,7 +4140,7 @@
         <v>14</v>
       </c>
       <c r="F95">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G95" t="s">
         <v>16</v>
@@ -4149,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L95" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4169,7 +4169,7 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
         <v>19</v>
@@ -4178,7 +4178,7 @@
         <v>14</v>
       </c>
       <c r="F96">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G96" t="s">
         <v>16</v>
@@ -4187,16 +4187,16 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96" s="2">
-        <v>123</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L96" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
         <v>14</v>
       </c>
       <c r="F97">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G97" t="s">
         <v>16</v>
@@ -4225,16 +4225,16 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L97" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4254,7 +4254,7 @@
         <v>14</v>
       </c>
       <c r="F98">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G98" t="s">
         <v>16</v>
@@ -4263,16 +4263,16 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>14.000000000000002</v>
+        <v>17</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" s="2">
-        <v>114.00000000000001</v>
+        <v>117</v>
       </c>
       <c r="L98" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4292,25 +4292,25 @@
         <v>14</v>
       </c>
       <c r="F99">
+        <v>150</v>
+      </c>
+      <c r="G99" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>20</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99" s="2">
         <v>120</v>
       </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>17</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99" s="2">
-        <v>117</v>
-      </c>
       <c r="L99" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4330,7 +4330,7 @@
         <v>14</v>
       </c>
       <c r="F100">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G100" t="s">
         <v>16</v>
@@ -4339,16 +4339,16 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L100" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4359,34 +4359,34 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
         <v>19</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F101">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G101" t="s">
         <v>16</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>0.5386453703703723</v>
       </c>
       <c r="I101">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>8.854444444444475</v>
       </c>
       <c r="K101" s="2">
-        <v>123</v>
+        <v>111.03153333333337</v>
       </c>
       <c r="L101" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.671084944444447</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4406,25 +4406,25 @@
         <v>27</v>
       </c>
       <c r="F102">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G102" t="s">
         <v>16</v>
       </c>
       <c r="H102">
-        <v>0.62354166666666688</v>
+        <v>0.55039852057613325</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102">
-        <v>10.250000000000004</v>
+        <v>13.57147037037041</v>
       </c>
       <c r="K102" s="2">
-        <v>112.455</v>
+        <v>115.84289977777782</v>
       </c>
       <c r="L102" s="2">
-        <v>0.75767916666666624</v>
+        <v>0.64251760209876707</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4444,25 +4444,25 @@
         <v>27</v>
       </c>
       <c r="F103">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G103" t="s">
         <v>16</v>
       </c>
       <c r="H103">
-        <v>0.63925694444444492</v>
+        <v>0.58774710664560736</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103">
-        <v>15.762500000000014</v>
+        <v>28.984788820879263</v>
       </c>
       <c r="K103" s="2">
-        <v>118.07775000000001</v>
+        <v>131.56448459729685</v>
       </c>
       <c r="L103" s="2">
-        <v>0.7331531944444446</v>
+        <v>0.64005760433407521</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4482,25 +4482,25 @@
         <v>27</v>
       </c>
       <c r="F104">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G104" t="s">
         <v>16</v>
       </c>
       <c r="H104">
-        <v>0.68963838237847208</v>
+        <v>0.70080042377797513</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104">
-        <v>34.00956406249999</v>
+        <v>51.840031347959801</v>
       </c>
       <c r="K104" s="2">
-        <v>136.68975534374999</v>
+        <v>154.87683197491899</v>
       </c>
       <c r="L104" s="2">
-        <v>0.74398670558159685</v>
+        <v>0.7418534692905715</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4520,25 +4520,25 @@
         <v>27</v>
       </c>
       <c r="F105">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G105" t="s">
         <v>16</v>
       </c>
       <c r="H105">
-        <v>0.82141279606950668</v>
+        <v>0.75556293730424851</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105">
-        <v>60.762042448977205</v>
+        <v>74.521276008090268</v>
       </c>
       <c r="K105" s="2">
-        <v>163.97728329795675</v>
+        <v>178.01170152825208</v>
       </c>
       <c r="L105" s="2">
-        <v>0.86487808902793395</v>
+        <v>0.79095197382811133</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4549,7 +4549,7 @@
         <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
@@ -4558,25 +4558,25 @@
         <v>27</v>
       </c>
       <c r="F106">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G106" t="s">
         <v>16</v>
       </c>
       <c r="H106">
-        <v>0.89553221043543629</v>
+        <v>0.59</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106">
-        <v>88.326464590892357</v>
+        <v>9.6986301369863011</v>
       </c>
       <c r="K106" s="2">
-        <v>192.09299388271023</v>
+        <v>111.89260273972603</v>
       </c>
       <c r="L106" s="2">
-        <v>0.93372063242192338</v>
+        <v>0.72346666666666692</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4596,25 +4596,25 @@
         <v>27</v>
       </c>
       <c r="F107">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G107" t="s">
         <v>16</v>
       </c>
       <c r="H107">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107">
-        <v>11.506849315068493</v>
+        <v>14.547945205479451</v>
       </c>
       <c r="K107" s="2">
-        <v>113.73698630136985</v>
+        <v>116.83890410958902</v>
       </c>
       <c r="L107" s="2">
-        <v>0.83566666666666634</v>
+        <v>0.68291111111111003</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4634,25 +4634,25 @@
         <v>27</v>
       </c>
       <c r="F108">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G108" t="s">
         <v>16</v>
       </c>
       <c r="H108">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108">
-        <v>17.260273972602739</v>
+        <v>29.095890410958901</v>
       </c>
       <c r="K108" s="2">
-        <v>119.60547945205479</v>
+        <v>131.67780821917808</v>
       </c>
       <c r="L108" s="2">
-        <v>0.79511111111111121</v>
+        <v>0.64235555555555535</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4672,25 +4672,25 @@
         <v>27</v>
       </c>
       <c r="F109">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G109" t="s">
         <v>16</v>
       </c>
       <c r="H109">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109">
-        <v>34.520547945205479</v>
+        <v>43.643835616438359</v>
       </c>
       <c r="K109" s="2">
-        <v>137.21095890410959</v>
+        <v>146.51671232876714</v>
       </c>
       <c r="L109" s="2">
-        <v>0.75455555555555553</v>
+        <v>0.62883703703703742</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -4710,25 +4710,25 @@
         <v>27</v>
       </c>
       <c r="F110">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G110" t="s">
         <v>16</v>
       </c>
       <c r="H110">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110">
-        <v>51.780821917808218</v>
+        <v>58.191780821917803</v>
       </c>
       <c r="K110" s="2">
-        <v>154.81643835616438</v>
+        <v>161.35561643835615</v>
       </c>
       <c r="L110" s="2">
-        <v>0.74103703703703716</v>
+        <v>0.62207777777777751</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4739,7 +4739,7 @@
         <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D111" t="s">
         <v>19</v>
@@ -4748,25 +4748,25 @@
         <v>27</v>
       </c>
       <c r="F111">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G111" t="s">
         <v>16</v>
       </c>
       <c r="H111">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111">
-        <v>69.041095890410958</v>
+        <v>6.9041095890410951</v>
       </c>
       <c r="K111" s="2">
-        <v>172.42191780821915</v>
+        <v>109.04219178082191</v>
       </c>
       <c r="L111" s="2">
-        <v>0.73427777777777747</v>
+        <v>0.55006666666666593</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -4786,25 +4786,25 @@
         <v>27</v>
       </c>
       <c r="F112">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G112" t="s">
         <v>16</v>
       </c>
       <c r="H112">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>7.7260273972602738</v>
+        <v>10.356164383561643</v>
       </c>
       <c r="K112" s="2">
-        <v>109.88054794520548</v>
+        <v>112.56328767123287</v>
       </c>
       <c r="L112" s="2">
-        <v>0.60106666666666642</v>
+        <v>0.50951111111111091</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4824,25 +4824,25 @@
         <v>27</v>
       </c>
       <c r="F113">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G113" t="s">
         <v>16</v>
       </c>
       <c r="H113">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>11.58904109589041</v>
+        <v>20.712328767123285</v>
       </c>
       <c r="K113" s="2">
-        <v>113.82082191780822</v>
+        <v>123.12657534246574</v>
       </c>
       <c r="L113" s="2">
-        <v>0.56051111111111129</v>
+        <v>0.46895555555555524</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -4862,25 +4862,25 @@
         <v>27</v>
       </c>
       <c r="F114">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G114" t="s">
         <v>16</v>
       </c>
       <c r="H114">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114">
-        <v>23.17808219178082</v>
+        <v>31.06849315068493</v>
       </c>
       <c r="K114" s="2">
-        <v>125.64164383561643</v>
+        <v>133.68986301369861</v>
       </c>
       <c r="L114" s="2">
-        <v>0.51995555555555573</v>
+        <v>0.45543703703703675</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4900,25 +4900,25 @@
         <v>27</v>
       </c>
       <c r="F115">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G115" t="s">
         <v>16</v>
       </c>
       <c r="H115">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115">
-        <v>34.767123287671232</v>
+        <v>41.42465753424657</v>
       </c>
       <c r="K115" s="2">
-        <v>137.46246575342465</v>
+        <v>144.25315068493151</v>
       </c>
       <c r="L115" s="2">
-        <v>0.50643703703703691</v>
+        <v>0.4486777777777779</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -4929,7 +4929,7 @@
         <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
         <v>19</v>
@@ -4938,25 +4938,25 @@
         <v>27</v>
       </c>
       <c r="F116">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G116" t="s">
         <v>16</v>
       </c>
       <c r="H116">
-        <v>0.47</v>
+        <v>0.69</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>46.356164383561641</v>
+        <v>11.342465753424657</v>
       </c>
       <c r="K116" s="2">
-        <v>149.28328767123287</v>
+        <v>113.56931506849315</v>
       </c>
       <c r="L116" s="2">
-        <v>0.49967777777777767</v>
+        <v>0.82546666666666657</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -4976,7 +4976,7 @@
         <v>27</v>
       </c>
       <c r="F117">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G117" t="s">
         <v>16</v>
@@ -4988,13 +4988,13 @@
         <v>2</v>
       </c>
       <c r="J117">
-        <v>11.342465753424657</v>
+        <v>17.013698630136986</v>
       </c>
       <c r="K117" s="2">
-        <v>113.56931506849315</v>
+        <v>119.35397260273972</v>
       </c>
       <c r="L117" s="2">
-        <v>0.82546666666666657</v>
+        <v>0.784911111111111</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -5014,7 +5014,7 @@
         <v>27</v>
       </c>
       <c r="F118">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G118" t="s">
         <v>16</v>
@@ -5026,13 +5026,13 @@
         <v>2</v>
       </c>
       <c r="J118">
-        <v>17.013698630136986</v>
+        <v>34.027397260273972</v>
       </c>
       <c r="K118" s="2">
-        <v>119.35397260273972</v>
+        <v>136.70794520547946</v>
       </c>
       <c r="L118" s="2">
-        <v>0.784911111111111</v>
+        <v>0.74435555555555588</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5052,7 +5052,7 @@
         <v>27</v>
       </c>
       <c r="F119">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G119" t="s">
         <v>16</v>
@@ -5064,13 +5064,13 @@
         <v>2</v>
       </c>
       <c r="J119">
-        <v>34.027397260273972</v>
+        <v>51.041095890410958</v>
       </c>
       <c r="K119" s="2">
-        <v>136.70794520547946</v>
+        <v>154.06191780821919</v>
       </c>
       <c r="L119" s="2">
-        <v>0.74435555555555588</v>
+        <v>0.73083703703703706</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5090,7 +5090,7 @@
         <v>27</v>
       </c>
       <c r="F120">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G120" t="s">
         <v>16</v>
@@ -5102,50 +5102,12 @@
         <v>2</v>
       </c>
       <c r="J120">
-        <v>51.041095890410958</v>
+        <v>68.054794520547944</v>
       </c>
       <c r="K120" s="2">
-        <v>154.06191780821919</v>
+        <v>171.41589041095889</v>
       </c>
       <c r="L120" s="2">
-        <v>0.73083703703703706</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>33</v>
-      </c>
-      <c r="B121" s="1">
-        <v>100</v>
-      </c>
-      <c r="C121" t="s">
-        <v>29</v>
-      </c>
-      <c r="D121" t="s">
-        <v>19</v>
-      </c>
-      <c r="E121" t="s">
-        <v>27</v>
-      </c>
-      <c r="F121">
-        <v>360</v>
-      </c>
-      <c r="G121" t="s">
-        <v>16</v>
-      </c>
-      <c r="H121">
-        <v>0.69</v>
-      </c>
-      <c r="I121">
-        <v>2</v>
-      </c>
-      <c r="J121">
-        <v>68.054794520547944</v>
-      </c>
-      <c r="K121" s="2">
-        <v>171.41589041095889</v>
-      </c>
-      <c r="L121" s="2">
         <v>0.72407777777777782</v>
       </c>
     </row>

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB682567-AD41-4E48-B7DD-F4EB792DC2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438E609A-9FEF-4D91-BE23-D72D7FE7B4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="39">
   <si>
     <t>Precio de contado</t>
   </si>
@@ -539,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F38534-621C-456A-88D0-E73BF73C904A}">
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>105</v>
+        <v>104.89999999999999</v>
       </c>
       <c r="L18" s="2">
-        <v>0.10138888888888899</v>
+        <v>9.936111111111097E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1261,16 +1261,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.6</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>109.60000000000001</v>
+        <v>108.2</v>
       </c>
       <c r="L19" s="2">
-        <v>0.12977777777777791</v>
+        <v>0.11085185185185195</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2208,19 +2208,19 @@
         <v>16</v>
       </c>
       <c r="H44">
-        <v>0.57999999999999996</v>
+        <v>0.51</v>
       </c>
       <c r="I44">
         <v>0.5</v>
       </c>
       <c r="J44">
-        <v>28.602739726027394</v>
+        <v>25.150684931506852</v>
       </c>
       <c r="K44" s="2">
-        <v>129.24575342465749</v>
+        <v>125.77643835616436</v>
       </c>
       <c r="L44" s="2">
-        <v>0.59303888888888812</v>
+        <v>0.52268888888888854</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2246,19 +2246,19 @@
         <v>16</v>
       </c>
       <c r="H45">
-        <v>0.57999999999999996</v>
+        <v>0.51</v>
       </c>
       <c r="I45">
         <v>0.5</v>
       </c>
       <c r="J45">
-        <v>42.904109589041099</v>
+        <v>37.726027397260275</v>
       </c>
       <c r="K45" s="2">
-        <v>143.61863013698627</v>
+        <v>138.41465753424654</v>
       </c>
       <c r="L45" s="2">
-        <v>0.58965925925925866</v>
+        <v>0.51930925925925897</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2284,19 +2284,19 @@
         <v>16</v>
       </c>
       <c r="H46">
-        <v>0.57999999999999996</v>
+        <v>0.51</v>
       </c>
       <c r="I46">
         <v>0.5</v>
       </c>
       <c r="J46">
-        <v>57.205479452054789</v>
+        <v>50.301369863013704</v>
       </c>
       <c r="K46" s="2">
-        <v>157.99150684931504</v>
+        <v>151.05287671232875</v>
       </c>
       <c r="L46" s="2">
-        <v>0.58796944444444421</v>
+        <v>0.51761944444444419</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2360,19 +2360,19 @@
         <v>16</v>
       </c>
       <c r="H48">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="I48">
         <v>5</v>
       </c>
       <c r="J48">
-        <v>36.986301369863014</v>
+        <v>26.630136986301366</v>
       </c>
       <c r="K48" s="2">
-        <v>143.83561643835617</v>
+        <v>132.96164383561643</v>
       </c>
       <c r="L48" s="2">
-        <v>0.59259259259259256</v>
+        <v>0.4455925925925926</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2398,19 +2398,19 @@
         <v>16</v>
       </c>
       <c r="H49">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="I49">
         <v>5</v>
       </c>
       <c r="J49">
-        <v>50.301369863013704</v>
+        <v>44.38356164383562</v>
       </c>
       <c r="K49" s="2">
-        <v>157.81643835616438</v>
+        <v>151.60273972602738</v>
       </c>
       <c r="L49" s="2">
-        <v>0.58619444444444457</v>
+        <v>0.5231944444444443</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2430,25 +2430,25 @@
         <v>12</v>
       </c>
       <c r="F50">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G50" t="s">
         <v>16</v>
       </c>
       <c r="H50">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="I50">
         <v>10</v>
       </c>
       <c r="J50">
-        <v>29.589041095890416</v>
+        <v>13.315068493150687</v>
       </c>
       <c r="K50" s="2">
-        <v>142.54794520547949</v>
+        <v>124.64657534246578</v>
       </c>
       <c r="L50" s="2">
-        <v>0.57518518518518569</v>
+        <v>0.4997777777777781</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2468,36 +2468,36 @@
         <v>12</v>
       </c>
       <c r="F51">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G51" t="s">
         <v>16</v>
       </c>
       <c r="H51">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
       <c r="I51">
         <v>10</v>
       </c>
       <c r="J51">
-        <v>42.410958904109592</v>
+        <v>25.150684931506852</v>
       </c>
       <c r="K51" s="2">
-        <v>156.65205479452058</v>
+        <v>137.66575342465757</v>
       </c>
       <c r="L51" s="2">
-        <v>0.57438888888888928</v>
+        <v>0.50918518518518563</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B52" s="1">
         <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
@@ -2506,7 +2506,7 @@
         <v>12</v>
       </c>
       <c r="F52">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G52" t="s">
         <v>16</v>
@@ -2515,16 +2515,16 @@
         <v>0.37</v>
       </c>
       <c r="I52">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="J52">
-        <v>18.246575342465754</v>
+        <v>36.493150684931507</v>
       </c>
       <c r="K52" s="2">
-        <v>131.13545205479451</v>
+        <v>150.14246575342469</v>
       </c>
       <c r="L52" s="2">
-        <v>0.63135777777777757</v>
+        <v>0.50838888888888922</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2544,25 +2544,25 @@
         <v>12</v>
       </c>
       <c r="F53">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G53" t="s">
         <v>16</v>
       </c>
       <c r="H53">
-        <v>0.46500000000000002</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="I53">
         <v>10.9</v>
       </c>
       <c r="J53">
-        <v>34.397260273972606</v>
+        <v>13.068493150684931</v>
       </c>
       <c r="K53" s="2">
-        <v>149.04656164383562</v>
+        <v>125.39295890410959</v>
       </c>
       <c r="L53" s="2">
-        <v>0.66303685185185179</v>
+        <v>0.51491277777777789</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2582,30 +2582,30 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G54" t="s">
         <v>16</v>
       </c>
       <c r="H54">
-        <v>0.51</v>
+        <v>0.36749999999999999</v>
       </c>
       <c r="I54">
         <v>10.9</v>
       </c>
       <c r="J54">
-        <v>50.301369863013704</v>
+        <v>27.184931506849313</v>
       </c>
       <c r="K54" s="2">
-        <v>166.6842191780822</v>
+        <v>141.04808904109589</v>
       </c>
       <c r="L54" s="2">
-        <v>0.67610388888888895</v>
+        <v>0.55490935185185186</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="1">
         <v>100</v>
@@ -2620,25 +2620,25 @@
         <v>12</v>
       </c>
       <c r="F55">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G55" t="s">
         <v>16</v>
       </c>
       <c r="H55">
-        <v>0.37</v>
+        <v>0.4375</v>
       </c>
       <c r="I55">
         <v>10.9</v>
       </c>
       <c r="J55">
-        <v>18.246575342465754</v>
+        <v>43.150684931506852</v>
       </c>
       <c r="K55" s="2">
-        <v>131.13545205479451</v>
+        <v>158.75410958904109</v>
       </c>
       <c r="L55" s="2">
-        <v>0.63135777777777757</v>
+        <v>0.59570138888888891</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2658,25 +2658,25 @@
         <v>12</v>
       </c>
       <c r="F56">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G56" t="s">
         <v>16</v>
       </c>
       <c r="H56">
-        <v>0.46500000000000002</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="I56">
         <v>10.9</v>
       </c>
       <c r="J56">
-        <v>34.397260273972606</v>
+        <v>13.068493150684931</v>
       </c>
       <c r="K56" s="2">
-        <v>149.04656164383562</v>
+        <v>125.39295890410959</v>
       </c>
       <c r="L56" s="2">
-        <v>0.66303685185185179</v>
+        <v>0.51491277777777789</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2696,63 +2696,63 @@
         <v>12</v>
       </c>
       <c r="F57">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
       </c>
       <c r="H57">
-        <v>0.51</v>
+        <v>0.36749999999999999</v>
       </c>
       <c r="I57">
         <v>10.9</v>
       </c>
       <c r="J57">
-        <v>50.301369863013704</v>
+        <v>27.184931506849313</v>
       </c>
       <c r="K57" s="2">
-        <v>166.6842191780822</v>
+        <v>141.04808904109589</v>
       </c>
       <c r="L57" s="2">
-        <v>0.67610388888888895</v>
+        <v>0.55490935185185186</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B58" s="1">
         <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F58">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G58" t="s">
         <v>16</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="I58">
-        <v>18.147631812115161</v>
+        <v>10.9</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>43.150684931506852</v>
       </c>
       <c r="K58" s="2">
-        <v>118.14763181211516</v>
+        <v>158.75410958904109</v>
       </c>
       <c r="L58" s="2">
-        <v>1.1039809352370056</v>
+        <v>0.59570138888888891</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
         <v>14</v>
       </c>
       <c r="F59">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G59" t="s">
         <v>16</v>
@@ -2781,16 +2781,16 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>25.734637028384011</v>
+        <v>18.147631812115161</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59" s="2">
-        <v>125.73463702838401</v>
+        <v>118.14763181211516</v>
       </c>
       <c r="L59" s="2">
-        <v>1.0436825017066849</v>
+        <v>1.1039809352370056</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2810,7 +2810,7 @@
         <v>14</v>
       </c>
       <c r="F60">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s">
         <v>16</v>
@@ -2819,16 +2819,16 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>33.344173594159535</v>
+        <v>25.734637028384011</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60" s="2">
-        <v>133.34417359415954</v>
+        <v>125.73463702838401</v>
       </c>
       <c r="L60" s="2">
-        <v>1.0142186134890192</v>
+        <v>1.0436825017066849</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
         <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
@@ -2848,7 +2848,7 @@
         <v>14</v>
       </c>
       <c r="F61">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G61" t="s">
         <v>16</v>
@@ -2857,16 +2857,16 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>17.39030612244898</v>
+        <v>33.344173594159535</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" s="2">
-        <v>117.39030612244899</v>
+        <v>133.34417359415954</v>
       </c>
       <c r="L61" s="2">
-        <v>1.0579102891156467</v>
+        <v>1.0142186134890192</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2886,7 +2886,7 @@
         <v>14</v>
       </c>
       <c r="F62">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G62" t="s">
         <v>16</v>
@@ -2895,16 +2895,16 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>26.192934316583777</v>
+        <v>17.39030612244898</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62" s="2">
-        <v>126.19293431658379</v>
+        <v>117.39030612244899</v>
       </c>
       <c r="L62" s="2">
-        <v>1.0622690028392312</v>
+        <v>1.0579102891156467</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2924,7 +2924,7 @@
         <v>14</v>
       </c>
       <c r="F63">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G63" t="s">
         <v>16</v>
@@ -2933,16 +2933,16 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>36.435992578849721</v>
+        <v>26.192934316583777</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" s="2">
-        <v>136.43599257884972</v>
+        <v>126.19293431658379</v>
       </c>
       <c r="L63" s="2">
-        <v>1.1082614409400127</v>
+        <v>1.0622690028392312</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2962,7 +2962,7 @@
         <v>14</v>
       </c>
       <c r="F64">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G64" t="s">
         <v>16</v>
@@ -2971,16 +2971,16 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>48.504546373004636</v>
+        <v>36.435992578849721</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64" s="2">
-        <v>148.50454637300464</v>
+        <v>136.43599257884972</v>
       </c>
       <c r="L64" s="2">
-        <v>1.1802772950764466</v>
+        <v>1.1082614409400127</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3000,7 +3000,7 @@
         <v>14</v>
       </c>
       <c r="F65">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>62.934338952972489</v>
+        <v>48.504546373004636</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65" s="2">
-        <v>162.9343389529725</v>
+        <v>148.50454637300464</v>
       </c>
       <c r="L65" s="2">
-        <v>1.27616853987972</v>
+        <v>1.1802772950764466</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3029,7 +3029,7 @@
         <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
@@ -3038,7 +3038,7 @@
         <v>14</v>
       </c>
       <c r="F66">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G66" t="s">
         <v>16</v>
@@ -3047,16 +3047,16 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>10</v>
+        <v>62.934338952972489</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>110.00000000000001</v>
+        <v>162.9343389529725</v>
       </c>
       <c r="L66" s="2">
-        <v>0.60833333333333384</v>
+        <v>1.27616853987972</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
         <v>14</v>
       </c>
       <c r="F67">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G67" t="s">
         <v>16</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>14.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" s="2">
-        <v>114.00000000000001</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L67" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3114,7 +3114,7 @@
         <v>14</v>
       </c>
       <c r="F68">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G68" t="s">
         <v>16</v>
@@ -3123,16 +3123,16 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>17</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" s="2">
-        <v>117</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L68" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3152,7 +3152,7 @@
         <v>14</v>
       </c>
       <c r="F69">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
@@ -3161,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L69" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3190,7 +3190,7 @@
         <v>14</v>
       </c>
       <c r="F70">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G70" t="s">
         <v>16</v>
@@ -3199,16 +3199,16 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L70" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3219,7 +3219,7 @@
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
@@ -3228,7 +3228,7 @@
         <v>14</v>
       </c>
       <c r="F71">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G71" t="s">
         <v>16</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" s="2">
-        <v>110.00000000000001</v>
+        <v>123</v>
       </c>
       <c r="L71" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3266,7 +3266,7 @@
         <v>14</v>
       </c>
       <c r="F72">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G72" t="s">
         <v>16</v>
@@ -3275,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>14.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" s="2">
-        <v>114.00000000000001</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L72" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3304,7 +3304,7 @@
         <v>14</v>
       </c>
       <c r="F73">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>17</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" s="2">
-        <v>117</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L73" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3342,7 +3342,7 @@
         <v>14</v>
       </c>
       <c r="F74">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G74" t="s">
         <v>16</v>
@@ -3351,16 +3351,16 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L74" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
         <v>14</v>
       </c>
       <c r="F75">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G75" t="s">
         <v>16</v>
@@ -3389,16 +3389,16 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L75" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3409,7 +3409,7 @@
         <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
@@ -3418,7 +3418,7 @@
         <v>14</v>
       </c>
       <c r="F76">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
@@ -3427,16 +3427,16 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" s="2">
-        <v>110.00000000000001</v>
+        <v>123</v>
       </c>
       <c r="L76" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3456,7 +3456,7 @@
         <v>14</v>
       </c>
       <c r="F77">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G77" t="s">
         <v>16</v>
@@ -3465,16 +3465,16 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>14.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" s="2">
-        <v>114.00000000000001</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L77" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3494,7 +3494,7 @@
         <v>14</v>
       </c>
       <c r="F78">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
@@ -3503,16 +3503,16 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>17</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" s="2">
-        <v>117</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L78" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3532,7 +3532,7 @@
         <v>14</v>
       </c>
       <c r="F79">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
@@ -3541,16 +3541,16 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L79" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3570,7 +3570,7 @@
         <v>14</v>
       </c>
       <c r="F80">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
@@ -3579,16 +3579,16 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L80" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3599,7 +3599,7 @@
         <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -3608,7 +3608,7 @@
         <v>14</v>
       </c>
       <c r="F81">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
@@ -3617,16 +3617,16 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" s="2">
-        <v>110.00000000000001</v>
+        <v>123</v>
       </c>
       <c r="L81" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3646,7 +3646,7 @@
         <v>14</v>
       </c>
       <c r="F82">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G82" t="s">
         <v>16</v>
@@ -3655,16 +3655,16 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>14.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82" s="2">
-        <v>114.00000000000001</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L82" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3684,7 +3684,7 @@
         <v>14</v>
       </c>
       <c r="F83">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G83" t="s">
         <v>16</v>
@@ -3693,16 +3693,16 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>17</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" s="2">
-        <v>117</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L83" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3722,7 +3722,7 @@
         <v>14</v>
       </c>
       <c r="F84">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G84" t="s">
         <v>16</v>
@@ -3731,16 +3731,16 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L84" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3760,7 +3760,7 @@
         <v>14</v>
       </c>
       <c r="F85">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
@@ -3769,16 +3769,16 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L85" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3789,7 +3789,7 @@
         <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
         <v>19</v>
@@ -3798,7 +3798,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G86" t="s">
         <v>16</v>
@@ -3807,16 +3807,16 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" s="2">
-        <v>110.00000000000001</v>
+        <v>123</v>
       </c>
       <c r="L86" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3836,7 +3836,7 @@
         <v>14</v>
       </c>
       <c r="F87">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G87" t="s">
         <v>16</v>
@@ -3845,16 +3845,16 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>14.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" s="2">
-        <v>114.00000000000001</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L87" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3874,7 +3874,7 @@
         <v>14</v>
       </c>
       <c r="F88">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G88" t="s">
         <v>16</v>
@@ -3883,16 +3883,16 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>17</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" s="2">
-        <v>117</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L88" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3912,7 +3912,7 @@
         <v>14</v>
       </c>
       <c r="F89">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G89" t="s">
         <v>16</v>
@@ -3921,16 +3921,16 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L89" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3950,7 +3950,7 @@
         <v>14</v>
       </c>
       <c r="F90">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
@@ -3959,16 +3959,16 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L90" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3979,7 +3979,7 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
@@ -3988,7 +3988,7 @@
         <v>14</v>
       </c>
       <c r="F91">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G91" t="s">
         <v>16</v>
@@ -3997,16 +3997,16 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91" s="2">
-        <v>110.00000000000001</v>
+        <v>123</v>
       </c>
       <c r="L91" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4026,7 +4026,7 @@
         <v>14</v>
       </c>
       <c r="F92">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G92" t="s">
         <v>16</v>
@@ -4035,16 +4035,16 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>14.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92" s="2">
-        <v>114.00000000000001</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L92" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4064,7 +4064,7 @@
         <v>14</v>
       </c>
       <c r="F93">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
@@ -4073,16 +4073,16 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>17</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" s="2">
-        <v>117</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L93" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4102,7 +4102,7 @@
         <v>14</v>
       </c>
       <c r="F94">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G94" t="s">
         <v>16</v>
@@ -4111,16 +4111,16 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L94" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4140,7 +4140,7 @@
         <v>14</v>
       </c>
       <c r="F95">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G95" t="s">
         <v>16</v>
@@ -4149,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L95" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4169,7 +4169,7 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s">
         <v>19</v>
@@ -4178,7 +4178,7 @@
         <v>14</v>
       </c>
       <c r="F96">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G96" t="s">
         <v>16</v>
@@ -4187,16 +4187,16 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96" s="2">
-        <v>110.00000000000001</v>
+        <v>123</v>
       </c>
       <c r="L96" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
         <v>14</v>
       </c>
       <c r="F97">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G97" t="s">
         <v>16</v>
@@ -4225,16 +4225,16 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>14.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97" s="2">
-        <v>114.00000000000001</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L97" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4254,7 +4254,7 @@
         <v>14</v>
       </c>
       <c r="F98">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G98" t="s">
         <v>16</v>
@@ -4263,16 +4263,16 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>17</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" s="2">
-        <v>117</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L98" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4292,7 +4292,7 @@
         <v>14</v>
       </c>
       <c r="F99">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G99" t="s">
         <v>16</v>
@@ -4301,16 +4301,16 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L99" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.51708333333333312</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4330,7 +4330,7 @@
         <v>14</v>
       </c>
       <c r="F100">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G100" t="s">
         <v>16</v>
@@ -4339,16 +4339,16 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L100" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4359,34 +4359,34 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
         <v>19</v>
       </c>
       <c r="E101" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F101">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G101" t="s">
         <v>16</v>
       </c>
       <c r="H101">
-        <v>0.5386453703703723</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J101">
-        <v>8.854444444444475</v>
+        <v>0</v>
       </c>
       <c r="K101" s="2">
-        <v>111.03153333333337</v>
+        <v>123</v>
       </c>
       <c r="L101" s="2">
-        <v>0.671084944444447</v>
+        <v>0.46638888888888885</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4406,25 +4406,25 @@
         <v>27</v>
       </c>
       <c r="F102">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G102" t="s">
         <v>16</v>
       </c>
       <c r="H102">
-        <v>0.55039852057613325</v>
+        <v>0.49640000000000073</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102">
-        <v>13.57147037037041</v>
+        <v>8.1600000000000108</v>
       </c>
       <c r="K102" s="2">
-        <v>115.84289977777782</v>
+        <v>110.32320000000001</v>
       </c>
       <c r="L102" s="2">
-        <v>0.64251760209876707</v>
+        <v>0.62799466666666792</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4444,25 +4444,25 @@
         <v>27</v>
       </c>
       <c r="F103">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G103" t="s">
         <v>16</v>
       </c>
       <c r="H103">
-        <v>0.58774710664560736</v>
+        <v>0.50639288888888923</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103">
-        <v>28.984788820879263</v>
+        <v>12.486400000000009</v>
       </c>
       <c r="K103" s="2">
-        <v>131.56448459729685</v>
+        <v>114.73612800000001</v>
       </c>
       <c r="L103" s="2">
-        <v>0.64005760433407521</v>
+        <v>0.59763185777777839</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4482,25 +4482,25 @@
         <v>27</v>
       </c>
       <c r="F104">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G104" t="s">
         <v>16</v>
       </c>
       <c r="H104">
-        <v>0.70080042377797513</v>
+        <v>0.53800800972800078</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104">
-        <v>51.840031347959801</v>
+        <v>26.531901849600036</v>
       </c>
       <c r="K104" s="2">
-        <v>154.87683197491899</v>
+        <v>129.06253988659205</v>
       </c>
       <c r="L104" s="2">
-        <v>0.7418534692905715</v>
+        <v>0.5893237254781164</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4520,25 +4520,25 @@
         <v>27</v>
       </c>
       <c r="F105">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G105" t="s">
         <v>16</v>
       </c>
       <c r="H105">
-        <v>0.75556293730424851</v>
+        <v>0.64275600225670138</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105">
-        <v>74.521276008090268</v>
+        <v>47.546334413509413</v>
       </c>
       <c r="K105" s="2">
-        <v>178.01170152825208</v>
+        <v>150.4972611017796</v>
       </c>
       <c r="L105" s="2">
-        <v>0.79095197382811133</v>
+        <v>0.68264815933887224</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4549,7 +4549,7 @@
         <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
@@ -4558,25 +4558,25 @@
         <v>27</v>
       </c>
       <c r="F106">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G106" t="s">
         <v>16</v>
       </c>
       <c r="H106">
-        <v>0.59</v>
+        <v>0.68916450081321989</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106">
-        <v>9.6986301369863011</v>
+        <v>67.972389121303877</v>
       </c>
       <c r="K106" s="2">
-        <v>111.89260273972603</v>
+        <v>171.33183690372996</v>
       </c>
       <c r="L106" s="2">
-        <v>0.72346666666666692</v>
+        <v>0.72322556860726217</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4596,7 +4596,7 @@
         <v>27</v>
       </c>
       <c r="F107">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G107" t="s">
         <v>16</v>
@@ -4608,13 +4608,13 @@
         <v>2</v>
       </c>
       <c r="J107">
-        <v>14.547945205479451</v>
+        <v>9.6986301369863011</v>
       </c>
       <c r="K107" s="2">
-        <v>116.83890410958902</v>
+        <v>111.89260273972603</v>
       </c>
       <c r="L107" s="2">
-        <v>0.68291111111111003</v>
+        <v>0.72346666666666692</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4634,7 +4634,7 @@
         <v>27</v>
       </c>
       <c r="F108">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G108" t="s">
         <v>16</v>
@@ -4646,13 +4646,13 @@
         <v>2</v>
       </c>
       <c r="J108">
-        <v>29.095890410958901</v>
+        <v>14.547945205479451</v>
       </c>
       <c r="K108" s="2">
-        <v>131.67780821917808</v>
+        <v>116.83890410958902</v>
       </c>
       <c r="L108" s="2">
-        <v>0.64235555555555535</v>
+        <v>0.68291111111111003</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4672,7 +4672,7 @@
         <v>27</v>
       </c>
       <c r="F109">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G109" t="s">
         <v>16</v>
@@ -4684,13 +4684,13 @@
         <v>2</v>
       </c>
       <c r="J109">
-        <v>43.643835616438359</v>
+        <v>29.095890410958901</v>
       </c>
       <c r="K109" s="2">
-        <v>146.51671232876714</v>
+        <v>131.67780821917808</v>
       </c>
       <c r="L109" s="2">
-        <v>0.62883703703703742</v>
+        <v>0.64235555555555535</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -4710,7 +4710,7 @@
         <v>27</v>
       </c>
       <c r="F110">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G110" t="s">
         <v>16</v>
@@ -4722,13 +4722,13 @@
         <v>2</v>
       </c>
       <c r="J110">
-        <v>58.191780821917803</v>
+        <v>43.643835616438359</v>
       </c>
       <c r="K110" s="2">
-        <v>161.35561643835615</v>
+        <v>146.51671232876714</v>
       </c>
       <c r="L110" s="2">
-        <v>0.62207777777777751</v>
+        <v>0.62883703703703742</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4739,7 +4739,7 @@
         <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
         <v>19</v>
@@ -4748,25 +4748,25 @@
         <v>27</v>
       </c>
       <c r="F111">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G111" t="s">
         <v>16</v>
       </c>
       <c r="H111">
-        <v>0.42</v>
+        <v>0.59</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111">
-        <v>6.9041095890410951</v>
+        <v>58.191780821917803</v>
       </c>
       <c r="K111" s="2">
-        <v>109.04219178082191</v>
+        <v>161.35561643835615</v>
       </c>
       <c r="L111" s="2">
-        <v>0.55006666666666593</v>
+        <v>0.62207777777777751</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -4786,25 +4786,25 @@
         <v>27</v>
       </c>
       <c r="F112">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G112" t="s">
         <v>16</v>
       </c>
       <c r="H112">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>10.356164383561643</v>
+        <v>6.5753424657534252</v>
       </c>
       <c r="K112" s="2">
-        <v>112.56328767123287</v>
+        <v>108.70684931506848</v>
       </c>
       <c r="L112" s="2">
-        <v>0.50951111111111091</v>
+        <v>0.52966666666666629</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4824,25 +4824,25 @@
         <v>27</v>
       </c>
       <c r="F113">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G113" t="s">
         <v>16</v>
       </c>
       <c r="H113">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>20.712328767123285</v>
+        <v>9.8630136986301373</v>
       </c>
       <c r="K113" s="2">
-        <v>123.12657534246574</v>
+        <v>112.06027397260274</v>
       </c>
       <c r="L113" s="2">
-        <v>0.46895555555555524</v>
+        <v>0.48911111111111116</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -4862,25 +4862,25 @@
         <v>27</v>
       </c>
       <c r="F114">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G114" t="s">
         <v>16</v>
       </c>
       <c r="H114">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114">
-        <v>31.06849315068493</v>
+        <v>19.726027397260275</v>
       </c>
       <c r="K114" s="2">
-        <v>133.68986301369861</v>
+        <v>122.12054794520549</v>
       </c>
       <c r="L114" s="2">
-        <v>0.45543703703703675</v>
+        <v>0.44855555555555565</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4900,25 +4900,25 @@
         <v>27</v>
       </c>
       <c r="F115">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G115" t="s">
         <v>16</v>
       </c>
       <c r="H115">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115">
-        <v>41.42465753424657</v>
+        <v>29.589041095890416</v>
       </c>
       <c r="K115" s="2">
-        <v>144.25315068493151</v>
+        <v>132.18082191780823</v>
       </c>
       <c r="L115" s="2">
-        <v>0.4486777777777779</v>
+        <v>0.43503703703703706</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -4929,7 +4929,7 @@
         <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D116" t="s">
         <v>19</v>
@@ -4938,25 +4938,25 @@
         <v>27</v>
       </c>
       <c r="F116">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G116" t="s">
         <v>16</v>
       </c>
       <c r="H116">
-        <v>0.69</v>
+        <v>0.4</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>11.342465753424657</v>
+        <v>39.452054794520549</v>
       </c>
       <c r="K116" s="2">
-        <v>113.56931506849315</v>
+        <v>142.24109589041095</v>
       </c>
       <c r="L116" s="2">
-        <v>0.82546666666666657</v>
+        <v>0.42827777777777759</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -4976,7 +4976,7 @@
         <v>27</v>
       </c>
       <c r="F117">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G117" t="s">
         <v>16</v>
@@ -4988,13 +4988,13 @@
         <v>2</v>
       </c>
       <c r="J117">
-        <v>17.013698630136986</v>
+        <v>11.342465753424657</v>
       </c>
       <c r="K117" s="2">
-        <v>119.35397260273972</v>
+        <v>113.56931506849315</v>
       </c>
       <c r="L117" s="2">
-        <v>0.784911111111111</v>
+        <v>0.82546666666666657</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -5014,7 +5014,7 @@
         <v>27</v>
       </c>
       <c r="F118">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G118" t="s">
         <v>16</v>
@@ -5026,13 +5026,13 @@
         <v>2</v>
       </c>
       <c r="J118">
-        <v>34.027397260273972</v>
+        <v>17.013698630136986</v>
       </c>
       <c r="K118" s="2">
-        <v>136.70794520547946</v>
+        <v>119.35397260273972</v>
       </c>
       <c r="L118" s="2">
-        <v>0.74435555555555588</v>
+        <v>0.784911111111111</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5052,7 +5052,7 @@
         <v>27</v>
       </c>
       <c r="F119">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G119" t="s">
         <v>16</v>
@@ -5064,13 +5064,13 @@
         <v>2</v>
       </c>
       <c r="J119">
-        <v>51.041095890410958</v>
+        <v>34.027397260273972</v>
       </c>
       <c r="K119" s="2">
-        <v>154.06191780821919</v>
+        <v>136.70794520547946</v>
       </c>
       <c r="L119" s="2">
-        <v>0.73083703703703706</v>
+        <v>0.74435555555555588</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5090,7 +5090,7 @@
         <v>27</v>
       </c>
       <c r="F120">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G120" t="s">
         <v>16</v>
@@ -5102,12 +5102,50 @@
         <v>2</v>
       </c>
       <c r="J120">
+        <v>51.041095890410958</v>
+      </c>
+      <c r="K120" s="2">
+        <v>154.06191780821919</v>
+      </c>
+      <c r="L120" s="2">
+        <v>0.73083703703703706</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121">
+        <v>100</v>
+      </c>
+      <c r="C121" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121">
+        <v>360</v>
+      </c>
+      <c r="G121" t="s">
+        <v>16</v>
+      </c>
+      <c r="H121">
+        <v>0.69</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
         <v>68.054794520547944</v>
       </c>
-      <c r="K120" s="2">
+      <c r="K121">
         <v>171.41589041095889</v>
       </c>
-      <c r="L120" s="2">
+      <c r="L121">
         <v>0.72407777777777782</v>
       </c>
     </row>

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438E609A-9FEF-4D91-BE23-D72D7FE7B4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131D76B2-503E-4A03-86EB-6599E5C01D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -541,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F38534-621C-456A-88D0-E73BF73C904A}">
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:L121"/>
     </sheetView>
   </sheetViews>
@@ -5115,7 +5115,7 @@
       <c r="A121" t="s">
         <v>33</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
         <v>100</v>
       </c>
       <c r="C121" t="s">
@@ -5142,10 +5142,10 @@
       <c r="J121">
         <v>68.054794520547944</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="2">
         <v>171.41589041095889</v>
       </c>
-      <c r="L121">
+      <c r="L121" s="2">
         <v>0.72407777777777782</v>
       </c>
     </row>

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131D76B2-503E-4A03-86EB-6599E5C01D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6162B9-3B1C-4E92-9B47-5646C85E2967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -541,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F38534-621C-456A-88D0-E73BF73C904A}">
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:L121"/>
     </sheetView>
   </sheetViews>
@@ -1486,19 +1486,19 @@
         <v>16</v>
       </c>
       <c r="H25">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="I25">
         <v>6.5</v>
       </c>
       <c r="J25">
-        <v>20.219178082191782</v>
+        <v>17.260273972602739</v>
       </c>
       <c r="K25" s="2">
-        <v>128.03342465753425</v>
+        <v>124.88219178082193</v>
       </c>
       <c r="L25" s="2">
-        <v>0.56845555555555549</v>
+        <v>0.50455555555555553</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1524,19 +1524,19 @@
         <v>16</v>
       </c>
       <c r="H26">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="I26">
         <v>7.5</v>
       </c>
       <c r="J26">
-        <v>31.808219178082194</v>
+        <v>28.109589041095891</v>
       </c>
       <c r="K26" s="2">
-        <v>141.69383561643835</v>
+        <v>137.71780821917807</v>
       </c>
       <c r="L26" s="2">
-        <v>0.56363888888888891</v>
+        <v>0.50988888888888884</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1562,19 +1562,19 @@
         <v>16</v>
       </c>
       <c r="H27">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="I27">
         <v>10</v>
       </c>
       <c r="J27">
-        <v>41.42465753424657</v>
+        <v>37.479452054794521</v>
       </c>
       <c r="K27" s="2">
-        <v>155.56712328767125</v>
+        <v>151.22739726027399</v>
       </c>
       <c r="L27" s="2">
-        <v>0.56338888888888916</v>
+        <v>0.51938888888888901</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1600,19 +1600,19 @@
         <v>16</v>
       </c>
       <c r="H28">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="I28">
         <v>6.5</v>
       </c>
       <c r="J28">
-        <v>21.698630136986303</v>
+        <v>17.753424657534246</v>
       </c>
       <c r="K28" s="2">
-        <v>129.6090410958904</v>
+        <v>125.40739726027397</v>
       </c>
       <c r="L28" s="2">
-        <v>0.6004055555555553</v>
+        <v>0.51520555555555536</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1638,19 +1638,19 @@
         <v>16</v>
       </c>
       <c r="H29">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="I29">
         <v>7.5</v>
       </c>
       <c r="J29">
-        <v>34.027397260273972</v>
+        <v>28.849315068493155</v>
       </c>
       <c r="K29" s="2">
-        <v>144.07945205479453</v>
+        <v>138.51301369863015</v>
       </c>
       <c r="L29" s="2">
-        <v>0.59588888888888902</v>
+        <v>0.52063888888888887</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1676,19 +1676,19 @@
         <v>16</v>
       </c>
       <c r="H30">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="I30">
         <v>10</v>
       </c>
       <c r="J30">
-        <v>44.38356164383562</v>
+        <v>38.465753424657535</v>
       </c>
       <c r="K30" s="2">
-        <v>158.82191780821918</v>
+        <v>152.31232876712329</v>
       </c>
       <c r="L30" s="2">
-        <v>0.59638888888888908</v>
+        <v>0.53038888888888891</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2208,19 +2208,19 @@
         <v>16</v>
       </c>
       <c r="H44">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
       <c r="I44">
         <v>0.5</v>
       </c>
       <c r="J44">
-        <v>25.150684931506852</v>
+        <v>21.698630136986303</v>
       </c>
       <c r="K44" s="2">
-        <v>125.77643835616436</v>
+        <v>122.30712328767122</v>
       </c>
       <c r="L44" s="2">
-        <v>0.52268888888888854</v>
+        <v>0.45233888888888857</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2246,19 +2246,19 @@
         <v>16</v>
       </c>
       <c r="H45">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
       <c r="I45">
         <v>0.5</v>
       </c>
       <c r="J45">
-        <v>37.726027397260275</v>
+        <v>32.547945205479458</v>
       </c>
       <c r="K45" s="2">
-        <v>138.41465753424654</v>
+        <v>133.21068493150685</v>
       </c>
       <c r="L45" s="2">
-        <v>0.51930925925925897</v>
+        <v>0.44895925925925922</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2284,19 +2284,19 @@
         <v>16</v>
       </c>
       <c r="H46">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
       <c r="I46">
         <v>0.5</v>
       </c>
       <c r="J46">
-        <v>50.301369863013704</v>
+        <v>43.397260273972606</v>
       </c>
       <c r="K46" s="2">
-        <v>151.05287671232875</v>
+        <v>144.11424657534243</v>
       </c>
       <c r="L46" s="2">
-        <v>0.51761944444444419</v>
+        <v>0.44726944444444422</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2398,19 +2398,19 @@
         <v>16</v>
       </c>
       <c r="H49">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="I49">
         <v>5</v>
       </c>
       <c r="J49">
-        <v>44.38356164383562</v>
+        <v>37.479452054794521</v>
       </c>
       <c r="K49" s="2">
-        <v>151.60273972602738</v>
+        <v>144.35342465753425</v>
       </c>
       <c r="L49" s="2">
-        <v>0.5231944444444443</v>
+        <v>0.44969444444444445</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2436,19 +2436,19 @@
         <v>16</v>
       </c>
       <c r="H50">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="I50">
         <v>10</v>
       </c>
       <c r="J50">
-        <v>13.315068493150687</v>
+        <v>10.356164383561643</v>
       </c>
       <c r="K50" s="2">
-        <v>124.64657534246578</v>
+        <v>121.39178082191782</v>
       </c>
       <c r="L50" s="2">
-        <v>0.4997777777777781</v>
+        <v>0.43377777777777793</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2474,19 +2474,19 @@
         <v>16</v>
       </c>
       <c r="H51">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="I51">
         <v>10</v>
       </c>
       <c r="J51">
-        <v>25.150684931506852</v>
+        <v>19.972602739726032</v>
       </c>
       <c r="K51" s="2">
-        <v>137.66575342465757</v>
+        <v>131.96986301369864</v>
       </c>
       <c r="L51" s="2">
-        <v>0.50918518518518563</v>
+        <v>0.43218518518518528</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2512,19 +2512,19 @@
         <v>16</v>
       </c>
       <c r="H52">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="I52">
         <v>10</v>
       </c>
       <c r="J52">
-        <v>36.493150684931507</v>
+        <v>30.575342465753426</v>
       </c>
       <c r="K52" s="2">
-        <v>150.14246575342469</v>
+        <v>143.63287671232877</v>
       </c>
       <c r="L52" s="2">
-        <v>0.50838888888888922</v>
+        <v>0.44238888888888889</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -4602,19 +4602,19 @@
         <v>16</v>
       </c>
       <c r="H107">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107">
-        <v>9.6986301369863011</v>
+        <v>8.5479452054794507</v>
       </c>
       <c r="K107" s="2">
-        <v>111.89260273972603</v>
+        <v>110.71890410958905</v>
       </c>
       <c r="L107" s="2">
-        <v>0.72346666666666692</v>
+        <v>0.65206666666666691</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4640,19 +4640,19 @@
         <v>16</v>
       </c>
       <c r="H108">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108">
-        <v>14.547945205479451</v>
+        <v>12.821917808219178</v>
       </c>
       <c r="K108" s="2">
-        <v>116.83890410958902</v>
+        <v>115.07835616438356</v>
       </c>
       <c r="L108" s="2">
-        <v>0.68291111111111003</v>
+        <v>0.61151111111111078</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4678,19 +4678,19 @@
         <v>16</v>
       </c>
       <c r="H109">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109">
-        <v>29.095890410958901</v>
+        <v>25.643835616438356</v>
       </c>
       <c r="K109" s="2">
-        <v>131.67780821917808</v>
+        <v>128.15671232876713</v>
       </c>
       <c r="L109" s="2">
-        <v>0.64235555555555535</v>
+        <v>0.57095555555555566</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -4716,19 +4716,19 @@
         <v>16</v>
       </c>
       <c r="H110">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110">
-        <v>43.643835616438359</v>
+        <v>38.465753424657535</v>
       </c>
       <c r="K110" s="2">
-        <v>146.51671232876714</v>
+        <v>141.23506849315066</v>
       </c>
       <c r="L110" s="2">
-        <v>0.62883703703703742</v>
+        <v>0.55743703703703673</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4754,19 +4754,19 @@
         <v>16</v>
       </c>
       <c r="H111">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111">
-        <v>58.191780821917803</v>
+        <v>51.287671232876711</v>
       </c>
       <c r="K111" s="2">
-        <v>161.35561643835615</v>
+        <v>154.31342465753423</v>
       </c>
       <c r="L111" s="2">
-        <v>0.62207777777777751</v>
+        <v>0.55067777777777771</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6162B9-3B1C-4E92-9B47-5646C85E2967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F41063F-EFEC-4C2B-839A-4DBF81FCFED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -1714,19 +1714,19 @@
         <v>16</v>
       </c>
       <c r="H31">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="I31">
         <v>14.899999999999999</v>
       </c>
       <c r="J31">
-        <v>21.698630136986303</v>
+        <v>15.287671232876713</v>
       </c>
       <c r="K31" s="2">
-        <v>139.83172602739725</v>
+        <v>132.46553424657534</v>
       </c>
       <c r="L31" s="2">
-        <v>0.80769888888888886</v>
+        <v>0.65832888888888896</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1752,19 +1752,19 @@
         <v>16</v>
       </c>
       <c r="H32">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="I32">
         <v>14.899999999999999</v>
       </c>
       <c r="J32">
-        <v>36.986301369863014</v>
+        <v>30.328767123287669</v>
       </c>
       <c r="K32" s="2">
-        <v>157.39726027397259</v>
+        <v>149.74775342465753</v>
       </c>
       <c r="L32" s="2">
-        <v>0.77592592592592569</v>
+        <v>0.67251592592592602</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1790,19 +1790,19 @@
         <v>16</v>
       </c>
       <c r="H33">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="I33">
         <v>14.899999999999999</v>
       </c>
       <c r="J33">
-        <v>53.260273972602747</v>
+        <v>49.31506849315069</v>
       </c>
       <c r="K33" s="2">
-        <v>176.09605479452054</v>
+        <v>171.56301369863013</v>
       </c>
       <c r="L33" s="2">
-        <v>0.77152944444444438</v>
+        <v>0.72556944444444449</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1828,19 +1828,19 @@
         <v>16</v>
       </c>
       <c r="H34">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="I34">
         <v>14.899999999999999</v>
       </c>
       <c r="J34">
-        <v>23.17808219178082</v>
+        <v>16.273972602739725</v>
       </c>
       <c r="K34" s="2">
-        <v>141.53161643835617</v>
+        <v>133.59879452054795</v>
       </c>
       <c r="L34" s="2">
-        <v>0.84216888888888897</v>
+        <v>0.68130888888888896</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1866,19 +1866,19 @@
         <v>16</v>
       </c>
       <c r="H35">
-        <v>0.54</v>
+        <v>0.44</v>
       </c>
       <c r="I35">
         <v>14.899999999999999</v>
       </c>
       <c r="J35">
-        <v>39.945205479452063</v>
+        <v>32.547945205479458</v>
       </c>
       <c r="K35" s="2">
-        <v>160.79704109589042</v>
+        <v>152.2975890410959</v>
       </c>
       <c r="L35" s="2">
-        <v>0.82188592592592591</v>
+        <v>0.70698592592592602</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1904,19 +1904,19 @@
         <v>16</v>
       </c>
       <c r="H36">
-        <v>0.57999999999999996</v>
+        <v>0.53</v>
       </c>
       <c r="I36">
         <v>14.899999999999999</v>
       </c>
       <c r="J36">
-        <v>57.205479452054789</v>
+        <v>52.273972602739725</v>
       </c>
       <c r="K36" s="2">
-        <v>180.62909589041095</v>
+        <v>174.96279452054796</v>
       </c>
       <c r="L36" s="2">
-        <v>0.81748944444444449</v>
+        <v>0.76003944444444449</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2208,19 +2208,19 @@
         <v>16</v>
       </c>
       <c r="H44">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="I44">
         <v>0.5</v>
       </c>
       <c r="J44">
-        <v>21.698630136986303</v>
+        <v>20.712328767123285</v>
       </c>
       <c r="K44" s="2">
-        <v>122.30712328767122</v>
+        <v>121.31589041095887</v>
       </c>
       <c r="L44" s="2">
-        <v>0.45233888888888857</v>
+        <v>0.43223888888888823</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2246,19 +2246,19 @@
         <v>16</v>
       </c>
       <c r="H45">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="I45">
         <v>0.5</v>
       </c>
       <c r="J45">
-        <v>32.547945205479458</v>
+        <v>31.06849315068493</v>
       </c>
       <c r="K45" s="2">
-        <v>133.21068493150685</v>
+        <v>131.72383561643832</v>
       </c>
       <c r="L45" s="2">
-        <v>0.44895925925925922</v>
+        <v>0.42885925925925877</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2284,19 +2284,19 @@
         <v>16</v>
       </c>
       <c r="H46">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="I46">
         <v>0.5</v>
       </c>
       <c r="J46">
-        <v>43.397260273972606</v>
+        <v>41.42465753424657</v>
       </c>
       <c r="K46" s="2">
-        <v>144.11424657534243</v>
+        <v>142.1317808219178</v>
       </c>
       <c r="L46" s="2">
-        <v>0.44726944444444422</v>
+        <v>0.42716944444444427</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2322,19 +2322,19 @@
         <v>16</v>
       </c>
       <c r="H47">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="I47">
         <v>5</v>
       </c>
       <c r="J47">
-        <v>16.273972602739725</v>
+        <v>15.287671232876713</v>
       </c>
       <c r="K47" s="2">
-        <v>122.08767123287672</v>
+        <v>121.05205479452054</v>
       </c>
       <c r="L47" s="2">
-        <v>0.447888888888889</v>
+        <v>0.42688888888888887</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2360,19 +2360,19 @@
         <v>16</v>
       </c>
       <c r="H48">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="I48">
         <v>5</v>
       </c>
       <c r="J48">
-        <v>26.630136986301366</v>
+        <v>25.150684931506852</v>
       </c>
       <c r="K48" s="2">
-        <v>132.96164383561643</v>
+        <v>131.40821917808219</v>
       </c>
       <c r="L48" s="2">
-        <v>0.4455925925925926</v>
+        <v>0.42459259259259252</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2398,19 +2398,19 @@
         <v>16</v>
       </c>
       <c r="H49">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="I49">
         <v>5</v>
       </c>
       <c r="J49">
-        <v>37.479452054794521</v>
+        <v>35.506849315068493</v>
       </c>
       <c r="K49" s="2">
-        <v>144.35342465753425</v>
+        <v>142.2821917808219</v>
       </c>
       <c r="L49" s="2">
-        <v>0.44969444444444445</v>
+        <v>0.42869444444444438</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2436,19 +2436,19 @@
         <v>16</v>
       </c>
       <c r="H50">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I50">
         <v>10</v>
       </c>
       <c r="J50">
-        <v>10.356164383561643</v>
+        <v>9.3698630136986303</v>
       </c>
       <c r="K50" s="2">
-        <v>121.39178082191782</v>
+        <v>120.3068493150685</v>
       </c>
       <c r="L50" s="2">
-        <v>0.43377777777777793</v>
+        <v>0.41177777777777791</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2474,19 +2474,19 @@
         <v>16</v>
       </c>
       <c r="H51">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="I51">
         <v>10</v>
       </c>
       <c r="J51">
-        <v>19.972602739726032</v>
+        <v>19.232876712328768</v>
       </c>
       <c r="K51" s="2">
-        <v>131.96986301369864</v>
+        <v>131.15616438356165</v>
       </c>
       <c r="L51" s="2">
-        <v>0.43218518518518528</v>
+        <v>0.42118518518518511</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2512,19 +2512,19 @@
         <v>16</v>
       </c>
       <c r="H52">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I52">
         <v>10</v>
       </c>
       <c r="J52">
-        <v>30.575342465753426</v>
+        <v>28.602739726027394</v>
       </c>
       <c r="K52" s="2">
-        <v>143.63287671232877</v>
+        <v>141.46301369863014</v>
       </c>
       <c r="L52" s="2">
-        <v>0.44238888888888889</v>
+        <v>0.4203888888888887</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2781,16 +2781,16 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>18.147631812115161</v>
+        <v>15</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59" s="2">
-        <v>118.14763181211516</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="L59" s="2">
-        <v>1.1039809352370056</v>
+        <v>0.91249999999999942</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2819,16 +2819,16 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>25.734637028384011</v>
+        <v>21</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60" s="2">
-        <v>125.73463702838401</v>
+        <v>121</v>
       </c>
       <c r="L60" s="2">
-        <v>1.0436825017066849</v>
+        <v>0.85166666666666657</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2857,16 +2857,16 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>33.344173594159535</v>
+        <v>26</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" s="2">
-        <v>133.34417359415954</v>
+        <v>126</v>
       </c>
       <c r="L61" s="2">
-        <v>1.0142186134890192</v>
+        <v>0.79083333333333328</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" s="2">
-        <v>110.00000000000001</v>
+        <v>108</v>
       </c>
       <c r="L67" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3123,16 +3123,16 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>14.000000000000002</v>
+        <v>12</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" s="2">
-        <v>114.00000000000001</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L68" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3161,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" s="2">
-        <v>117</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="L69" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.45624999999999971</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3199,16 +3199,16 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L70" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.43799999999999989</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L71" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.42583333333333329</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3275,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" s="2">
-        <v>110.00000000000001</v>
+        <v>108</v>
       </c>
       <c r="L72" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>14.000000000000002</v>
+        <v>12</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" s="2">
-        <v>114.00000000000001</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L73" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3351,16 +3351,16 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74" s="2">
-        <v>117</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="L74" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.45624999999999971</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3389,16 +3389,16 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L75" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.43799999999999989</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3427,16 +3427,16 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L76" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.42583333333333329</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3465,16 +3465,16 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" s="2">
-        <v>110.00000000000001</v>
+        <v>108</v>
       </c>
       <c r="L77" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3503,16 +3503,16 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>14.000000000000002</v>
+        <v>12</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" s="2">
-        <v>114.00000000000001</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L78" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3541,16 +3541,16 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79" s="2">
-        <v>117</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="L79" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.45624999999999971</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3579,16 +3579,16 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L80" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.43799999999999989</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3617,16 +3617,16 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L81" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.42583333333333329</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3655,16 +3655,16 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82" s="2">
-        <v>110.00000000000001</v>
+        <v>108</v>
       </c>
       <c r="L82" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3693,16 +3693,16 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>14.000000000000002</v>
+        <v>12</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" s="2">
-        <v>114.00000000000001</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L83" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3731,16 +3731,16 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84" s="2">
-        <v>117</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="L84" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.45624999999999971</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3769,16 +3769,16 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L85" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.43799999999999989</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3807,16 +3807,16 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L86" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.42583333333333329</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3845,16 +3845,16 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" s="2">
-        <v>110.00000000000001</v>
+        <v>108</v>
       </c>
       <c r="L87" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3883,16 +3883,16 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>14.000000000000002</v>
+        <v>12</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" s="2">
-        <v>114.00000000000001</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L88" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3921,16 +3921,16 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89" s="2">
-        <v>117</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="L89" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.45624999999999971</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3959,16 +3959,16 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L90" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.43799999999999989</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3997,16 +3997,16 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L91" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.42583333333333329</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4035,16 +4035,16 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92" s="2">
-        <v>110.00000000000001</v>
+        <v>108</v>
       </c>
       <c r="L92" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4073,16 +4073,16 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>14.000000000000002</v>
+        <v>12</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" s="2">
-        <v>114.00000000000001</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L93" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4111,16 +4111,16 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94" s="2">
-        <v>117</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="L94" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.45624999999999971</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4149,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L95" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.43799999999999989</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4187,16 +4187,16 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L96" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.42583333333333329</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4225,16 +4225,16 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97" s="2">
-        <v>110.00000000000001</v>
+        <v>108</v>
       </c>
       <c r="L97" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4263,16 +4263,16 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>14.000000000000002</v>
+        <v>12</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" s="2">
-        <v>114.00000000000001</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L98" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4301,16 +4301,16 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" s="2">
-        <v>117</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="L99" s="2">
-        <v>0.51708333333333312</v>
+        <v>0.45624999999999971</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4339,16 +4339,16 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L100" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.43799999999999989</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4377,16 +4377,16 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L101" s="2">
-        <v>0.46638888888888885</v>
+        <v>0.42583333333333329</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4412,19 +4412,19 @@
         <v>16</v>
       </c>
       <c r="H102">
-        <v>0.49640000000000073</v>
+        <v>0.45428981481481384</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102">
-        <v>8.1600000000000108</v>
+        <v>7.4677777777777621</v>
       </c>
       <c r="K102" s="2">
-        <v>110.32320000000001</v>
+        <v>109.61713333333331</v>
       </c>
       <c r="L102" s="2">
-        <v>0.62799466666666792</v>
+        <v>0.58504227777777673</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4450,19 +4450,19 @@
         <v>16</v>
       </c>
       <c r="H103">
-        <v>0.50639288888888923</v>
+        <v>0.46266844238683014</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103">
-        <v>12.486400000000009</v>
+        <v>11.408262962962933</v>
       </c>
       <c r="K103" s="2">
-        <v>114.73612800000001</v>
+        <v>113.63642822222219</v>
       </c>
       <c r="L103" s="2">
-        <v>0.59763185777777839</v>
+        <v>0.55303292234567791</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4488,19 +4488,19 @@
         <v>16</v>
       </c>
       <c r="H104">
-        <v>0.53800800972800078</v>
+        <v>0.48905965866389761</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104">
-        <v>26.531901849600036</v>
+        <v>24.118010564247005</v>
       </c>
       <c r="K104" s="2">
-        <v>129.06253988659205</v>
+        <v>126.60037077553194</v>
       </c>
       <c r="L104" s="2">
-        <v>0.5893237254781164</v>
+        <v>0.53939640739273109</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4526,19 +4526,19 @@
         <v>16</v>
       </c>
       <c r="H105">
-        <v>0.64275600225670138</v>
+        <v>0.58617518394238066</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105">
-        <v>47.546334413509413</v>
+        <v>43.360904017655557</v>
       </c>
       <c r="K105" s="2">
-        <v>150.4972611017796</v>
+        <v>146.22812209800867</v>
       </c>
       <c r="L105" s="2">
-        <v>0.68264815933887224</v>
+        <v>0.62493572465826519</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4564,19 +4564,19 @@
         <v>16</v>
       </c>
       <c r="H106">
-        <v>0.68916450081321989</v>
+        <v>0.62505721276852499</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106">
-        <v>67.972389121303877</v>
+        <v>61.649478519635345</v>
       </c>
       <c r="K106" s="2">
-        <v>171.33183690372996</v>
+        <v>164.88246809002806</v>
       </c>
       <c r="L106" s="2">
-        <v>0.72322556860726217</v>
+        <v>0.65783613480167324</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4602,19 +4602,19 @@
         <v>16</v>
       </c>
       <c r="H107">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107">
-        <v>8.5479452054794507</v>
+        <v>7.0684931506849322</v>
       </c>
       <c r="K107" s="2">
-        <v>110.71890410958905</v>
+        <v>109.20986301369864</v>
       </c>
       <c r="L107" s="2">
-        <v>0.65206666666666691</v>
+        <v>0.56026666666666713</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4640,19 +4640,19 @@
         <v>16</v>
       </c>
       <c r="H108">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108">
-        <v>12.821917808219178</v>
+        <v>10.602739726027398</v>
       </c>
       <c r="K108" s="2">
-        <v>115.07835616438356</v>
+        <v>112.81479452054793</v>
       </c>
       <c r="L108" s="2">
-        <v>0.61151111111111078</v>
+        <v>0.51971111111111112</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4678,19 +4678,19 @@
         <v>16</v>
       </c>
       <c r="H109">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109">
-        <v>25.643835616438356</v>
+        <v>21.205479452054796</v>
       </c>
       <c r="K109" s="2">
-        <v>128.15671232876713</v>
+        <v>123.6295890410959</v>
       </c>
       <c r="L109" s="2">
-        <v>0.57095555555555566</v>
+        <v>0.47915555555555556</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -4716,19 +4716,19 @@
         <v>16</v>
       </c>
       <c r="H110">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110">
-        <v>38.465753424657535</v>
+        <v>31.808219178082194</v>
       </c>
       <c r="K110" s="2">
-        <v>141.23506849315066</v>
+        <v>134.44438356164383</v>
       </c>
       <c r="L110" s="2">
-        <v>0.55743703703703673</v>
+        <v>0.46563703703703702</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4754,19 +4754,19 @@
         <v>16</v>
       </c>
       <c r="H111">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111">
-        <v>51.287671232876711</v>
+        <v>42.410958904109592</v>
       </c>
       <c r="K111" s="2">
-        <v>154.31342465753423</v>
+        <v>145.2591780821918</v>
       </c>
       <c r="L111" s="2">
-        <v>0.55067777777777771</v>
+        <v>0.45887777777777794</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -4792,19 +4792,19 @@
         <v>16</v>
       </c>
       <c r="H112">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>6.5753424657534252</v>
+        <v>6.2465753424657526</v>
       </c>
       <c r="K112" s="2">
-        <v>108.70684931506848</v>
+        <v>108.37150684931507</v>
       </c>
       <c r="L112" s="2">
-        <v>0.52966666666666629</v>
+        <v>0.50926666666666676</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4830,19 +4830,19 @@
         <v>16</v>
       </c>
       <c r="H113">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>9.8630136986301373</v>
+        <v>9.3698630136986303</v>
       </c>
       <c r="K113" s="2">
-        <v>112.06027397260274</v>
+        <v>111.55726027397259</v>
       </c>
       <c r="L113" s="2">
-        <v>0.48911111111111116</v>
+        <v>0.46871111111111063</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -4868,19 +4868,19 @@
         <v>16</v>
       </c>
       <c r="H114">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114">
-        <v>19.726027397260275</v>
+        <v>18.739726027397261</v>
       </c>
       <c r="K114" s="2">
-        <v>122.12054794520549</v>
+        <v>121.1145205479452</v>
       </c>
       <c r="L114" s="2">
-        <v>0.44855555555555565</v>
+        <v>0.42815555555555546</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4906,19 +4906,19 @@
         <v>16</v>
       </c>
       <c r="H115">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115">
-        <v>29.589041095890416</v>
+        <v>28.109589041095891</v>
       </c>
       <c r="K115" s="2">
-        <v>132.18082191780823</v>
+        <v>130.67178082191779</v>
       </c>
       <c r="L115" s="2">
-        <v>0.43503703703703706</v>
+        <v>0.4146370370370368</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -4944,19 +4944,19 @@
         <v>16</v>
       </c>
       <c r="H116">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>39.452054794520549</v>
+        <v>37.479452054794521</v>
       </c>
       <c r="K116" s="2">
-        <v>142.24109589041095</v>
+        <v>140.22904109589041</v>
       </c>
       <c r="L116" s="2">
-        <v>0.42827777777777759</v>
+        <v>0.40787777777777773</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -4982,19 +4982,19 @@
         <v>16</v>
       </c>
       <c r="H117">
-        <v>0.69</v>
+        <v>0.49</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
       <c r="J117">
-        <v>11.342465753424657</v>
+        <v>8.0547945205479454</v>
       </c>
       <c r="K117" s="2">
-        <v>113.56931506849315</v>
+        <v>110.21589041095889</v>
       </c>
       <c r="L117" s="2">
-        <v>0.82546666666666657</v>
+        <v>0.62146666666666606</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -5020,19 +5020,19 @@
         <v>16</v>
       </c>
       <c r="H118">
-        <v>0.69</v>
+        <v>0.49</v>
       </c>
       <c r="I118">
         <v>2</v>
       </c>
       <c r="J118">
-        <v>17.013698630136986</v>
+        <v>12.082191780821917</v>
       </c>
       <c r="K118" s="2">
-        <v>119.35397260273972</v>
+        <v>114.32383561643836</v>
       </c>
       <c r="L118" s="2">
-        <v>0.784911111111111</v>
+        <v>0.58091111111111093</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5058,19 +5058,19 @@
         <v>16</v>
       </c>
       <c r="H119">
-        <v>0.69</v>
+        <v>0.49</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119">
-        <v>34.027397260273972</v>
+        <v>24.164383561643834</v>
       </c>
       <c r="K119" s="2">
-        <v>136.70794520547946</v>
+        <v>126.6476712328767</v>
       </c>
       <c r="L119" s="2">
-        <v>0.74435555555555588</v>
+        <v>0.54035555555555526</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5096,19 +5096,19 @@
         <v>16</v>
       </c>
       <c r="H120">
-        <v>0.69</v>
+        <v>0.49</v>
       </c>
       <c r="I120">
         <v>2</v>
       </c>
       <c r="J120">
-        <v>51.041095890410958</v>
+        <v>36.246575342465754</v>
       </c>
       <c r="K120" s="2">
-        <v>154.06191780821919</v>
+        <v>138.97150684931506</v>
       </c>
       <c r="L120" s="2">
-        <v>0.73083703703703706</v>
+        <v>0.52683703703703677</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -5134,19 +5134,19 @@
         <v>16</v>
       </c>
       <c r="H121">
-        <v>0.69</v>
+        <v>0.49</v>
       </c>
       <c r="I121">
         <v>2</v>
       </c>
       <c r="J121">
-        <v>68.054794520547944</v>
+        <v>48.328767123287669</v>
       </c>
       <c r="K121" s="2">
-        <v>171.41589041095889</v>
+        <v>151.29534246575341</v>
       </c>
       <c r="L121" s="2">
-        <v>0.72407777777777782</v>
+        <v>0.52007777777777753</v>
       </c>
     </row>
   </sheetData>

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F41063F-EFEC-4C2B-839A-4DBF81FCFED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528F1F84-9596-45CA-A7BC-2DDCDC6484C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -2208,19 +2208,19 @@
         <v>16</v>
       </c>
       <c r="H44">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="I44">
         <v>0.5</v>
       </c>
       <c r="J44">
-        <v>20.712328767123285</v>
+        <v>18.246575342465754</v>
       </c>
       <c r="K44" s="2">
-        <v>121.31589041095887</v>
+        <v>118.83780821917806</v>
       </c>
       <c r="L44" s="2">
-        <v>0.43223888888888823</v>
+        <v>0.38198888888888854</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2246,19 +2246,19 @@
         <v>16</v>
       </c>
       <c r="H45">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="I45">
         <v>0.5</v>
       </c>
       <c r="J45">
-        <v>31.06849315068493</v>
+        <v>27.36986301369863</v>
       </c>
       <c r="K45" s="2">
-        <v>131.72383561643832</v>
+        <v>128.00671232876712</v>
       </c>
       <c r="L45" s="2">
-        <v>0.42885925925925877</v>
+        <v>0.37860925925925926</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2284,19 +2284,19 @@
         <v>16</v>
       </c>
       <c r="H46">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="I46">
         <v>0.5</v>
       </c>
       <c r="J46">
-        <v>41.42465753424657</v>
+        <v>36.493150684931507</v>
       </c>
       <c r="K46" s="2">
-        <v>142.1317808219178</v>
+        <v>137.17561643835614</v>
       </c>
       <c r="L46" s="2">
-        <v>0.42716944444444427</v>
+        <v>0.37691944444444425</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2322,19 +2322,19 @@
         <v>16</v>
       </c>
       <c r="H47">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="I47">
         <v>5</v>
       </c>
       <c r="J47">
-        <v>15.287671232876713</v>
+        <v>13.315068493150687</v>
       </c>
       <c r="K47" s="2">
-        <v>121.05205479452054</v>
+        <v>118.98082191780823</v>
       </c>
       <c r="L47" s="2">
-        <v>0.42688888888888887</v>
+        <v>0.38488888888888911</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2360,19 +2360,19 @@
         <v>16</v>
       </c>
       <c r="H48">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="I48">
         <v>5</v>
       </c>
       <c r="J48">
-        <v>25.150684931506852</v>
+        <v>22.191780821917806</v>
       </c>
       <c r="K48" s="2">
-        <v>131.40821917808219</v>
+        <v>128.30136986301372</v>
       </c>
       <c r="L48" s="2">
-        <v>0.42459259259259252</v>
+        <v>0.38259259259259298</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2398,19 +2398,19 @@
         <v>16</v>
       </c>
       <c r="H49">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="I49">
         <v>5</v>
       </c>
       <c r="J49">
-        <v>35.506849315068493</v>
+        <v>30.575342465753426</v>
       </c>
       <c r="K49" s="2">
-        <v>142.2821917808219</v>
+        <v>137.10410958904109</v>
       </c>
       <c r="L49" s="2">
-        <v>0.42869444444444438</v>
+        <v>0.37619444444444444</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2436,19 +2436,19 @@
         <v>16</v>
       </c>
       <c r="H50">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I50">
         <v>10</v>
       </c>
       <c r="J50">
-        <v>9.3698630136986303</v>
+        <v>7.397260273972603</v>
       </c>
       <c r="K50" s="2">
-        <v>120.3068493150685</v>
+        <v>118.13698630136989</v>
       </c>
       <c r="L50" s="2">
-        <v>0.41177777777777791</v>
+        <v>0.36777777777777826</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2474,19 +2474,19 @@
         <v>16</v>
       </c>
       <c r="H51">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="I51">
         <v>10</v>
       </c>
       <c r="J51">
-        <v>19.232876712328768</v>
+        <v>15.534246575342465</v>
       </c>
       <c r="K51" s="2">
-        <v>131.15616438356165</v>
+        <v>127.08767123287672</v>
       </c>
       <c r="L51" s="2">
-        <v>0.42118518518518511</v>
+        <v>0.36618518518518528</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2512,19 +2512,19 @@
         <v>16</v>
       </c>
       <c r="H52">
-        <v>0.28999999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="I52">
         <v>10</v>
       </c>
       <c r="J52">
-        <v>28.602739726027394</v>
+        <v>23.671232876712327</v>
       </c>
       <c r="K52" s="2">
-        <v>141.46301369863014</v>
+        <v>136.03835616438357</v>
       </c>
       <c r="L52" s="2">
-        <v>0.4203888888888887</v>
+        <v>0.3653888888888891</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -4792,19 +4792,19 @@
         <v>16</v>
       </c>
       <c r="H112">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>6.2465753424657526</v>
+        <v>5.4246575342465757</v>
       </c>
       <c r="K112" s="2">
-        <v>108.37150684931507</v>
+        <v>107.5331506849315</v>
       </c>
       <c r="L112" s="2">
-        <v>0.50926666666666676</v>
+        <v>0.45826666666666627</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4830,19 +4830,19 @@
         <v>16</v>
       </c>
       <c r="H113">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>9.3698630136986303</v>
+        <v>8.1369863013698627</v>
       </c>
       <c r="K113" s="2">
-        <v>111.55726027397259</v>
+        <v>110.29972602739726</v>
       </c>
       <c r="L113" s="2">
-        <v>0.46871111111111063</v>
+        <v>0.41771111111111114</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -4868,19 +4868,19 @@
         <v>16</v>
       </c>
       <c r="H114">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114">
-        <v>18.739726027397261</v>
+        <v>16.273972602739725</v>
       </c>
       <c r="K114" s="2">
-        <v>121.1145205479452</v>
+        <v>118.59945205479453</v>
       </c>
       <c r="L114" s="2">
-        <v>0.42815555555555546</v>
+        <v>0.37715555555555552</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4906,19 +4906,19 @@
         <v>16</v>
       </c>
       <c r="H115">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115">
-        <v>28.109589041095891</v>
+        <v>24.410958904109588</v>
       </c>
       <c r="K115" s="2">
-        <v>130.67178082191779</v>
+        <v>126.89917808219177</v>
       </c>
       <c r="L115" s="2">
-        <v>0.4146370370370368</v>
+        <v>0.36363703703703698</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -4944,19 +4944,19 @@
         <v>16</v>
       </c>
       <c r="H116">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>37.479452054794521</v>
+        <v>32.547945205479451</v>
       </c>
       <c r="K116" s="2">
-        <v>140.22904109589041</v>
+        <v>135.19890410958905</v>
       </c>
       <c r="L116" s="2">
-        <v>0.40787777777777773</v>
+        <v>0.3568777777777779</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528F1F84-9596-45CA-A7BC-2DDCDC6484C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D4951E-3EA1-45EE-809B-B5DF5FCE2EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -2094,19 +2094,19 @@
         <v>16</v>
       </c>
       <c r="H41">
-        <v>0.46500000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41">
-        <v>22.93150684931507</v>
+        <v>17.260273972602739</v>
       </c>
       <c r="K41" s="2">
-        <v>125.39013698630137</v>
+        <v>119.60547945205479</v>
       </c>
       <c r="L41" s="2">
-        <v>0.51485555555555562</v>
+        <v>0.39755555555555561</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2132,19 +2132,19 @@
         <v>16</v>
       </c>
       <c r="H42">
-        <v>0.47</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="I42">
         <v>2</v>
       </c>
       <c r="J42">
-        <v>27.041095890410961</v>
+        <v>20.424657534246574</v>
       </c>
       <c r="K42" s="2">
-        <v>129.58191780821917</v>
+        <v>122.83315068493151</v>
       </c>
       <c r="L42" s="2">
-        <v>0.5141619047619046</v>
+        <v>0.39686190476190469</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2170,19 +2170,19 @@
         <v>16</v>
       </c>
       <c r="H43">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43">
-        <v>35.506849315068493</v>
+        <v>26.630136986301366</v>
       </c>
       <c r="K43" s="2">
-        <v>138.21698630136987</v>
+        <v>129.16273972602738</v>
       </c>
       <c r="L43" s="2">
-        <v>0.51663703703703712</v>
+        <v>0.39423703703703689</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2550,19 +2550,19 @@
         <v>16</v>
       </c>
       <c r="H53">
-        <v>0.26500000000000001</v>
+        <v>0.1925</v>
       </c>
       <c r="I53">
         <v>10.9</v>
       </c>
       <c r="J53">
-        <v>13.068493150684931</v>
+        <v>9.493150684931507</v>
       </c>
       <c r="K53" s="2">
-        <v>125.39295890410959</v>
+        <v>121.42790410958905</v>
       </c>
       <c r="L53" s="2">
-        <v>0.51491277777777789</v>
+        <v>0.43451027777777812</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2588,19 +2588,19 @@
         <v>16</v>
       </c>
       <c r="H54">
-        <v>0.36749999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I54">
         <v>10.9</v>
       </c>
       <c r="J54">
-        <v>27.184931506849313</v>
+        <v>20.342465753424658</v>
       </c>
       <c r="K54" s="2">
-        <v>141.04808904109589</v>
+        <v>133.45979452054797</v>
       </c>
       <c r="L54" s="2">
-        <v>0.55490935185185186</v>
+        <v>0.45232685185185217</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2626,19 +2626,19 @@
         <v>16</v>
       </c>
       <c r="H55">
-        <v>0.4375</v>
+        <v>0.32750000000000001</v>
       </c>
       <c r="I55">
         <v>10.9</v>
       </c>
       <c r="J55">
-        <v>43.150684931506852</v>
+        <v>32.301369863013697</v>
       </c>
       <c r="K55" s="2">
-        <v>158.75410958904109</v>
+        <v>146.72221917808218</v>
       </c>
       <c r="L55" s="2">
-        <v>0.59570138888888891</v>
+        <v>0.47371138888888892</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2664,19 +2664,19 @@
         <v>16</v>
       </c>
       <c r="H56">
-        <v>0.26500000000000001</v>
+        <v>0.1925</v>
       </c>
       <c r="I56">
         <v>10.9</v>
       </c>
       <c r="J56">
-        <v>13.068493150684931</v>
+        <v>9.493150684931507</v>
       </c>
       <c r="K56" s="2">
-        <v>125.39295890410959</v>
+        <v>121.42790410958905</v>
       </c>
       <c r="L56" s="2">
-        <v>0.51491277777777789</v>
+        <v>0.43451027777777812</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2702,19 +2702,19 @@
         <v>16</v>
       </c>
       <c r="H57">
-        <v>0.36749999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I57">
         <v>10.9</v>
       </c>
       <c r="J57">
-        <v>27.184931506849313</v>
+        <v>20.342465753424658</v>
       </c>
       <c r="K57" s="2">
-        <v>141.04808904109589</v>
+        <v>133.45979452054797</v>
       </c>
       <c r="L57" s="2">
-        <v>0.55490935185185186</v>
+        <v>0.45232685185185217</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2740,19 +2740,19 @@
         <v>16</v>
       </c>
       <c r="H58">
-        <v>0.4375</v>
+        <v>0.32750000000000001</v>
       </c>
       <c r="I58">
         <v>10.9</v>
       </c>
       <c r="J58">
-        <v>43.150684931506852</v>
+        <v>32.301369863013697</v>
       </c>
       <c r="K58" s="2">
-        <v>158.75410958904109</v>
+        <v>146.72221917808218</v>
       </c>
       <c r="L58" s="2">
-        <v>0.59570138888888891</v>
+        <v>0.47371138888888892</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4412,19 +4412,19 @@
         <v>16</v>
       </c>
       <c r="H102">
-        <v>0.45428981481481384</v>
+        <v>0.4123148148148158</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102">
-        <v>7.4677777777777621</v>
+        <v>6.7777777777777937</v>
       </c>
       <c r="K102" s="2">
-        <v>109.61713333333331</v>
+        <v>108.91333333333336</v>
       </c>
       <c r="L102" s="2">
-        <v>0.58504227777777673</v>
+        <v>0.54222777777777886</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4450,19 +4450,19 @@
         <v>16</v>
       </c>
       <c r="H103">
-        <v>0.46266844238683014</v>
+        <v>0.41922427983539168</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103">
-        <v>11.408262962962933</v>
+        <v>10.337037037037057</v>
       </c>
       <c r="K103" s="2">
-        <v>113.63642822222219</v>
+        <v>112.54377777777779</v>
       </c>
       <c r="L103" s="2">
-        <v>0.55303292234567791</v>
+        <v>0.50871987654321071</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4488,19 +4488,19 @@
         <v>16</v>
       </c>
       <c r="H104">
-        <v>0.48905965866389761</v>
+        <v>0.44089196437281025</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104">
-        <v>24.118010564247005</v>
+        <v>21.742617421124887</v>
       </c>
       <c r="K104" s="2">
-        <v>126.60037077553194</v>
+        <v>124.17746976954739</v>
       </c>
       <c r="L104" s="2">
-        <v>0.53939640739273109</v>
+        <v>0.49026535921582182</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4526,19 +4526,19 @@
         <v>16</v>
       </c>
       <c r="H105">
-        <v>0.58617518394238066</v>
+        <v>0.53102557451229182</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105">
-        <v>43.360904017655557</v>
+        <v>39.28134386803255</v>
       </c>
       <c r="K105" s="2">
-        <v>146.22812209800867</v>
+        <v>142.06697074539321</v>
       </c>
       <c r="L105" s="2">
-        <v>0.62493572465826519</v>
+        <v>0.5686831230395748</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4564,19 +4564,19 @@
         <v>16</v>
       </c>
       <c r="H106">
-        <v>0.62505721276852499</v>
+        <v>0.56316897486376016</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106">
-        <v>61.649478519635345</v>
+        <v>55.545433137247578</v>
       </c>
       <c r="K106" s="2">
-        <v>164.88246809002806</v>
+        <v>158.65634179999253</v>
       </c>
       <c r="L106" s="2">
-        <v>0.65783613480167324</v>
+        <v>0.59471013213881307</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4602,19 +4602,19 @@
         <v>16</v>
       </c>
       <c r="H107">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107">
-        <v>7.0684931506849322</v>
+        <v>6.2465753424657526</v>
       </c>
       <c r="K107" s="2">
-        <v>109.20986301369864</v>
+        <v>108.37150684931507</v>
       </c>
       <c r="L107" s="2">
-        <v>0.56026666666666713</v>
+        <v>0.50926666666666676</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4640,19 +4640,19 @@
         <v>16</v>
       </c>
       <c r="H108">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108">
-        <v>10.602739726027398</v>
+        <v>9.3698630136986303</v>
       </c>
       <c r="K108" s="2">
-        <v>112.81479452054793</v>
+        <v>111.55726027397259</v>
       </c>
       <c r="L108" s="2">
-        <v>0.51971111111111112</v>
+        <v>0.46871111111111063</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4678,19 +4678,19 @@
         <v>16</v>
       </c>
       <c r="H109">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109">
-        <v>21.205479452054796</v>
+        <v>18.739726027397261</v>
       </c>
       <c r="K109" s="2">
-        <v>123.6295890410959</v>
+        <v>121.1145205479452</v>
       </c>
       <c r="L109" s="2">
-        <v>0.47915555555555556</v>
+        <v>0.42815555555555546</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -4716,19 +4716,19 @@
         <v>16</v>
       </c>
       <c r="H110">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110">
-        <v>31.808219178082194</v>
+        <v>28.109589041095891</v>
       </c>
       <c r="K110" s="2">
-        <v>134.44438356164383</v>
+        <v>130.67178082191779</v>
       </c>
       <c r="L110" s="2">
-        <v>0.46563703703703702</v>
+        <v>0.4146370370370368</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4754,19 +4754,19 @@
         <v>16</v>
       </c>
       <c r="H111">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111">
-        <v>42.410958904109592</v>
+        <v>37.479452054794521</v>
       </c>
       <c r="K111" s="2">
-        <v>145.2591780821918</v>
+        <v>140.22904109589041</v>
       </c>
       <c r="L111" s="2">
-        <v>0.45887777777777794</v>
+        <v>0.40787777777777773</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -4792,19 +4792,19 @@
         <v>16</v>
       </c>
       <c r="H112">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>5.4246575342465757</v>
+        <v>4.9315068493150687</v>
       </c>
       <c r="K112" s="2">
-        <v>107.5331506849315</v>
+        <v>107.03013698630137</v>
       </c>
       <c r="L112" s="2">
-        <v>0.45826666666666627</v>
+        <v>0.42766666666666681</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4830,19 +4830,19 @@
         <v>16</v>
       </c>
       <c r="H113">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>8.1369863013698627</v>
+        <v>7.397260273972603</v>
       </c>
       <c r="K113" s="2">
-        <v>110.29972602739726</v>
+        <v>109.54520547945205</v>
       </c>
       <c r="L113" s="2">
-        <v>0.41771111111111114</v>
+        <v>0.38711111111111118</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -4868,19 +4868,19 @@
         <v>16</v>
       </c>
       <c r="H114">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114">
-        <v>16.273972602739725</v>
+        <v>14.794520547945206</v>
       </c>
       <c r="K114" s="2">
-        <v>118.59945205479453</v>
+        <v>117.09041095890412</v>
       </c>
       <c r="L114" s="2">
-        <v>0.37715555555555552</v>
+        <v>0.34655555555555562</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4906,19 +4906,19 @@
         <v>16</v>
       </c>
       <c r="H115">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115">
-        <v>24.410958904109588</v>
+        <v>22.191780821917806</v>
       </c>
       <c r="K115" s="2">
-        <v>126.89917808219177</v>
+        <v>124.63561643835618</v>
       </c>
       <c r="L115" s="2">
-        <v>0.36363703703703698</v>
+        <v>0.33303703703703735</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -4944,19 +4944,19 @@
         <v>16</v>
       </c>
       <c r="H116">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>32.547945205479451</v>
+        <v>29.589041095890412</v>
       </c>
       <c r="K116" s="2">
-        <v>135.19890410958905</v>
+        <v>132.18082191780823</v>
       </c>
       <c r="L116" s="2">
-        <v>0.3568777777777779</v>
+        <v>0.32627777777777778</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D4951E-3EA1-45EE-809B-B5DF5FCE2EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D75DD4-9B7B-4D42-BFDD-E1C55CD94568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -77,31 +77,61 @@
     <t>Mixto</t>
   </si>
   <si>
+    <t>Tasa 0%</t>
+  </si>
+  <si>
+    <t>Tarjeta</t>
+  </si>
+  <si>
+    <t>Financia Banco</t>
+  </si>
+  <si>
+    <t>Tipo de Empresa</t>
+  </si>
+  <si>
+    <t>MiPyme</t>
+  </si>
+  <si>
+    <t>GALICIA</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
-    <t>Tasa 0%</t>
+    <t>No MiPyme</t>
+  </si>
+  <si>
+    <t>No Distingue</t>
+  </si>
+  <si>
+    <t>SANTANDER</t>
+  </si>
+  <si>
+    <t>MACRO</t>
   </si>
   <si>
     <t>PATAGONIA</t>
   </si>
   <si>
-    <t>$</t>
+    <t>BANCOR</t>
   </si>
   <si>
-    <t>BBVA</t>
+    <t>$</t>
   </si>
   <si>
     <t>BERSA</t>
   </si>
   <si>
-    <t>Tarjeta</t>
+    <t>Pyme</t>
   </si>
   <si>
-    <t>MACRO</t>
+    <t>PROCAMPO DIGITAL</t>
   </si>
   <si>
-    <t>BANCOR</t>
+    <t>PROCAMPO DIGITAL - Promo 1</t>
+  </si>
+  <si>
+    <t>PROCAMPO DIGITAL - Promo 2</t>
   </si>
   <si>
     <t>CALDÉN</t>
@@ -113,46 +143,16 @@
     <t>PROCAMPO</t>
   </si>
   <si>
-    <t>GALICIA</t>
+    <t>BBVA</t>
   </si>
   <si>
     <t>HSBC</t>
-  </si>
-  <si>
-    <t>Financia Banco</t>
   </si>
   <si>
     <t>AGRONACIÓN</t>
   </si>
   <si>
     <t>AGROCABAL</t>
-  </si>
-  <si>
-    <t>MiPyme</t>
-  </si>
-  <si>
-    <t>No MiPyme</t>
-  </si>
-  <si>
-    <t>SANTANDER</t>
-  </si>
-  <si>
-    <t>No Distingue</t>
-  </si>
-  <si>
-    <t>PROCAMPO DIGITAL</t>
-  </si>
-  <si>
-    <t>Pyme</t>
-  </si>
-  <si>
-    <t>Tipo de Empresa</t>
-  </si>
-  <si>
-    <t>PROCAMPO DIGITAL - Promo 1</t>
-  </si>
-  <si>
-    <t>PROCAMPO DIGITAL - Promo 2</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -591,13 +591,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -609,71 +609,71 @@
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="I2">
         <v>1.7999999999999998</v>
       </c>
       <c r="J2">
-        <v>3.4520547945205484</v>
+        <v>2.9589041095890409</v>
       </c>
       <c r="K2" s="2">
-        <v>105.31419178082191</v>
+        <v>104.81216438356164</v>
       </c>
       <c r="L2" s="2">
-        <v>0.10775999999999981</v>
+        <v>9.7580000000000042E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>105.3</v>
+        <v>104.80000000000001</v>
       </c>
       <c r="L3" s="2">
-        <v>0.10747222222222208</v>
+        <v>9.7333333333333411E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -685,71 +685,71 @@
         <v>270</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H4">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I4">
         <v>1.7999999999999998</v>
       </c>
       <c r="J4">
-        <v>5.9178082191780819</v>
+        <v>5.1780821917808222</v>
       </c>
       <c r="K4" s="2">
-        <v>107.82432876712329</v>
+        <v>107.07128767123287</v>
       </c>
       <c r="L4" s="2">
-        <v>0.10577333333333336</v>
+        <v>9.5593333333333141E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>270</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>108</v>
+        <v>107.4</v>
       </c>
       <c r="L5" s="2">
-        <v>0.10814814814814824</v>
+        <v>0.10003703703703712</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -761,71 +761,71 @@
         <v>360</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I6">
         <v>1.7999999999999998</v>
       </c>
       <c r="J6">
-        <v>8.8767123287671232</v>
+        <v>7.8904109589041092</v>
       </c>
       <c r="K6" s="2">
-        <v>110.83649315068493</v>
+        <v>109.83243835616437</v>
       </c>
       <c r="L6" s="2">
-        <v>0.10987000000000004</v>
+        <v>9.9689999999999807E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>360</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.1</v>
+        <v>10.299999999999999</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>111.1</v>
+        <v>110.3</v>
       </c>
       <c r="L7" s="2">
-        <v>0.11254166666666666</v>
+        <v>0.10443055555555554</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -837,71 +837,71 @@
         <v>180</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="I8">
         <v>1.7999999999999998</v>
       </c>
       <c r="J8">
-        <v>3.4520547945205484</v>
+        <v>2.9589041095890409</v>
       </c>
       <c r="K8" s="2">
-        <v>105.31419178082191</v>
+        <v>104.81216438356164</v>
       </c>
       <c r="L8" s="2">
-        <v>0.10775999999999981</v>
+        <v>9.7580000000000042E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>180</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>105.3</v>
+        <v>104.80000000000001</v>
       </c>
       <c r="L9" s="2">
-        <v>0.10747222222222208</v>
+        <v>9.7333333333333411E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -913,71 +913,71 @@
         <v>270</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I10">
         <v>1.7999999999999998</v>
       </c>
       <c r="J10">
-        <v>5.9178082191780819</v>
+        <v>5.1780821917808222</v>
       </c>
       <c r="K10" s="2">
-        <v>107.82432876712329</v>
+        <v>107.07128767123287</v>
       </c>
       <c r="L10" s="2">
-        <v>0.10577333333333336</v>
+        <v>9.5593333333333141E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>270</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>108</v>
+        <v>107.4</v>
       </c>
       <c r="L11" s="2">
-        <v>0.10814814814814824</v>
+        <v>0.10003703703703712</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -989,71 +989,71 @@
         <v>360</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I12">
         <v>1.7999999999999998</v>
       </c>
       <c r="J12">
-        <v>8.8767123287671232</v>
+        <v>7.8904109589041092</v>
       </c>
       <c r="K12" s="2">
-        <v>110.83649315068493</v>
+        <v>109.83243835616437</v>
       </c>
       <c r="L12" s="2">
-        <v>0.10987000000000004</v>
+        <v>9.9689999999999807E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
         <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>360</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.1</v>
+        <v>10.299999999999999</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>111.1</v>
+        <v>110.3</v>
       </c>
       <c r="L13" s="2">
-        <v>0.11254166666666666</v>
+        <v>0.10443055555555554</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -1065,7 +1065,7 @@
         <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H14">
         <v>6.5000000000000002E-2</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -1103,7 +1103,7 @@
         <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15">
         <v>7.0000000000000007E-2</v>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -1141,7 +1141,7 @@
         <v>270</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H16">
         <v>7.4999999999999997E-2</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -1179,7 +1179,7 @@
         <v>360</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H17">
         <v>0.09</v>
@@ -1199,25 +1199,25 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1237,25 +1237,25 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <v>270</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1275,25 +1275,25 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20">
         <v>360</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1313,13 +1313,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -1331,7 +1331,7 @@
         <v>360</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21">
         <v>0.115</v>
@@ -1351,13 +1351,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -1369,7 +1369,7 @@
         <v>180</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H22">
         <v>1.4999999999999999E-2</v>
@@ -1389,13 +1389,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -1407,7 +1407,7 @@
         <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H23">
         <v>0.04</v>
@@ -1427,13 +1427,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -1445,7 +1445,7 @@
         <v>270</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H24">
         <v>7.0000000000000007E-2</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1">
         <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>180</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H25">
         <v>0.35</v>
@@ -1503,13 +1503,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1">
         <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -1521,7 +1521,7 @@
         <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H26">
         <v>0.38</v>
@@ -1541,13 +1541,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1">
         <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -1559,7 +1559,7 @@
         <v>360</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H27">
         <v>0.38</v>
@@ -1579,13 +1579,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1">
         <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -1597,7 +1597,7 @@
         <v>180</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H28">
         <v>0.36</v>
@@ -1617,13 +1617,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1">
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -1635,7 +1635,7 @@
         <v>270</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H29">
         <v>0.39</v>
@@ -1655,13 +1655,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1">
         <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -1673,7 +1673,7 @@
         <v>360</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H30">
         <v>0.39</v>
@@ -1693,13 +1693,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1">
         <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -1711,33 +1711,33 @@
         <v>180</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H31">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="I31">
         <v>14.899999999999999</v>
       </c>
       <c r="J31">
-        <v>15.287671232876713</v>
+        <v>17.753424657534246</v>
       </c>
       <c r="K31" s="2">
-        <v>132.46553424657534</v>
+        <v>135.29868493150684</v>
       </c>
       <c r="L31" s="2">
-        <v>0.65832888888888896</v>
+        <v>0.71577888888888885</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1">
         <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -1749,33 +1749,33 @@
         <v>270</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H32">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="I32">
         <v>14.899999999999999</v>
       </c>
       <c r="J32">
-        <v>30.328767123287669</v>
+        <v>28.849315068493155</v>
       </c>
       <c r="K32" s="2">
-        <v>149.74775342465753</v>
+        <v>148.04786301369865</v>
       </c>
       <c r="L32" s="2">
-        <v>0.67251592592592602</v>
+        <v>0.64953592592592624</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1">
         <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -1787,33 +1787,33 @@
         <v>360</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H33">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="I33">
         <v>14.899999999999999</v>
       </c>
       <c r="J33">
-        <v>49.31506849315069</v>
+        <v>41.42465753424657</v>
       </c>
       <c r="K33" s="2">
-        <v>171.56301369863013</v>
+        <v>162.49693150684934</v>
       </c>
       <c r="L33" s="2">
-        <v>0.72556944444444449</v>
+        <v>0.63364944444444471</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1">
         <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -1825,33 +1825,33 @@
         <v>180</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H34">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="I34">
         <v>14.899999999999999</v>
       </c>
       <c r="J34">
-        <v>16.273972602739725</v>
+        <v>18.739726027397261</v>
       </c>
       <c r="K34" s="2">
-        <v>133.59879452054795</v>
+        <v>136.43194520547945</v>
       </c>
       <c r="L34" s="2">
-        <v>0.68130888888888896</v>
+        <v>0.73875888888888896</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B35" s="1">
         <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -1863,33 +1863,33 @@
         <v>270</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H35">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="I35">
         <v>14.899999999999999</v>
       </c>
       <c r="J35">
-        <v>32.547945205479458</v>
+        <v>30.328767123287669</v>
       </c>
       <c r="K35" s="2">
-        <v>152.2975890410959</v>
+        <v>149.74775342465753</v>
       </c>
       <c r="L35" s="2">
-        <v>0.70698592592592602</v>
+        <v>0.67251592592592602</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B36" s="1">
         <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -1901,33 +1901,33 @@
         <v>360</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H36">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="I36">
         <v>14.899999999999999</v>
       </c>
       <c r="J36">
-        <v>52.273972602739725</v>
+        <v>44.38356164383562</v>
       </c>
       <c r="K36" s="2">
-        <v>174.96279452054796</v>
+        <v>165.89671232876714</v>
       </c>
       <c r="L36" s="2">
-        <v>0.76003944444444449</v>
+        <v>0.66811944444444449</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1">
         <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -1939,7 +1939,7 @@
         <v>180</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H37">
         <v>0.68</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1">
         <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -1977,7 +1977,7 @@
         <v>240</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H38">
         <v>0.76319999999999999</v>
@@ -1997,13 +1997,13 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B39" s="1">
         <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -2015,7 +2015,7 @@
         <v>180</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H39">
         <v>0.77429999999999999</v>
@@ -2035,13 +2035,13 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B40" s="1">
         <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -2053,7 +2053,7 @@
         <v>240</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H40">
         <v>0.8075</v>
@@ -2073,13 +2073,13 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B41" s="1">
         <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -2091,7 +2091,7 @@
         <v>180</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H41">
         <v>0.35</v>
@@ -2111,13 +2111,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B42" s="1">
         <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -2129,7 +2129,7 @@
         <v>210</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H42">
         <v>0.35499999999999998</v>
@@ -2149,13 +2149,13 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B43" s="1">
         <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -2167,7 +2167,7 @@
         <v>270</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H43">
         <v>0.36</v>
@@ -2187,13 +2187,13 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B44" s="1">
         <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -2205,33 +2205,33 @@
         <v>180</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H44">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="I44">
         <v>0.5</v>
       </c>
       <c r="J44">
-        <v>18.246575342465754</v>
+        <v>16.767123287671236</v>
       </c>
       <c r="K44" s="2">
-        <v>118.83780821917806</v>
+        <v>117.35095890410959</v>
       </c>
       <c r="L44" s="2">
-        <v>0.38198888888888854</v>
+        <v>0.3518388888888887</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B45" s="3">
         <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -2243,33 +2243,33 @@
         <v>270</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H45">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="I45">
         <v>0.5</v>
       </c>
       <c r="J45">
-        <v>27.36986301369863</v>
+        <v>25.150684931506852</v>
       </c>
       <c r="K45" s="2">
-        <v>128.00671232876712</v>
+        <v>125.77643835616436</v>
       </c>
       <c r="L45" s="2">
-        <v>0.37860925925925926</v>
+        <v>0.34845925925925902</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B46" s="3">
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -2281,33 +2281,33 @@
         <v>360</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H46">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="I46">
         <v>0.5</v>
       </c>
       <c r="J46">
-        <v>36.493150684931507</v>
+        <v>33.534246575342472</v>
       </c>
       <c r="K46" s="2">
-        <v>137.17561643835614</v>
+        <v>134.20191780821918</v>
       </c>
       <c r="L46" s="2">
-        <v>0.37691944444444425</v>
+        <v>0.34676944444444441</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B47" s="3">
         <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
@@ -2319,33 +2319,33 @@
         <v>180</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H47">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="I47">
         <v>5</v>
       </c>
       <c r="J47">
-        <v>13.315068493150687</v>
+        <v>11.835616438356164</v>
       </c>
       <c r="K47" s="2">
-        <v>118.98082191780823</v>
+        <v>117.42739726027396</v>
       </c>
       <c r="L47" s="2">
-        <v>0.38488888888888911</v>
+        <v>0.35338888888888859</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B48" s="3">
         <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -2357,33 +2357,33 @@
         <v>270</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H48">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="I48">
         <v>5</v>
       </c>
       <c r="J48">
-        <v>22.191780821917806</v>
+        <v>19.972602739726032</v>
       </c>
       <c r="K48" s="2">
-        <v>128.30136986301372</v>
+        <v>125.97123287671234</v>
       </c>
       <c r="L48" s="2">
-        <v>0.38259259259259298</v>
+        <v>0.35109259259259251</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B49" s="3">
         <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
@@ -2395,33 +2395,33 @@
         <v>360</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H49">
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I49">
         <v>5</v>
       </c>
       <c r="J49">
-        <v>30.575342465753426</v>
+        <v>27.616438356164387</v>
       </c>
       <c r="K49" s="2">
-        <v>137.10410958904109</v>
+        <v>133.99726027397261</v>
       </c>
       <c r="L49" s="2">
-        <v>0.37619444444444444</v>
+        <v>0.34469444444444453</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B50" s="3">
         <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
@@ -2433,33 +2433,33 @@
         <v>180</v>
       </c>
       <c r="G50" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H50">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I50">
         <v>10</v>
       </c>
       <c r="J50">
-        <v>7.397260273972603</v>
+        <v>5.9178082191780819</v>
       </c>
       <c r="K50" s="2">
-        <v>118.13698630136989</v>
+        <v>116.50958904109591</v>
       </c>
       <c r="L50" s="2">
-        <v>0.36777777777777826</v>
+        <v>0.33477777777777834</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B51" s="3">
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
@@ -2471,33 +2471,33 @@
         <v>270</v>
       </c>
       <c r="G51" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H51">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="I51">
         <v>10</v>
       </c>
       <c r="J51">
-        <v>15.534246575342465</v>
+        <v>13.315068493150683</v>
       </c>
       <c r="K51" s="2">
-        <v>127.08767123287672</v>
+        <v>124.64657534246575</v>
       </c>
       <c r="L51" s="2">
-        <v>0.36618518518518528</v>
+        <v>0.33318518518518514</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="1">
+        <v>28</v>
+      </c>
+      <c r="B52" s="3">
         <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
@@ -2509,33 +2509,33 @@
         <v>360</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H52">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I52">
         <v>10</v>
       </c>
       <c r="J52">
-        <v>23.671232876712327</v>
+        <v>21.698630136986303</v>
       </c>
       <c r="K52" s="2">
-        <v>136.03835616438357</v>
+        <v>133.86849315068494</v>
       </c>
       <c r="L52" s="2">
-        <v>0.3653888888888891</v>
+        <v>0.34338888888888897</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B53" s="1">
         <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -2547,33 +2547,33 @@
         <v>180</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H53">
-        <v>0.1925</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="I53">
         <v>10.9</v>
       </c>
       <c r="J53">
-        <v>9.493150684931507</v>
+        <v>10.109589041095891</v>
       </c>
       <c r="K53" s="2">
-        <v>121.42790410958905</v>
+        <v>122.11153424657535</v>
       </c>
       <c r="L53" s="2">
-        <v>0.43451027777777812</v>
+        <v>0.44837277777777795</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B54" s="1">
         <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
@@ -2585,33 +2585,33 @@
         <v>270</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H54">
-        <v>0.27500000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I54">
         <v>10.9</v>
       </c>
       <c r="J54">
-        <v>20.342465753424658</v>
+        <v>21.452054794520549</v>
       </c>
       <c r="K54" s="2">
-        <v>133.45979452054797</v>
+        <v>134.6903287671233</v>
       </c>
       <c r="L54" s="2">
-        <v>0.45232685185185217</v>
+        <v>0.46896185185185207</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B55" s="1">
         <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
@@ -2623,33 +2623,33 @@
         <v>360</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H55">
-        <v>0.32750000000000001</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="I55">
         <v>10.9</v>
       </c>
       <c r="J55">
-        <v>32.301369863013697</v>
+        <v>33.780821917808218</v>
       </c>
       <c r="K55" s="2">
-        <v>146.72221917808218</v>
+        <v>148.36293150684932</v>
       </c>
       <c r="L55" s="2">
-        <v>0.47371138888888892</v>
+        <v>0.49034638888888887</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B56" s="1">
         <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
@@ -2661,33 +2661,33 @@
         <v>180</v>
       </c>
       <c r="G56" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H56">
-        <v>0.1925</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="I56">
         <v>10.9</v>
       </c>
       <c r="J56">
-        <v>9.493150684931507</v>
+        <v>10.109589041095891</v>
       </c>
       <c r="K56" s="2">
-        <v>121.42790410958905</v>
+        <v>122.11153424657535</v>
       </c>
       <c r="L56" s="2">
-        <v>0.43451027777777812</v>
+        <v>0.44837277777777795</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B57" s="1">
         <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
@@ -2699,33 +2699,33 @@
         <v>270</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H57">
-        <v>0.27500000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I57">
         <v>10.9</v>
       </c>
       <c r="J57">
-        <v>20.342465753424658</v>
+        <v>21.452054794520549</v>
       </c>
       <c r="K57" s="2">
-        <v>133.45979452054797</v>
+        <v>134.6903287671233</v>
       </c>
       <c r="L57" s="2">
-        <v>0.45232685185185217</v>
+        <v>0.46896185185185207</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B58" s="1">
         <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
@@ -2737,349 +2737,349 @@
         <v>360</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H58">
-        <v>0.32750000000000001</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="I58">
         <v>10.9</v>
       </c>
       <c r="J58">
-        <v>32.301369863013697</v>
+        <v>33.780821917808218</v>
       </c>
       <c r="K58" s="2">
-        <v>146.72221917808218</v>
+        <v>148.36293150684932</v>
       </c>
       <c r="L58" s="2">
-        <v>0.47371138888888892</v>
+        <v>0.49034638888888887</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B59" s="1">
         <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59">
         <v>60</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>15</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59" s="2">
-        <v>114.99999999999999</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L59" s="2">
-        <v>0.91249999999999942</v>
+        <v>0.85166666666666735</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B60" s="1">
         <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60">
         <v>90</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L60" s="2">
-        <v>0.85166666666666657</v>
+        <v>0.81111111111111101</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B61" s="1">
         <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61">
         <v>120</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L61" s="2">
-        <v>0.79083333333333328</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B62" s="1">
         <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62">
         <v>60</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>17.39030612244898</v>
+        <v>9</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62" s="2">
-        <v>117.39030612244899</v>
+        <v>109.00000000000001</v>
       </c>
       <c r="L62" s="2">
-        <v>1.0579102891156467</v>
+        <v>0.54750000000000054</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B63" s="1">
         <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63">
         <v>90</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>26.192934316583777</v>
+        <v>12</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" s="2">
-        <v>126.19293431658379</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L63" s="2">
-        <v>1.0622690028392312</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B64" s="1">
         <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64">
         <v>120</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>36.435992578849721</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64" s="2">
-        <v>136.43599257884972</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L64" s="2">
-        <v>1.1082614409400127</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B65" s="1">
         <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F65">
         <v>150</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>48.504546373004636</v>
+        <v>17</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65" s="2">
-        <v>148.50454637300464</v>
+        <v>117</v>
       </c>
       <c r="L65" s="2">
-        <v>1.1802772950764466</v>
+        <v>0.41366666666666646</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B66" s="1">
         <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F66">
         <v>180</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>62.934338952972489</v>
+        <v>21</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>162.9343389529725</v>
+        <v>121</v>
       </c>
       <c r="L66" s="2">
-        <v>1.27616853987972</v>
+        <v>0.42583333333333329</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B67" s="1">
         <v>100</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F67">
         <v>60</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3099,25 +3099,25 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B68" s="1">
         <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68">
         <v>90</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3137,25 +3137,25 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B69" s="1">
         <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F69">
         <v>120</v>
       </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3175,25 +3175,25 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B70" s="1">
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F70">
         <v>150</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3213,25 +3213,25 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B71" s="1">
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F71">
         <v>180</v>
       </c>
       <c r="G71" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3251,25 +3251,25 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="1">
+        <v>100</v>
+      </c>
+      <c r="C72" t="s">
         <v>33</v>
       </c>
-      <c r="B72" s="1">
-        <v>100</v>
-      </c>
-      <c r="C72" t="s">
-        <v>23</v>
-      </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72">
         <v>60</v>
       </c>
       <c r="G72" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3289,25 +3289,25 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="1">
+        <v>100</v>
+      </c>
+      <c r="C73" t="s">
         <v>33</v>
       </c>
-      <c r="B73" s="1">
-        <v>100</v>
-      </c>
-      <c r="C73" t="s">
-        <v>23</v>
-      </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73">
         <v>90</v>
       </c>
       <c r="G73" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3327,25 +3327,25 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="1">
+        <v>100</v>
+      </c>
+      <c r="C74" t="s">
         <v>33</v>
       </c>
-      <c r="B74" s="1">
-        <v>100</v>
-      </c>
-      <c r="C74" t="s">
-        <v>23</v>
-      </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F74">
         <v>120</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3365,25 +3365,25 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="1">
+        <v>100</v>
+      </c>
+      <c r="C75" t="s">
         <v>33</v>
       </c>
-      <c r="B75" s="1">
-        <v>100</v>
-      </c>
-      <c r="C75" t="s">
-        <v>23</v>
-      </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F75">
         <v>150</v>
       </c>
       <c r="G75" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3403,25 +3403,25 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="1">
+        <v>100</v>
+      </c>
+      <c r="C76" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="1">
-        <v>100</v>
-      </c>
-      <c r="C76" t="s">
-        <v>23</v>
-      </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F76">
         <v>180</v>
       </c>
       <c r="G76" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3441,25 +3441,25 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B77" s="1">
         <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F77">
         <v>60</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3479,25 +3479,25 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B78" s="1">
         <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F78">
         <v>90</v>
       </c>
       <c r="G78" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3517,25 +3517,25 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B79" s="1">
         <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F79">
         <v>120</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3555,25 +3555,25 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B80" s="1">
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F80">
         <v>150</v>
       </c>
       <c r="G80" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3593,25 +3593,25 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B81" s="1">
         <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F81">
         <v>180</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3631,25 +3631,25 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B82" s="1">
         <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F82">
         <v>60</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3669,25 +3669,25 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B83" s="1">
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F83">
         <v>90</v>
       </c>
       <c r="G83" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3707,25 +3707,25 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B84" s="1">
         <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F84">
         <v>120</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3745,25 +3745,25 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B85" s="1">
         <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F85">
         <v>150</v>
       </c>
       <c r="G85" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3783,25 +3783,25 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B86" s="1">
         <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F86">
         <v>180</v>
       </c>
       <c r="G86" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3821,25 +3821,25 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B87" s="1">
         <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F87">
         <v>60</v>
       </c>
       <c r="G87" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3859,25 +3859,25 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B88" s="1">
         <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F88">
         <v>90</v>
       </c>
       <c r="G88" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3897,25 +3897,25 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B89" s="1">
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F89">
         <v>120</v>
       </c>
       <c r="G89" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3935,25 +3935,25 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B90" s="1">
         <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F90">
         <v>150</v>
       </c>
       <c r="G90" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3973,25 +3973,25 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B91" s="1">
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F91">
         <v>180</v>
       </c>
       <c r="G91" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4011,25 +4011,25 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B92" s="1">
         <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F92">
         <v>60</v>
       </c>
       <c r="G92" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4049,25 +4049,25 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B93" s="1">
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F93">
         <v>90</v>
       </c>
       <c r="G93" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4087,25 +4087,25 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B94" s="1">
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F94">
         <v>120</v>
       </c>
       <c r="G94" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -4125,25 +4125,25 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B95" s="1">
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F95">
         <v>150</v>
       </c>
       <c r="G95" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4163,25 +4163,25 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B96" s="1">
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F96">
         <v>180</v>
       </c>
       <c r="G96" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4201,25 +4201,25 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B97" s="1">
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F97">
         <v>60</v>
       </c>
       <c r="G97" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4239,25 +4239,25 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B98" s="1">
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F98">
         <v>90</v>
       </c>
       <c r="G98" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4277,25 +4277,25 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B99" s="1">
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F99">
         <v>120</v>
       </c>
       <c r="G99" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4315,25 +4315,25 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B100" s="1">
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F100">
         <v>150</v>
       </c>
       <c r="G100" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4353,25 +4353,25 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B101" s="1">
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F101">
         <v>180</v>
       </c>
       <c r="G101" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4391,215 +4391,215 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B102" s="1">
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E102" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F102">
         <v>60</v>
       </c>
       <c r="G102" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H102">
-        <v>0.4123148148148158</v>
+        <v>0.37047499999999972</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102">
-        <v>6.7777777777777937</v>
+        <v>6.0899999999999954</v>
       </c>
       <c r="K102" s="2">
-        <v>108.91333333333336</v>
+        <v>108.2118</v>
       </c>
       <c r="L102" s="2">
-        <v>0.54222777777777886</v>
+        <v>0.4995511666666661</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B103" s="1">
         <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E103" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F103">
         <v>90</v>
       </c>
       <c r="G103" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H103">
-        <v>0.41922427983539168</v>
+        <v>0.37605950000000005</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103">
-        <v>10.337037037037057</v>
+        <v>9.2727000000000004</v>
       </c>
       <c r="K103" s="2">
-        <v>112.54377777777779</v>
+        <v>111.45815400000001</v>
       </c>
       <c r="L103" s="2">
-        <v>0.50871987654321071</v>
+        <v>0.46469180111111147</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B104" s="1">
         <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F104">
         <v>180</v>
       </c>
       <c r="G104" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H104">
-        <v>0.44089196437281025</v>
+        <v>0.3934949346282498</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104">
-        <v>21.742617421124887</v>
+        <v>19.40522965289999</v>
       </c>
       <c r="K104" s="2">
-        <v>124.17746976954739</v>
+        <v>121.79333424595799</v>
       </c>
       <c r="L104" s="2">
-        <v>0.49026535921582182</v>
+        <v>0.44192038887637047</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B105" s="1">
         <v>100</v>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F105">
         <v>270</v>
       </c>
       <c r="G105" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H105">
-        <v>0.53102557451229182</v>
+        <v>0.47727539616300035</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105">
-        <v>39.28134386803255</v>
+        <v>35.305303277810985</v>
       </c>
       <c r="K105" s="2">
-        <v>142.06697074539321</v>
+        <v>138.01140934336721</v>
       </c>
       <c r="L105" s="2">
-        <v>0.5686831230395748</v>
+        <v>0.5138579411232973</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B106" s="1">
         <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F106">
         <v>360</v>
       </c>
       <c r="G106" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H106">
-        <v>0.56316897486376016</v>
+        <v>0.50342973718368167</v>
       </c>
       <c r="I106">
         <v>2</v>
       </c>
       <c r="J106">
-        <v>55.545433137247578</v>
+        <v>49.653343941404223</v>
       </c>
       <c r="K106" s="2">
-        <v>158.65634179999253</v>
+        <v>152.64641082023229</v>
       </c>
       <c r="L106" s="2">
-        <v>0.59471013213881307</v>
+        <v>0.53377610970513301</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B107" s="1">
         <v>100</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F107">
         <v>60</v>
       </c>
       <c r="G107" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H107">
         <v>0.38</v>
@@ -4619,25 +4619,25 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B108" s="1">
         <v>100</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F108">
         <v>90</v>
       </c>
       <c r="G108" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H108">
         <v>0.38</v>
@@ -4657,25 +4657,25 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B109" s="1">
         <v>100</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E109" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F109">
         <v>180</v>
       </c>
       <c r="G109" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H109">
         <v>0.38</v>
@@ -4695,25 +4695,25 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B110" s="1">
         <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F110">
         <v>270</v>
       </c>
       <c r="G110" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H110">
         <v>0.38</v>
@@ -4733,25 +4733,25 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B111" s="1">
         <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F111">
         <v>360</v>
       </c>
       <c r="G111" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H111">
         <v>0.38</v>
@@ -4771,215 +4771,215 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B112" s="1">
         <v>100</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F112">
         <v>60</v>
       </c>
       <c r="G112" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H112">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>4.9315068493150687</v>
+        <v>5.2602739726027403</v>
       </c>
       <c r="K112" s="2">
-        <v>107.03013698630137</v>
+        <v>107.36547945205479</v>
       </c>
       <c r="L112" s="2">
-        <v>0.42766666666666681</v>
+        <v>0.44806666666666639</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B113" s="1">
         <v>100</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F113">
         <v>90</v>
       </c>
       <c r="G113" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H113">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>7.397260273972603</v>
+        <v>7.8904109589041092</v>
       </c>
       <c r="K113" s="2">
-        <v>109.54520547945205</v>
+        <v>110.04821917808219</v>
       </c>
       <c r="L113" s="2">
-        <v>0.38711111111111118</v>
+        <v>0.40751111111111088</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B114" s="1">
         <v>100</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E114" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F114">
         <v>180</v>
       </c>
       <c r="G114" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H114">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114">
-        <v>14.794520547945206</v>
+        <v>15.780821917808218</v>
       </c>
       <c r="K114" s="2">
-        <v>117.09041095890412</v>
+        <v>118.09643835616437</v>
       </c>
       <c r="L114" s="2">
-        <v>0.34655555555555562</v>
+        <v>0.3669555555555552</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B115" s="1">
         <v>100</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E115" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F115">
         <v>270</v>
       </c>
       <c r="G115" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H115">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115">
-        <v>22.191780821917806</v>
+        <v>23.671232876712327</v>
       </c>
       <c r="K115" s="2">
-        <v>124.63561643835618</v>
+        <v>126.14465753424658</v>
       </c>
       <c r="L115" s="2">
-        <v>0.33303703703703735</v>
+        <v>0.35343703703703705</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B116" s="1">
         <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F116">
         <v>360</v>
       </c>
       <c r="G116" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H116">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>29.589041095890412</v>
+        <v>31.561643835616437</v>
       </c>
       <c r="K116" s="2">
-        <v>132.18082191780823</v>
+        <v>134.19287671232877</v>
       </c>
       <c r="L116" s="2">
-        <v>0.32627777777777778</v>
+        <v>0.34667777777777786</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B117" s="1">
         <v>100</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E117" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F117">
         <v>60</v>
       </c>
       <c r="G117" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H117">
         <v>0.49</v>
@@ -4999,25 +4999,25 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B118" s="1">
         <v>100</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E118" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F118">
         <v>90</v>
       </c>
       <c r="G118" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H118">
         <v>0.49</v>
@@ -5037,25 +5037,25 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B119" s="1">
         <v>100</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E119" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F119">
         <v>180</v>
       </c>
       <c r="G119" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H119">
         <v>0.49</v>
@@ -5075,25 +5075,25 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B120" s="1">
         <v>100</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F120">
         <v>270</v>
       </c>
       <c r="G120" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H120">
         <v>0.49</v>
@@ -5113,25 +5113,25 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B121" s="1">
         <v>100</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E121" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F121">
         <v>360</v>
       </c>
       <c r="G121" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H121">
         <v>0.49</v>

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D75DD4-9B7B-4D42-BFDD-E1C55CD94568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFB8F53-9872-4945-88DF-1F3FC8500DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -1068,19 +1068,19 @@
         <v>19</v>
       </c>
       <c r="H14">
-        <v>6.5000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="I14">
         <v>3.1</v>
       </c>
       <c r="J14">
-        <v>1.6027397260273972</v>
+        <v>1.2328767123287672</v>
       </c>
       <c r="K14" s="2">
-        <v>104.75242465753425</v>
+        <v>104.37109589041096</v>
       </c>
       <c r="L14" s="2">
-        <v>0.19273722222222231</v>
+        <v>0.17727222222222219</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1106,19 +1106,19 @@
         <v>19</v>
       </c>
       <c r="H15">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I15">
         <v>3.1</v>
       </c>
       <c r="J15">
-        <v>3.4520547945205484</v>
+        <v>3.2054794520547945</v>
       </c>
       <c r="K15" s="2">
-        <v>106.65906849315068</v>
+        <v>106.4048493150685</v>
       </c>
       <c r="L15" s="2">
-        <v>0.13503111111111096</v>
+        <v>0.12987611111111139</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1261,16 +1261,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8.2000000000000011</v>
+        <v>7.8</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>108.2</v>
+        <v>107.80000000000001</v>
       </c>
       <c r="L19" s="2">
-        <v>0.11085185185185195</v>
+        <v>0.10544444444444454</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.6</v>
+        <v>11.899999999999999</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>112.6</v>
+        <v>111.9</v>
       </c>
       <c r="L20" s="2">
-        <v>0.12774999999999989</v>
+        <v>0.12065277777777778</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1334,19 +1334,19 @@
         <v>19</v>
       </c>
       <c r="H21">
-        <v>0.115</v>
+        <v>0.1075</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>11.342465753424658</v>
+        <v>10.602739726027398</v>
       </c>
       <c r="K21" s="2">
-        <v>112.4558904109589</v>
+        <v>111.70876712328766</v>
       </c>
       <c r="L21" s="2">
-        <v>0.12628888888888878</v>
+        <v>0.11871388888888873</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1714,19 +1714,19 @@
         <v>26</v>
       </c>
       <c r="H31">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="I31">
         <v>14.899999999999999</v>
       </c>
       <c r="J31">
-        <v>17.753424657534246</v>
+        <v>19.726027397260275</v>
       </c>
       <c r="K31" s="2">
-        <v>135.29868493150684</v>
+        <v>137.56520547945206</v>
       </c>
       <c r="L31" s="2">
-        <v>0.71577888888888885</v>
+        <v>0.76173888888888897</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1752,19 +1752,19 @@
         <v>26</v>
       </c>
       <c r="H32">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="I32">
         <v>14.899999999999999</v>
       </c>
       <c r="J32">
-        <v>28.849315068493155</v>
+        <v>30.328767123287669</v>
       </c>
       <c r="K32" s="2">
-        <v>148.04786301369865</v>
+        <v>149.74775342465753</v>
       </c>
       <c r="L32" s="2">
-        <v>0.64953592592592624</v>
+        <v>0.67251592592592602</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1828,19 +1828,19 @@
         <v>26</v>
       </c>
       <c r="H34">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="I34">
         <v>14.899999999999999</v>
       </c>
       <c r="J34">
-        <v>18.739726027397261</v>
+        <v>20.712328767123285</v>
       </c>
       <c r="K34" s="2">
-        <v>136.43194520547945</v>
+        <v>138.69846575342464</v>
       </c>
       <c r="L34" s="2">
-        <v>0.73875888888888896</v>
+        <v>0.78471888888888841</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1866,19 +1866,19 @@
         <v>26</v>
       </c>
       <c r="H35">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="I35">
         <v>14.899999999999999</v>
       </c>
       <c r="J35">
-        <v>30.328767123287669</v>
+        <v>31.808219178082194</v>
       </c>
       <c r="K35" s="2">
-        <v>149.74775342465753</v>
+        <v>151.44764383561645</v>
       </c>
       <c r="L35" s="2">
-        <v>0.67251592592592602</v>
+        <v>0.69549592592592591</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1904,19 +1904,19 @@
         <v>26</v>
       </c>
       <c r="H36">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="I36">
         <v>14.899999999999999</v>
       </c>
       <c r="J36">
-        <v>44.38356164383562</v>
+        <v>43.397260273972606</v>
       </c>
       <c r="K36" s="2">
-        <v>165.89671232876714</v>
+        <v>164.76345205479453</v>
       </c>
       <c r="L36" s="2">
-        <v>0.66811944444444449</v>
+        <v>0.65662944444444449</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2208,19 +2208,19 @@
         <v>26</v>
       </c>
       <c r="H44">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="I44">
         <v>0.5</v>
       </c>
       <c r="J44">
-        <v>16.767123287671236</v>
+        <v>17.753424657534246</v>
       </c>
       <c r="K44" s="2">
-        <v>117.35095890410959</v>
+        <v>118.34219178082189</v>
       </c>
       <c r="L44" s="2">
-        <v>0.3518388888888887</v>
+        <v>0.37193888888888815</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2246,19 +2246,19 @@
         <v>26</v>
       </c>
       <c r="H45">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="I45">
         <v>0.5</v>
       </c>
       <c r="J45">
-        <v>25.150684931506852</v>
+        <v>26.630136986301366</v>
       </c>
       <c r="K45" s="2">
-        <v>125.77643835616436</v>
+        <v>127.26328767123286</v>
       </c>
       <c r="L45" s="2">
-        <v>0.34845925925925902</v>
+        <v>0.36855925925925886</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2284,19 +2284,19 @@
         <v>26</v>
       </c>
       <c r="H46">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="I46">
         <v>0.5</v>
       </c>
       <c r="J46">
-        <v>33.534246575342472</v>
+        <v>35.506849315068493</v>
       </c>
       <c r="K46" s="2">
-        <v>134.20191780821918</v>
+        <v>136.18438356164381</v>
       </c>
       <c r="L46" s="2">
-        <v>0.34676944444444441</v>
+        <v>0.36686944444444425</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2322,19 +2322,19 @@
         <v>26</v>
       </c>
       <c r="H47">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="I47">
         <v>5</v>
       </c>
       <c r="J47">
-        <v>11.835616438356164</v>
+        <v>12.821917808219178</v>
       </c>
       <c r="K47" s="2">
-        <v>117.42739726027396</v>
+        <v>118.46301369863014</v>
       </c>
       <c r="L47" s="2">
-        <v>0.35338888888888859</v>
+        <v>0.37438888888888872</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2360,19 +2360,19 @@
         <v>26</v>
       </c>
       <c r="H48">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I48">
         <v>5</v>
       </c>
       <c r="J48">
-        <v>19.972602739726032</v>
+        <v>21.452054794520549</v>
       </c>
       <c r="K48" s="2">
-        <v>125.97123287671234</v>
+        <v>127.52465753424657</v>
       </c>
       <c r="L48" s="2">
-        <v>0.35109259259259251</v>
+        <v>0.37209259259259259</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2398,19 +2398,19 @@
         <v>26</v>
       </c>
       <c r="H49">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="I49">
         <v>5</v>
       </c>
       <c r="J49">
-        <v>27.616438356164387</v>
+        <v>29.589041095890412</v>
       </c>
       <c r="K49" s="2">
-        <v>133.99726027397261</v>
+        <v>136.06849315068496</v>
       </c>
       <c r="L49" s="2">
-        <v>0.34469444444444453</v>
+        <v>0.36569444444444477</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2436,19 +2436,19 @@
         <v>26</v>
       </c>
       <c r="H50">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I50">
         <v>10</v>
       </c>
       <c r="J50">
-        <v>5.9178082191780819</v>
+        <v>6.9041095890410968</v>
       </c>
       <c r="K50" s="2">
-        <v>116.50958904109591</v>
+        <v>117.59452054794524</v>
       </c>
       <c r="L50" s="2">
-        <v>0.33477777777777834</v>
+        <v>0.35677777777777842</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2474,19 +2474,19 @@
         <v>26</v>
       </c>
       <c r="H51">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I51">
         <v>10</v>
       </c>
       <c r="J51">
-        <v>13.315068493150683</v>
+        <v>14.794520547945208</v>
       </c>
       <c r="K51" s="2">
-        <v>124.64657534246575</v>
+        <v>126.27397260273975</v>
       </c>
       <c r="L51" s="2">
-        <v>0.33318518518518514</v>
+        <v>0.35518518518518533</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2512,19 +2512,19 @@
         <v>26</v>
       </c>
       <c r="H52">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I52">
         <v>10</v>
       </c>
       <c r="J52">
-        <v>21.698630136986303</v>
+        <v>22.684931506849317</v>
       </c>
       <c r="K52" s="2">
-        <v>133.86849315068494</v>
+        <v>134.95342465753427</v>
       </c>
       <c r="L52" s="2">
-        <v>0.34338888888888897</v>
+        <v>0.35438888888888903</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2550,19 +2550,19 @@
         <v>26</v>
       </c>
       <c r="H53">
-        <v>0.20499999999999999</v>
+        <v>0.27750000000000002</v>
       </c>
       <c r="I53">
         <v>10.9</v>
       </c>
       <c r="J53">
-        <v>10.109589041095891</v>
+        <v>13.684931506849315</v>
       </c>
       <c r="K53" s="2">
-        <v>122.11153424657535</v>
+        <v>126.07658904109589</v>
       </c>
       <c r="L53" s="2">
-        <v>0.44837277777777795</v>
+        <v>0.52877527777777777</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2588,19 +2588,19 @@
         <v>26</v>
       </c>
       <c r="H54">
-        <v>0.28999999999999998</v>
+        <v>0.36749999999999999</v>
       </c>
       <c r="I54">
         <v>10.9</v>
       </c>
       <c r="J54">
-        <v>21.452054794520549</v>
+        <v>27.184931506849313</v>
       </c>
       <c r="K54" s="2">
-        <v>134.6903287671233</v>
+        <v>141.04808904109589</v>
       </c>
       <c r="L54" s="2">
-        <v>0.46896185185185207</v>
+        <v>0.55490935185185186</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2626,19 +2626,19 @@
         <v>26</v>
       </c>
       <c r="H55">
-        <v>0.34250000000000003</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="I55">
         <v>10.9</v>
       </c>
       <c r="J55">
-        <v>33.780821917808218</v>
+        <v>42.164383561643838</v>
       </c>
       <c r="K55" s="2">
-        <v>148.36293150684932</v>
+        <v>157.66030136986302</v>
       </c>
       <c r="L55" s="2">
-        <v>0.49034638888888887</v>
+        <v>0.58461138888888897</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2664,19 +2664,19 @@
         <v>26</v>
       </c>
       <c r="H56">
-        <v>0.20499999999999999</v>
+        <v>0.27750000000000002</v>
       </c>
       <c r="I56">
         <v>10.9</v>
       </c>
       <c r="J56">
-        <v>10.109589041095891</v>
+        <v>13.684931506849315</v>
       </c>
       <c r="K56" s="2">
-        <v>122.11153424657535</v>
+        <v>126.07658904109589</v>
       </c>
       <c r="L56" s="2">
-        <v>0.44837277777777795</v>
+        <v>0.52877527777777777</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2702,19 +2702,19 @@
         <v>26</v>
       </c>
       <c r="H57">
-        <v>0.28999999999999998</v>
+        <v>0.36749999999999999</v>
       </c>
       <c r="I57">
         <v>10.9</v>
       </c>
       <c r="J57">
-        <v>21.452054794520549</v>
+        <v>27.184931506849313</v>
       </c>
       <c r="K57" s="2">
-        <v>134.6903287671233</v>
+        <v>141.04808904109589</v>
       </c>
       <c r="L57" s="2">
-        <v>0.46896185185185207</v>
+        <v>0.55490935185185186</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2740,19 +2740,19 @@
         <v>26</v>
       </c>
       <c r="H58">
-        <v>0.34250000000000003</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="I58">
         <v>10.9</v>
       </c>
       <c r="J58">
-        <v>33.780821917808218</v>
+        <v>42.164383561643838</v>
       </c>
       <c r="K58" s="2">
-        <v>148.36293150684932</v>
+        <v>157.66030136986302</v>
       </c>
       <c r="L58" s="2">
-        <v>0.49034638888888887</v>
+        <v>0.58461138888888897</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4792,19 +4792,19 @@
         <v>26</v>
       </c>
       <c r="H112">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>5.2602739726027403</v>
+        <v>5.589041095890412</v>
       </c>
       <c r="K112" s="2">
-        <v>107.36547945205479</v>
+        <v>107.70082191780821</v>
       </c>
       <c r="L112" s="2">
-        <v>0.44806666666666639</v>
+        <v>0.46846666666666609</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4830,19 +4830,19 @@
         <v>26</v>
       </c>
       <c r="H113">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>7.8904109589041092</v>
+        <v>8.383561643835618</v>
       </c>
       <c r="K113" s="2">
-        <v>110.04821917808219</v>
+        <v>110.55123287671233</v>
       </c>
       <c r="L113" s="2">
-        <v>0.40751111111111088</v>
+        <v>0.42791111111111141</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -4868,19 +4868,19 @@
         <v>26</v>
       </c>
       <c r="H114">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114">
-        <v>15.780821917808218</v>
+        <v>16.767123287671236</v>
       </c>
       <c r="K114" s="2">
-        <v>118.09643835616437</v>
+        <v>119.10246575342467</v>
       </c>
       <c r="L114" s="2">
-        <v>0.3669555555555552</v>
+        <v>0.38735555555555579</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4906,19 +4906,19 @@
         <v>26</v>
       </c>
       <c r="H115">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115">
-        <v>23.671232876712327</v>
+        <v>25.150684931506852</v>
       </c>
       <c r="K115" s="2">
-        <v>126.14465753424658</v>
+        <v>127.65369863013699</v>
       </c>
       <c r="L115" s="2">
-        <v>0.35343703703703705</v>
+        <v>0.37383703703703697</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -4944,19 +4944,19 @@
         <v>26</v>
       </c>
       <c r="H116">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>31.561643835616437</v>
+        <v>33.534246575342472</v>
       </c>
       <c r="K116" s="2">
-        <v>134.19287671232877</v>
+        <v>136.20493150684933</v>
       </c>
       <c r="L116" s="2">
-        <v>0.34667777777777786</v>
+        <v>0.36707777777777795</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -4982,19 +4982,19 @@
         <v>26</v>
       </c>
       <c r="H117">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
       <c r="J117">
-        <v>8.0547945205479454</v>
+        <v>7.397260273972603</v>
       </c>
       <c r="K117" s="2">
-        <v>110.21589041095889</v>
+        <v>109.54520547945205</v>
       </c>
       <c r="L117" s="2">
-        <v>0.62146666666666606</v>
+        <v>0.58066666666666678</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -5020,19 +5020,19 @@
         <v>26</v>
       </c>
       <c r="H118">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="I118">
         <v>2</v>
       </c>
       <c r="J118">
-        <v>12.082191780821917</v>
+        <v>11.095890410958905</v>
       </c>
       <c r="K118" s="2">
-        <v>114.32383561643836</v>
+        <v>113.31780821917809</v>
       </c>
       <c r="L118" s="2">
-        <v>0.58091111111111093</v>
+        <v>0.54011111111111165</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5058,19 +5058,19 @@
         <v>26</v>
       </c>
       <c r="H119">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119">
-        <v>24.164383561643834</v>
+        <v>22.19178082191781</v>
       </c>
       <c r="K119" s="2">
-        <v>126.6476712328767</v>
+        <v>124.63561643835618</v>
       </c>
       <c r="L119" s="2">
-        <v>0.54035555555555526</v>
+        <v>0.49955555555555609</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5096,19 +5096,19 @@
         <v>26</v>
       </c>
       <c r="H120">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="I120">
         <v>2</v>
       </c>
       <c r="J120">
-        <v>36.246575342465754</v>
+        <v>33.287671232876711</v>
       </c>
       <c r="K120" s="2">
-        <v>138.97150684931506</v>
+        <v>135.95342465753424</v>
       </c>
       <c r="L120" s="2">
-        <v>0.52683703703703677</v>
+        <v>0.48603703703703693</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -5134,19 +5134,19 @@
         <v>26</v>
       </c>
       <c r="H121">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="I121">
         <v>2</v>
       </c>
       <c r="J121">
-        <v>48.328767123287669</v>
+        <v>44.38356164383562</v>
       </c>
       <c r="K121" s="2">
-        <v>151.29534246575341</v>
+        <v>147.27123287671233</v>
       </c>
       <c r="L121" s="2">
-        <v>0.52007777777777753</v>
+        <v>0.4792777777777778</v>
       </c>
     </row>
   </sheetData>

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFB8F53-9872-4945-88DF-1F3FC8500DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E06D327-ADA1-4863-97C8-7F3EB487E78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="39">
   <si>
     <t>Precio de contado</t>
   </si>
@@ -186,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,16 +194,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -539,11 +553,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F38534-621C-456A-88D0-E73BF73C904A}">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L121"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1372,19 +1384,19 @@
         <v>19</v>
       </c>
       <c r="H22">
-        <v>1.4999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I22">
         <v>2.1</v>
       </c>
       <c r="J22">
-        <v>0.73972602739726023</v>
+        <v>1.7260273972602742</v>
       </c>
       <c r="K22" s="2">
-        <v>102.8552602739726</v>
+        <v>103.86227397260272</v>
       </c>
       <c r="L22" s="2">
-        <v>5.7898333333333364E-2</v>
+        <v>7.8318333333333046E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1410,19 +1422,19 @@
         <v>19</v>
       </c>
       <c r="H23">
-        <v>0.04</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I23">
         <v>2.1</v>
       </c>
       <c r="J23">
-        <v>2.3013698630136985</v>
+        <v>2.5890410958904106</v>
       </c>
       <c r="K23" s="2">
-        <v>104.44969863013698</v>
+        <v>104.74341095890411</v>
       </c>
       <c r="L23" s="2">
-        <v>7.7339999999999853E-2</v>
+        <v>8.2445000000000102E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1448,19 +1460,19 @@
         <v>19</v>
       </c>
       <c r="H24">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I24">
         <v>2.1</v>
       </c>
       <c r="J24">
-        <v>5.1780821917808222</v>
+        <v>5.5479452054794516</v>
       </c>
       <c r="K24" s="2">
-        <v>107.38682191780821</v>
+        <v>107.76445205479452</v>
       </c>
       <c r="L24" s="2">
-        <v>9.9858888888888567E-2</v>
+        <v>0.10496388888888894</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1654,40 +1666,40 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="1">
-        <v>100</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="5">
+        <v>100</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30">
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="4">
         <v>360</v>
       </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30">
+      <c r="G30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="4">
         <v>0.39</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="4">
         <v>10</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="4">
         <v>38.465753424657535</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="6">
         <v>152.31232876712329</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="6">
         <v>0.53038888888888891</v>
       </c>
     </row>
@@ -1699,7 +1711,7 @@
         <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -1708,25 +1720,25 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s">
         <v>26</v>
       </c>
-      <c r="H31">
-        <v>0.4</v>
+      <c r="H31" s="7">
+        <v>0.34</v>
       </c>
       <c r="I31">
-        <v>14.899999999999999</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="J31">
-        <v>19.726027397260275</v>
+        <v>8.383561643835618</v>
       </c>
       <c r="K31" s="2">
-        <v>137.56520547945206</v>
+        <v>110.33446575342467</v>
       </c>
       <c r="L31" s="2">
-        <v>0.76173888888888897</v>
+        <v>0.41912000000000055</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1737,7 +1749,7 @@
         <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -1746,25 +1758,25 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G32" t="s">
         <v>26</v>
       </c>
-      <c r="H32">
-        <v>0.41</v>
+      <c r="H32" s="7">
+        <v>0.37</v>
       </c>
       <c r="I32">
-        <v>14.899999999999999</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="J32">
-        <v>30.328767123287669</v>
+        <v>18.246575342465754</v>
       </c>
       <c r="K32" s="2">
-        <v>149.74775342465753</v>
+        <v>120.37501369863013</v>
       </c>
       <c r="L32" s="2">
-        <v>0.67251592592592602</v>
+        <v>0.41315999999999986</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1775,7 +1787,7 @@
         <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -1784,63 +1796,63 @@
         <v>12</v>
       </c>
       <c r="F33">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G33" t="s">
         <v>26</v>
       </c>
-      <c r="H33">
-        <v>0.42</v>
+      <c r="H33" s="7">
+        <v>0.40500000000000003</v>
       </c>
       <c r="I33">
-        <v>14.899999999999999</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="J33">
-        <v>41.42465753424657</v>
+        <v>29.958904109589042</v>
       </c>
       <c r="K33" s="2">
-        <v>162.49693150684934</v>
+        <v>132.29816438356164</v>
       </c>
       <c r="L33" s="2">
-        <v>0.63364944444444471</v>
+        <v>0.4366233333333332</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1">
         <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F34">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G34" t="s">
         <v>26</v>
       </c>
-      <c r="H34">
-        <v>0.42</v>
+      <c r="H34" s="7">
+        <v>0.43</v>
       </c>
       <c r="I34">
-        <v>14.899999999999999</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="J34">
-        <v>20.712328767123285</v>
+        <v>42.410958904109592</v>
       </c>
       <c r="K34" s="2">
-        <v>138.69846575342464</v>
+        <v>144.97435616438358</v>
       </c>
       <c r="L34" s="2">
-        <v>0.78471888888888841</v>
+        <v>0.45599000000000023</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1851,34 +1863,34 @@
         <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F35">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s">
         <v>26</v>
       </c>
-      <c r="H35">
-        <v>0.43</v>
+      <c r="H35" s="7">
+        <v>0.37</v>
       </c>
       <c r="I35">
-        <v>14.899999999999999</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="J35">
-        <v>31.808219178082194</v>
+        <v>9.1232876712328768</v>
       </c>
       <c r="K35" s="2">
-        <v>151.44764383561645</v>
+        <v>111.08750684931506</v>
       </c>
       <c r="L35" s="2">
-        <v>0.69549592592592591</v>
+        <v>0.44965999999999939</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1889,126 +1901,126 @@
         <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F36">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G36" t="s">
         <v>26</v>
       </c>
-      <c r="H36">
-        <v>0.44</v>
+      <c r="H36" s="7">
+        <v>0.4</v>
       </c>
       <c r="I36">
-        <v>14.899999999999999</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="J36">
-        <v>43.397260273972606</v>
+        <v>19.726027397260275</v>
       </c>
       <c r="K36" s="2">
-        <v>164.76345205479453</v>
+        <v>121.88109589041096</v>
       </c>
       <c r="L36" s="2">
-        <v>0.65662944444444449</v>
+        <v>0.44370000000000009</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B37" s="1">
         <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F37">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G37" t="s">
         <v>26</v>
       </c>
-      <c r="H37">
-        <v>0.68</v>
+      <c r="H37" s="7">
+        <v>0.43</v>
       </c>
       <c r="I37">
-        <v>5.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="J37">
-        <v>33.534246575342472</v>
+        <v>31.808219178082194</v>
       </c>
       <c r="K37" s="2">
-        <v>140.61156164383561</v>
+        <v>134.18076712328767</v>
       </c>
       <c r="L37" s="2">
-        <v>0.82351222222222209</v>
+        <v>0.46207333333333317</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="1">
-        <v>100</v>
-      </c>
-      <c r="C38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38">
-        <v>240</v>
-      </c>
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38">
-        <v>0.76319999999999999</v>
-      </c>
-      <c r="I38">
-        <v>5.3</v>
-      </c>
-      <c r="J38">
-        <v>50.183013698630127</v>
-      </c>
-      <c r="K38" s="2">
-        <v>158.14271342465753</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0.88425376666666655</v>
+      <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="5">
+        <v>100</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="4">
+        <v>360</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="J38" s="4">
+        <v>43.890410958904106</v>
+      </c>
+      <c r="K38" s="6">
+        <v>146.48043835616437</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0.4712599999999999</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1">
         <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39">
@@ -2018,106 +2030,106 @@
         <v>26</v>
       </c>
       <c r="H39">
-        <v>0.77429999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="I39">
-        <v>5.3</v>
+        <v>3.1</v>
       </c>
       <c r="J39">
-        <v>38.184657534246568</v>
+        <v>19.232876712328768</v>
       </c>
       <c r="K39" s="2">
-        <v>145.50844438356162</v>
+        <v>122.92909589041095</v>
       </c>
       <c r="L39" s="2">
-        <v>0.92281012222222203</v>
+        <v>0.46495111111111082</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1">
         <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F40">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="G40" t="s">
         <v>26</v>
       </c>
       <c r="H40">
-        <v>0.8075</v>
+        <v>0.4</v>
       </c>
       <c r="I40">
-        <v>5.3</v>
+        <v>3.1</v>
       </c>
       <c r="J40">
-        <v>53.095890410958901</v>
+        <v>29.589041095890416</v>
       </c>
       <c r="K40" s="2">
-        <v>161.20997260273973</v>
+        <v>133.60630136986302</v>
       </c>
       <c r="L40" s="2">
-        <v>0.93090166666666663</v>
+        <v>0.45430740740740755</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1">
         <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F41">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G41" t="s">
         <v>26</v>
       </c>
       <c r="H41">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="J41">
-        <v>17.260273972602739</v>
+        <v>40.438356164383563</v>
       </c>
       <c r="K41" s="2">
-        <v>119.60547945205479</v>
+        <v>144.79194520547944</v>
       </c>
       <c r="L41" s="2">
-        <v>0.39755555555555561</v>
+        <v>0.45414055555555544</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" s="1">
         <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -2126,36 +2138,36 @@
         <v>12</v>
       </c>
       <c r="F42">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="G42" t="s">
         <v>26</v>
       </c>
       <c r="H42">
-        <v>0.35499999999999998</v>
+        <v>0.41</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="J42">
-        <v>20.424657534246574</v>
+        <v>20.219178082191782</v>
       </c>
       <c r="K42" s="2">
-        <v>122.83315068493151</v>
+        <v>123.94597260273972</v>
       </c>
       <c r="L42" s="2">
-        <v>0.39686190476190469</v>
+        <v>0.48557111111111095</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43" s="1">
         <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -2170,30 +2182,30 @@
         <v>26</v>
       </c>
       <c r="H43">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="J43">
-        <v>26.630136986301366</v>
+        <v>31.06849315068493</v>
       </c>
       <c r="K43" s="2">
-        <v>129.16273972602738</v>
+        <v>135.13161643835613</v>
       </c>
       <c r="L43" s="2">
-        <v>0.39423703703703689</v>
+        <v>0.47492740740740708</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B44" s="1">
         <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -2202,36 +2214,36 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G44" t="s">
         <v>26</v>
       </c>
       <c r="H44">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="I44">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="J44">
-        <v>17.753424657534246</v>
+        <v>42.410958904109592</v>
       </c>
       <c r="K44" s="2">
-        <v>118.34219178082189</v>
+        <v>146.825698630137</v>
       </c>
       <c r="L44" s="2">
-        <v>0.37193888888888815</v>
+        <v>0.47476055555555557</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="3">
+        <v>17</v>
+      </c>
+      <c r="B45" s="1">
         <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -2240,36 +2252,36 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G45" t="s">
         <v>26</v>
       </c>
       <c r="H45">
-        <v>0.36</v>
+        <v>0.68</v>
       </c>
       <c r="I45">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="J45">
-        <v>26.630136986301366</v>
+        <v>33.534246575342472</v>
       </c>
       <c r="K45" s="2">
-        <v>127.26328767123286</v>
+        <v>140.61156164383561</v>
       </c>
       <c r="L45" s="2">
-        <v>0.36855925925925886</v>
+        <v>0.82351222222222209</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="3">
+        <v>17</v>
+      </c>
+      <c r="B46" s="1">
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -2278,36 +2290,36 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="G46" t="s">
         <v>26</v>
       </c>
       <c r="H46">
-        <v>0.36</v>
+        <v>0.76319999999999999</v>
       </c>
       <c r="I46">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="J46">
-        <v>35.506849315068493</v>
+        <v>50.183013698630127</v>
       </c>
       <c r="K46" s="2">
-        <v>136.18438356164381</v>
+        <v>158.14271342465753</v>
       </c>
       <c r="L46" s="2">
-        <v>0.36686944444444425</v>
+        <v>0.88425376666666655</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="3">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1">
         <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
@@ -2322,30 +2334,30 @@
         <v>26</v>
       </c>
       <c r="H47">
-        <v>0.26</v>
+        <v>0.77429999999999999</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J47">
-        <v>12.821917808219178</v>
+        <v>38.184657534246568</v>
       </c>
       <c r="K47" s="2">
-        <v>118.46301369863014</v>
+        <v>145.50844438356162</v>
       </c>
       <c r="L47" s="2">
-        <v>0.37438888888888872</v>
+        <v>0.92281012222222203</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="3">
+        <v>20</v>
+      </c>
+      <c r="B48" s="1">
         <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -2354,36 +2366,36 @@
         <v>12</v>
       </c>
       <c r="F48">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="G48" t="s">
         <v>26</v>
       </c>
       <c r="H48">
-        <v>0.28999999999999998</v>
+        <v>0.8075</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J48">
-        <v>21.452054794520549</v>
+        <v>53.095890410958901</v>
       </c>
       <c r="K48" s="2">
-        <v>127.52465753424657</v>
+        <v>161.20997260273973</v>
       </c>
       <c r="L48" s="2">
-        <v>0.37209259259259259</v>
+        <v>0.93090166666666663</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="3">
+        <v>21</v>
+      </c>
+      <c r="B49" s="1">
         <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
@@ -2392,36 +2404,36 @@
         <v>12</v>
       </c>
       <c r="F49">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G49" t="s">
         <v>26</v>
       </c>
       <c r="H49">
-        <v>0.3</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="J49">
-        <v>29.589041095890412</v>
+        <v>19.479452054794521</v>
       </c>
       <c r="K49" s="2">
-        <v>136.06849315068496</v>
+        <v>121.98852054794519</v>
       </c>
       <c r="L49" s="2">
-        <v>0.36569444444444477</v>
+        <v>0.44587833333333282</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="3">
+        <v>21</v>
+      </c>
+      <c r="B50" s="1">
         <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
@@ -2430,36 +2442,36 @@
         <v>12</v>
       </c>
       <c r="F50">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="G50" t="s">
         <v>26</v>
       </c>
       <c r="H50">
-        <v>0.14000000000000001</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="I50">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="J50">
-        <v>6.9041095890410968</v>
+        <v>23.301369863013697</v>
       </c>
       <c r="K50" s="2">
-        <v>117.59452054794524</v>
+        <v>125.89069863013698</v>
       </c>
       <c r="L50" s="2">
-        <v>0.35677777777777842</v>
+        <v>0.45000499999999982</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="3">
+        <v>21</v>
+      </c>
+      <c r="B51" s="1">
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
@@ -2474,30 +2486,30 @@
         <v>26</v>
       </c>
       <c r="H51">
-        <v>0.2</v>
+        <v>0.41</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="J51">
-        <v>14.794520547945208</v>
+        <v>30.328767123287669</v>
       </c>
       <c r="K51" s="2">
-        <v>126.27397260273975</v>
+        <v>133.0656712328767</v>
       </c>
       <c r="L51" s="2">
-        <v>0.35518518518518533</v>
+        <v>0.44699888888888867</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="1">
         <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
@@ -2506,36 +2518,36 @@
         <v>12</v>
       </c>
       <c r="F52">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G52" t="s">
         <v>26</v>
       </c>
       <c r="H52">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="J52">
-        <v>22.684931506849317</v>
+        <v>17.753424657534246</v>
       </c>
       <c r="K52" s="2">
-        <v>134.95342465753427</v>
+        <v>118.34219178082189</v>
       </c>
       <c r="L52" s="2">
-        <v>0.35438888888888903</v>
+        <v>0.37193888888888815</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="1">
+        <v>28</v>
+      </c>
+      <c r="B53" s="3">
         <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -2544,36 +2556,36 @@
         <v>12</v>
       </c>
       <c r="F53">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G53" t="s">
         <v>26</v>
       </c>
       <c r="H53">
-        <v>0.27750000000000002</v>
+        <v>0.36</v>
       </c>
       <c r="I53">
-        <v>10.9</v>
+        <v>0.5</v>
       </c>
       <c r="J53">
-        <v>13.684931506849315</v>
+        <v>26.630136986301366</v>
       </c>
       <c r="K53" s="2">
-        <v>126.07658904109589</v>
+        <v>127.26328767123286</v>
       </c>
       <c r="L53" s="2">
-        <v>0.52877527777777777</v>
+        <v>0.36855925925925886</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="1">
+        <v>28</v>
+      </c>
+      <c r="B54" s="3">
         <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
@@ -2582,36 +2594,36 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G54" t="s">
         <v>26</v>
       </c>
       <c r="H54">
-        <v>0.36749999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="I54">
-        <v>10.9</v>
+        <v>0.5</v>
       </c>
       <c r="J54">
-        <v>27.184931506849313</v>
+        <v>35.506849315068493</v>
       </c>
       <c r="K54" s="2">
-        <v>141.04808904109589</v>
+        <v>136.18438356164381</v>
       </c>
       <c r="L54" s="2">
-        <v>0.55490935185185186</v>
+        <v>0.36686944444444425</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="1">
+        <v>28</v>
+      </c>
+      <c r="B55" s="3">
         <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
@@ -2620,36 +2632,36 @@
         <v>12</v>
       </c>
       <c r="F55">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G55" t="s">
         <v>26</v>
       </c>
       <c r="H55">
-        <v>0.42749999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="I55">
-        <v>10.9</v>
+        <v>5.5</v>
       </c>
       <c r="J55">
-        <v>42.164383561643838</v>
+        <v>12.821917808219178</v>
       </c>
       <c r="K55" s="2">
-        <v>157.66030136986302</v>
+        <v>119.02712328767123</v>
       </c>
       <c r="L55" s="2">
-        <v>0.58461138888888897</v>
+        <v>0.38582777777777755</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="1">
+        <v>28</v>
+      </c>
+      <c r="B56" s="3">
         <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
@@ -2658,36 +2670,36 @@
         <v>12</v>
       </c>
       <c r="F56">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G56" t="s">
         <v>26</v>
       </c>
       <c r="H56">
-        <v>0.27750000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I56">
-        <v>10.9</v>
+        <v>5.5</v>
       </c>
       <c r="J56">
-        <v>13.684931506849315</v>
+        <v>21.452054794520549</v>
       </c>
       <c r="K56" s="2">
-        <v>126.07658904109589</v>
+        <v>128.13191780821919</v>
       </c>
       <c r="L56" s="2">
-        <v>0.52877527777777777</v>
+        <v>0.38030185185185184</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="1">
+        <v>28</v>
+      </c>
+      <c r="B57" s="3">
         <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
@@ -2696,36 +2708,36 @@
         <v>12</v>
       </c>
       <c r="F57">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G57" t="s">
         <v>26</v>
       </c>
       <c r="H57">
-        <v>0.36749999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="I57">
-        <v>10.9</v>
+        <v>5.5</v>
       </c>
       <c r="J57">
-        <v>27.184931506849313</v>
+        <v>29.589041095890412</v>
       </c>
       <c r="K57" s="2">
-        <v>141.04808904109589</v>
+        <v>136.71643835616439</v>
       </c>
       <c r="L57" s="2">
-        <v>0.55490935185185186</v>
+        <v>0.37226388888888889</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="1">
+        <v>28</v>
+      </c>
+      <c r="B58" s="3">
         <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
@@ -2734,329 +2746,329 @@
         <v>12</v>
       </c>
       <c r="F58">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G58" t="s">
         <v>26</v>
       </c>
       <c r="H58">
-        <v>0.42749999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I58">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="J58">
-        <v>42.164383561643838</v>
+        <v>6.9041095890410968</v>
       </c>
       <c r="K58" s="2">
-        <v>157.66030136986302</v>
+        <v>118.66356164383565</v>
       </c>
       <c r="L58" s="2">
-        <v>0.58461138888888897</v>
+        <v>0.37845555555555621</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="1">
+        <v>28</v>
+      </c>
+      <c r="B59" s="3">
         <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="G59" t="s">
         <v>26</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I59">
-        <v>14.000000000000002</v>
+        <v>11</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>14.794520547945208</v>
       </c>
       <c r="K59" s="2">
-        <v>114.00000000000001</v>
+        <v>127.42191780821921</v>
       </c>
       <c r="L59" s="2">
-        <v>0.85166666666666735</v>
+        <v>0.37070370370370409</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="1">
+        <v>28</v>
+      </c>
+      <c r="B60" s="3">
         <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="G60" t="s">
         <v>26</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="I60">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>22.684931506849317</v>
       </c>
       <c r="K60" s="2">
-        <v>120</v>
+        <v>136.18027397260275</v>
       </c>
       <c r="L60" s="2">
-        <v>0.81111111111111101</v>
+        <v>0.36682777777777786</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B61" s="1">
         <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G61" t="s">
         <v>26</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>0.29749999999999999</v>
       </c>
       <c r="I61">
-        <v>25</v>
+        <v>10.9</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>14.671232876712329</v>
       </c>
       <c r="K61" s="2">
-        <v>125</v>
+        <v>127.17039726027397</v>
       </c>
       <c r="L61" s="2">
-        <v>0.76041666666666663</v>
+        <v>0.55095527777777775</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B62" s="1">
         <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F62">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="G62" t="s">
         <v>26</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="I62">
-        <v>9</v>
+        <v>10.9</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>28.849315068493155</v>
       </c>
       <c r="K62" s="2">
-        <v>109.00000000000001</v>
+        <v>142.8938904109589</v>
       </c>
       <c r="L62" s="2">
-        <v>0.54750000000000054</v>
+        <v>0.5798618518518518</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B63" s="1">
         <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F63">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="G63" t="s">
         <v>26</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>0.45250000000000001</v>
       </c>
       <c r="I63">
-        <v>12</v>
+        <v>10.9</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>44.630136986301373</v>
       </c>
       <c r="K63" s="2">
-        <v>112.00000000000001</v>
+        <v>160.39482191780823</v>
       </c>
       <c r="L63" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.61233638888888897</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" s="1">
         <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G64" t="s">
         <v>26</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>0.29749999999999999</v>
       </c>
       <c r="I64">
-        <v>14.000000000000002</v>
+        <v>10.9</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>14.671232876712329</v>
       </c>
       <c r="K64" s="2">
-        <v>114.00000000000001</v>
+        <v>127.17039726027397</v>
       </c>
       <c r="L64" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.55095527777777775</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" s="1">
         <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="G65" t="s">
         <v>26</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="I65">
-        <v>17</v>
+        <v>10.9</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>28.849315068493155</v>
       </c>
       <c r="K65" s="2">
-        <v>117</v>
+        <v>142.8938904109589</v>
       </c>
       <c r="L65" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.5798618518518518</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" s="1">
         <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F66">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G66" t="s">
         <v>26</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>0.45250000000000001</v>
       </c>
       <c r="I66">
-        <v>21</v>
+        <v>10.9</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>44.630136986301373</v>
       </c>
       <c r="K66" s="2">
-        <v>121</v>
+        <v>160.39482191780823</v>
       </c>
       <c r="L66" s="2">
-        <v>0.42583333333333329</v>
+        <v>0.61233638888888897</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3067,7 +3079,7 @@
         <v>100</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
@@ -3085,16 +3097,16 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>8</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" s="2">
-        <v>108</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L67" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.85166666666666735</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3105,7 +3117,7 @@
         <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -3123,16 +3135,16 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" s="2">
-        <v>112.00000000000001</v>
+        <v>120</v>
       </c>
       <c r="L68" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.81111111111111101</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3143,7 +3155,7 @@
         <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -3161,16 +3173,16 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" s="2">
-        <v>114.99999999999999</v>
+        <v>125</v>
       </c>
       <c r="L69" s="2">
-        <v>0.45624999999999971</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3181,7 +3193,7 @@
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
@@ -3190,7 +3202,7 @@
         <v>13</v>
       </c>
       <c r="F70">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G70" t="s">
         <v>26</v>
@@ -3199,16 +3211,16 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" s="2">
-        <v>118</v>
+        <v>109.00000000000001</v>
       </c>
       <c r="L70" s="2">
-        <v>0.43799999999999989</v>
+        <v>0.54750000000000054</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3219,7 +3231,7 @@
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
@@ -3228,7 +3240,7 @@
         <v>13</v>
       </c>
       <c r="F71">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s">
         <v>26</v>
@@ -3237,16 +3249,16 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" s="2">
-        <v>121</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L71" s="2">
-        <v>0.42583333333333329</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3257,7 +3269,7 @@
         <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
@@ -3266,7 +3278,7 @@
         <v>13</v>
       </c>
       <c r="F72">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G72" t="s">
         <v>26</v>
@@ -3275,16 +3287,16 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>8</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" s="2">
-        <v>108</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L72" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3295,7 +3307,7 @@
         <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
@@ -3304,7 +3316,7 @@
         <v>13</v>
       </c>
       <c r="F73">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G73" t="s">
         <v>26</v>
@@ -3313,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" s="2">
-        <v>112.00000000000001</v>
+        <v>117</v>
       </c>
       <c r="L73" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.41366666666666646</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3333,7 +3345,7 @@
         <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
@@ -3342,7 +3354,7 @@
         <v>13</v>
       </c>
       <c r="F74">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G74" t="s">
         <v>26</v>
@@ -3351,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74" s="2">
-        <v>114.99999999999999</v>
+        <v>121</v>
       </c>
       <c r="L74" s="2">
-        <v>0.45624999999999971</v>
+        <v>0.42583333333333329</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3371,7 +3383,7 @@
         <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -3380,7 +3392,7 @@
         <v>13</v>
       </c>
       <c r="F75">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G75" t="s">
         <v>26</v>
@@ -3389,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="L75" s="2">
-        <v>0.43799999999999989</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3409,7 +3421,7 @@
         <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
@@ -3418,7 +3430,7 @@
         <v>13</v>
       </c>
       <c r="F76">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G76" t="s">
         <v>26</v>
@@ -3427,16 +3439,16 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" s="2">
-        <v>121</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L76" s="2">
-        <v>0.42583333333333329</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3447,7 +3459,7 @@
         <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
@@ -3456,7 +3468,7 @@
         <v>13</v>
       </c>
       <c r="F77">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G77" t="s">
         <v>26</v>
@@ -3465,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" s="2">
-        <v>108</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="L77" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.45624999999999971</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3485,7 +3497,7 @@
         <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
@@ -3494,7 +3506,7 @@
         <v>13</v>
       </c>
       <c r="F78">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G78" t="s">
         <v>26</v>
@@ -3503,16 +3515,16 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" s="2">
-        <v>112.00000000000001</v>
+        <v>118</v>
       </c>
       <c r="L78" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.43799999999999989</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3523,7 +3535,7 @@
         <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
@@ -3532,7 +3544,7 @@
         <v>13</v>
       </c>
       <c r="F79">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G79" t="s">
         <v>26</v>
@@ -3541,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79" s="2">
-        <v>114.99999999999999</v>
+        <v>121</v>
       </c>
       <c r="L79" s="2">
-        <v>0.45624999999999971</v>
+        <v>0.42583333333333329</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3561,7 +3573,7 @@
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
@@ -3570,7 +3582,7 @@
         <v>13</v>
       </c>
       <c r="F80">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G80" t="s">
         <v>26</v>
@@ -3579,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="L80" s="2">
-        <v>0.43799999999999989</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3599,7 +3611,7 @@
         <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
@@ -3608,7 +3620,7 @@
         <v>13</v>
       </c>
       <c r="F81">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G81" t="s">
         <v>26</v>
@@ -3617,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" s="2">
-        <v>121</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L81" s="2">
-        <v>0.42583333333333329</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3637,7 +3649,7 @@
         <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
@@ -3646,7 +3658,7 @@
         <v>13</v>
       </c>
       <c r="F82">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G82" t="s">
         <v>26</v>
@@ -3655,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82" s="2">
-        <v>108</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="L82" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.45624999999999971</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3675,7 +3687,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
@@ -3684,7 +3696,7 @@
         <v>13</v>
       </c>
       <c r="F83">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G83" t="s">
         <v>26</v>
@@ -3693,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" s="2">
-        <v>112.00000000000001</v>
+        <v>118</v>
       </c>
       <c r="L83" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.43799999999999989</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3713,7 +3725,7 @@
         <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
@@ -3722,7 +3734,7 @@
         <v>13</v>
       </c>
       <c r="F84">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G84" t="s">
         <v>26</v>
@@ -3731,16 +3743,16 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84" s="2">
-        <v>114.99999999999999</v>
+        <v>121</v>
       </c>
       <c r="L84" s="2">
-        <v>0.45624999999999971</v>
+        <v>0.42583333333333329</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3751,7 +3763,7 @@
         <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
         <v>14</v>
@@ -3760,7 +3772,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G85" t="s">
         <v>26</v>
@@ -3769,16 +3781,16 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="L85" s="2">
-        <v>0.43799999999999989</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3789,7 +3801,7 @@
         <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
@@ -3798,7 +3810,7 @@
         <v>13</v>
       </c>
       <c r="F86">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G86" t="s">
         <v>26</v>
@@ -3807,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" s="2">
-        <v>121</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L86" s="2">
-        <v>0.42583333333333329</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3827,7 +3839,7 @@
         <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
@@ -3836,7 +3848,7 @@
         <v>13</v>
       </c>
       <c r="F87">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G87" t="s">
         <v>26</v>
@@ -3845,16 +3857,16 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" s="2">
-        <v>108</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="L87" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.45624999999999971</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3865,7 +3877,7 @@
         <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -3874,7 +3886,7 @@
         <v>13</v>
       </c>
       <c r="F88">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G88" t="s">
         <v>26</v>
@@ -3883,16 +3895,16 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" s="2">
-        <v>112.00000000000001</v>
+        <v>118</v>
       </c>
       <c r="L88" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.43799999999999989</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3903,7 +3915,7 @@
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
@@ -3912,7 +3924,7 @@
         <v>13</v>
       </c>
       <c r="F89">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G89" t="s">
         <v>26</v>
@@ -3921,16 +3933,16 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89" s="2">
-        <v>114.99999999999999</v>
+        <v>121</v>
       </c>
       <c r="L89" s="2">
-        <v>0.45624999999999971</v>
+        <v>0.42583333333333329</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3941,7 +3953,7 @@
         <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
@@ -3950,7 +3962,7 @@
         <v>13</v>
       </c>
       <c r="F90">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G90" t="s">
         <v>26</v>
@@ -3959,16 +3971,16 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="L90" s="2">
-        <v>0.43799999999999989</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3979,7 +3991,7 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
@@ -3988,7 +4000,7 @@
         <v>13</v>
       </c>
       <c r="F91">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G91" t="s">
         <v>26</v>
@@ -3997,16 +4009,16 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91" s="2">
-        <v>121</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L91" s="2">
-        <v>0.42583333333333329</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4017,7 +4029,7 @@
         <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
@@ -4026,7 +4038,7 @@
         <v>13</v>
       </c>
       <c r="F92">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G92" t="s">
         <v>26</v>
@@ -4035,16 +4047,16 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92" s="2">
-        <v>108</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="L92" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.45624999999999971</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4055,7 +4067,7 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -4064,7 +4076,7 @@
         <v>13</v>
       </c>
       <c r="F93">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G93" t="s">
         <v>26</v>
@@ -4073,16 +4085,16 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" s="2">
-        <v>112.00000000000001</v>
+        <v>118</v>
       </c>
       <c r="L93" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.43799999999999989</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4093,7 +4105,7 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
@@ -4102,7 +4114,7 @@
         <v>13</v>
       </c>
       <c r="F94">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G94" t="s">
         <v>26</v>
@@ -4111,16 +4123,16 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94" s="2">
-        <v>114.99999999999999</v>
+        <v>121</v>
       </c>
       <c r="L94" s="2">
-        <v>0.45624999999999971</v>
+        <v>0.42583333333333329</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4131,7 +4143,7 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
@@ -4140,7 +4152,7 @@
         <v>13</v>
       </c>
       <c r="F95">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G95" t="s">
         <v>26</v>
@@ -4149,16 +4161,16 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="L95" s="2">
-        <v>0.43799999999999989</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4169,7 +4181,7 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
@@ -4178,7 +4190,7 @@
         <v>13</v>
       </c>
       <c r="F96">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G96" t="s">
         <v>26</v>
@@ -4187,16 +4199,16 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96" s="2">
-        <v>121</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L96" s="2">
-        <v>0.42583333333333329</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4207,7 +4219,7 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
@@ -4216,7 +4228,7 @@
         <v>13</v>
       </c>
       <c r="F97">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G97" t="s">
         <v>26</v>
@@ -4225,16 +4237,16 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97" s="2">
-        <v>108</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="L97" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.45624999999999971</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4245,7 +4257,7 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
@@ -4254,7 +4266,7 @@
         <v>13</v>
       </c>
       <c r="F98">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G98" t="s">
         <v>26</v>
@@ -4263,16 +4275,16 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" s="2">
-        <v>112.00000000000001</v>
+        <v>118</v>
       </c>
       <c r="L98" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.43799999999999989</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4283,7 +4295,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
@@ -4292,7 +4304,7 @@
         <v>13</v>
       </c>
       <c r="F99">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G99" t="s">
         <v>26</v>
@@ -4301,16 +4313,16 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" s="2">
-        <v>114.99999999999999</v>
+        <v>121</v>
       </c>
       <c r="L99" s="2">
-        <v>0.45624999999999971</v>
+        <v>0.42583333333333329</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4321,7 +4333,7 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
@@ -4330,7 +4342,7 @@
         <v>13</v>
       </c>
       <c r="F100">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G100" t="s">
         <v>26</v>
@@ -4339,16 +4351,16 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="L100" s="2">
-        <v>0.43799999999999989</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4359,7 +4371,7 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -4368,7 +4380,7 @@
         <v>13</v>
       </c>
       <c r="F101">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G101" t="s">
         <v>26</v>
@@ -4377,16 +4389,16 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101" s="2">
-        <v>121</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L101" s="2">
-        <v>0.42583333333333329</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4397,34 +4409,34 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D102" t="s">
         <v>14</v>
       </c>
       <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102">
+        <v>120</v>
+      </c>
+      <c r="G102" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <v>15</v>
       </c>
-      <c r="F102">
-        <v>60</v>
-      </c>
-      <c r="G102" t="s">
-        <v>26</v>
-      </c>
-      <c r="H102">
-        <v>0.37047499999999972</v>
-      </c>
-      <c r="I102">
-        <v>2</v>
-      </c>
       <c r="J102">
-        <v>6.0899999999999954</v>
+        <v>0</v>
       </c>
       <c r="K102" s="2">
-        <v>108.2118</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="L102" s="2">
-        <v>0.4995511666666661</v>
+        <v>0.45624999999999971</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4435,34 +4447,34 @@
         <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
         <v>14</v>
       </c>
       <c r="E103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F103">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G103" t="s">
         <v>26</v>
       </c>
       <c r="H103">
-        <v>0.37605950000000005</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J103">
-        <v>9.2727000000000004</v>
+        <v>0</v>
       </c>
       <c r="K103" s="2">
-        <v>111.45815400000001</v>
+        <v>118</v>
       </c>
       <c r="L103" s="2">
-        <v>0.46469180111111147</v>
+        <v>0.43799999999999989</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4473,13 +4485,13 @@
         <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F104">
         <v>180</v>
@@ -4488,19 +4500,19 @@
         <v>26</v>
       </c>
       <c r="H104">
-        <v>0.3934949346282498</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J104">
-        <v>19.40522965289999</v>
+        <v>0</v>
       </c>
       <c r="K104" s="2">
-        <v>121.79333424595799</v>
+        <v>121</v>
       </c>
       <c r="L104" s="2">
-        <v>0.44192038887637047</v>
+        <v>0.42583333333333329</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4511,34 +4523,34 @@
         <v>100</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D105" t="s">
         <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F105">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="G105" t="s">
         <v>26</v>
       </c>
       <c r="H105">
-        <v>0.47727539616300035</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J105">
-        <v>35.305303277810985</v>
+        <v>0</v>
       </c>
       <c r="K105" s="2">
-        <v>138.01140934336721</v>
+        <v>108</v>
       </c>
       <c r="L105" s="2">
-        <v>0.5138579411232973</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4549,34 +4561,34 @@
         <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F106">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="G106" t="s">
         <v>26</v>
       </c>
       <c r="H106">
-        <v>0.50342973718368167</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J106">
-        <v>49.653343941404223</v>
+        <v>0</v>
       </c>
       <c r="K106" s="2">
-        <v>152.64641082023229</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L106" s="2">
-        <v>0.53377610970513301</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4587,34 +4599,34 @@
         <v>100</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
       </c>
       <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107">
+        <v>120</v>
+      </c>
+      <c r="G107" t="s">
+        <v>26</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
         <v>15</v>
       </c>
-      <c r="F107">
-        <v>60</v>
-      </c>
-      <c r="G107" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107">
-        <v>0.38</v>
-      </c>
-      <c r="I107">
-        <v>2</v>
-      </c>
       <c r="J107">
-        <v>6.2465753424657526</v>
+        <v>0</v>
       </c>
       <c r="K107" s="2">
-        <v>108.37150684931507</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="L107" s="2">
-        <v>0.50926666666666676</v>
+        <v>0.45624999999999971</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4625,34 +4637,34 @@
         <v>100</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F108">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G108" t="s">
         <v>26</v>
       </c>
       <c r="H108">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J108">
-        <v>9.3698630136986303</v>
+        <v>0</v>
       </c>
       <c r="K108" s="2">
-        <v>111.55726027397259</v>
+        <v>118</v>
       </c>
       <c r="L108" s="2">
-        <v>0.46871111111111063</v>
+        <v>0.43799999999999989</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4663,13 +4675,13 @@
         <v>100</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
       </c>
       <c r="E109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F109">
         <v>180</v>
@@ -4678,19 +4690,19 @@
         <v>26</v>
       </c>
       <c r="H109">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J109">
-        <v>18.739726027397261</v>
+        <v>0</v>
       </c>
       <c r="K109" s="2">
-        <v>121.1145205479452</v>
+        <v>121</v>
       </c>
       <c r="L109" s="2">
-        <v>0.42815555555555546</v>
+        <v>0.42583333333333329</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -4701,7 +4713,7 @@
         <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
@@ -4710,25 +4722,25 @@
         <v>15</v>
       </c>
       <c r="F110">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="G110" t="s">
         <v>26</v>
       </c>
       <c r="H110">
-        <v>0.38</v>
+        <v>0.38092228009259155</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110">
-        <v>28.109589041095891</v>
+        <v>6.2617361111110936</v>
       </c>
       <c r="K110" s="2">
-        <v>130.67178082191779</v>
+        <v>108.38697083333332</v>
       </c>
       <c r="L110" s="2">
-        <v>0.4146370370370368</v>
+        <v>0.51020739236111079</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4739,7 +4751,7 @@
         <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D111" t="s">
         <v>14</v>
@@ -4748,25 +4760,25 @@
         <v>15</v>
       </c>
       <c r="F111">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="G111" t="s">
         <v>26</v>
       </c>
       <c r="H111">
-        <v>0.38</v>
+        <v>0.38682455211548211</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111">
-        <v>37.479452054794521</v>
+        <v>9.538139641203669</v>
       </c>
       <c r="K111" s="2">
-        <v>140.22904109589041</v>
+        <v>111.72890243402775</v>
       </c>
       <c r="L111" s="2">
-        <v>0.40787777777777773</v>
+        <v>0.47567215426890336</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -4777,7 +4789,7 @@
         <v>100</v>
       </c>
       <c r="C112" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D112" t="s">
         <v>14</v>
@@ -4786,25 +4798,25 @@
         <v>15</v>
       </c>
       <c r="F112">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G112" t="s">
         <v>26</v>
       </c>
       <c r="H112">
-        <v>0.34</v>
+        <v>0.40527248508909997</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>5.589041095890412</v>
+        <v>19.986040360558356</v>
       </c>
       <c r="K112" s="2">
-        <v>107.70082191780821</v>
+        <v>122.38576116776952</v>
       </c>
       <c r="L112" s="2">
-        <v>0.46846666666666609</v>
+        <v>0.45393349034643737</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4815,7 +4827,7 @@
         <v>100</v>
       </c>
       <c r="C113" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D113" t="s">
         <v>14</v>
@@ -4824,25 +4836,25 @@
         <v>15</v>
       </c>
       <c r="F113">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G113" t="s">
         <v>26</v>
       </c>
       <c r="H113">
-        <v>0.34</v>
+        <v>0.49058345903277578</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>8.383561643835618</v>
+        <v>36.289735325712179</v>
       </c>
       <c r="K113" s="2">
-        <v>110.55123287671233</v>
+        <v>139.01553003222642</v>
       </c>
       <c r="L113" s="2">
-        <v>0.42791111111111141</v>
+        <v>0.52743216525046832</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -4853,7 +4865,7 @@
         <v>100</v>
       </c>
       <c r="C114" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D114" t="s">
         <v>14</v>
@@ -4862,25 +4874,25 @@
         <v>15</v>
       </c>
       <c r="F114">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G114" t="s">
         <v>26</v>
       </c>
       <c r="H114">
-        <v>0.34</v>
+        <v>0.51816683314283751</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114">
-        <v>16.767123287671236</v>
+        <v>51.106865734636017</v>
       </c>
       <c r="K114" s="2">
-        <v>119.10246575342467</v>
+        <v>154.12900304932876</v>
       </c>
       <c r="L114" s="2">
-        <v>0.38735555555555579</v>
+        <v>0.54880794758347207</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4891,7 +4903,7 @@
         <v>100</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D115" t="s">
         <v>14</v>
@@ -4900,25 +4912,25 @@
         <v>15</v>
       </c>
       <c r="F115">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="G115" t="s">
         <v>26</v>
       </c>
       <c r="H115">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115">
-        <v>25.150684931506852</v>
+        <v>6.2465753424657526</v>
       </c>
       <c r="K115" s="2">
-        <v>127.65369863013699</v>
+        <v>108.37150684931507</v>
       </c>
       <c r="L115" s="2">
-        <v>0.37383703703703697</v>
+        <v>0.50926666666666676</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -4929,7 +4941,7 @@
         <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D116" t="s">
         <v>14</v>
@@ -4938,25 +4950,25 @@
         <v>15</v>
       </c>
       <c r="F116">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="G116" t="s">
         <v>26</v>
       </c>
       <c r="H116">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>33.534246575342472</v>
+        <v>9.3698630136986303</v>
       </c>
       <c r="K116" s="2">
-        <v>136.20493150684933</v>
+        <v>111.55726027397259</v>
       </c>
       <c r="L116" s="2">
-        <v>0.36707777777777795</v>
+        <v>0.46871111111111063</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -4967,7 +4979,7 @@
         <v>100</v>
       </c>
       <c r="C117" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D117" t="s">
         <v>14</v>
@@ -4976,25 +4988,25 @@
         <v>15</v>
       </c>
       <c r="F117">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G117" t="s">
         <v>26</v>
       </c>
       <c r="H117">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
       <c r="J117">
-        <v>7.397260273972603</v>
+        <v>18.739726027397261</v>
       </c>
       <c r="K117" s="2">
-        <v>109.54520547945205</v>
+        <v>121.1145205479452</v>
       </c>
       <c r="L117" s="2">
-        <v>0.58066666666666678</v>
+        <v>0.42815555555555546</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -5005,7 +5017,7 @@
         <v>100</v>
       </c>
       <c r="C118" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D118" t="s">
         <v>14</v>
@@ -5014,25 +5026,25 @@
         <v>15</v>
       </c>
       <c r="F118">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G118" t="s">
         <v>26</v>
       </c>
       <c r="H118">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="I118">
         <v>2</v>
       </c>
       <c r="J118">
-        <v>11.095890410958905</v>
+        <v>28.109589041095891</v>
       </c>
       <c r="K118" s="2">
-        <v>113.31780821917809</v>
+        <v>130.67178082191779</v>
       </c>
       <c r="L118" s="2">
-        <v>0.54011111111111165</v>
+        <v>0.4146370370370368</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5043,7 +5055,7 @@
         <v>100</v>
       </c>
       <c r="C119" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D119" t="s">
         <v>14</v>
@@ -5052,25 +5064,25 @@
         <v>15</v>
       </c>
       <c r="F119">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="G119" t="s">
         <v>26</v>
       </c>
       <c r="H119">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119">
-        <v>22.19178082191781</v>
+        <v>37.479452054794521</v>
       </c>
       <c r="K119" s="2">
-        <v>124.63561643835618</v>
+        <v>140.22904109589041</v>
       </c>
       <c r="L119" s="2">
-        <v>0.49955555555555609</v>
+        <v>0.40787777777777773</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5081,7 +5093,7 @@
         <v>100</v>
       </c>
       <c r="C120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D120" t="s">
         <v>14</v>
@@ -5090,25 +5102,25 @@
         <v>15</v>
       </c>
       <c r="F120">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="G120" t="s">
         <v>26</v>
       </c>
       <c r="H120">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="I120">
         <v>2</v>
       </c>
       <c r="J120">
-        <v>33.287671232876711</v>
+        <v>5.589041095890412</v>
       </c>
       <c r="K120" s="2">
-        <v>135.95342465753424</v>
+        <v>107.70082191780821</v>
       </c>
       <c r="L120" s="2">
-        <v>0.48603703703703693</v>
+        <v>0.46846666666666609</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -5119,7 +5131,7 @@
         <v>100</v>
       </c>
       <c r="C121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D121" t="s">
         <v>14</v>
@@ -5128,24 +5140,328 @@
         <v>15</v>
       </c>
       <c r="F121">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="G121" t="s">
         <v>26</v>
       </c>
       <c r="H121">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="I121">
         <v>2</v>
       </c>
       <c r="J121">
+        <v>8.383561643835618</v>
+      </c>
+      <c r="K121" s="2">
+        <v>110.55123287671233</v>
+      </c>
+      <c r="L121" s="2">
+        <v>0.42791111111111141</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" s="1">
+        <v>100</v>
+      </c>
+      <c r="C122" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122">
+        <v>180</v>
+      </c>
+      <c r="G122" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122">
+        <v>0.34</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>16.767123287671236</v>
+      </c>
+      <c r="K122" s="2">
+        <v>119.10246575342467</v>
+      </c>
+      <c r="L122" s="2">
+        <v>0.38735555555555579</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" s="1">
+        <v>100</v>
+      </c>
+      <c r="C123" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123">
+        <v>270</v>
+      </c>
+      <c r="G123" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123">
+        <v>0.34</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>25.150684931506852</v>
+      </c>
+      <c r="K123" s="2">
+        <v>127.65369863013699</v>
+      </c>
+      <c r="L123" s="2">
+        <v>0.37383703703703697</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" s="1">
+        <v>100</v>
+      </c>
+      <c r="C124" t="s">
+        <v>37</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124">
+        <v>360</v>
+      </c>
+      <c r="G124" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124">
+        <v>0.34</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>33.534246575342472</v>
+      </c>
+      <c r="K124" s="2">
+        <v>136.20493150684933</v>
+      </c>
+      <c r="L124" s="2">
+        <v>0.36707777777777795</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" s="1">
+        <v>100</v>
+      </c>
+      <c r="C125" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125">
+        <v>60</v>
+      </c>
+      <c r="G125" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125">
+        <v>0.45</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>7.397260273972603</v>
+      </c>
+      <c r="K125" s="2">
+        <v>109.54520547945205</v>
+      </c>
+      <c r="L125" s="2">
+        <v>0.58066666666666678</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" s="1">
+        <v>100</v>
+      </c>
+      <c r="C126" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126">
+        <v>90</v>
+      </c>
+      <c r="G126" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126">
+        <v>0.45</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>11.095890410958905</v>
+      </c>
+      <c r="K126" s="2">
+        <v>113.31780821917809</v>
+      </c>
+      <c r="L126" s="2">
+        <v>0.54011111111111165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" s="1">
+        <v>100</v>
+      </c>
+      <c r="C127" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127">
+        <v>180</v>
+      </c>
+      <c r="G127" t="s">
+        <v>26</v>
+      </c>
+      <c r="H127">
+        <v>0.45</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>22.19178082191781</v>
+      </c>
+      <c r="K127" s="2">
+        <v>124.63561643835618</v>
+      </c>
+      <c r="L127" s="2">
+        <v>0.49955555555555609</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" s="1">
+        <v>100</v>
+      </c>
+      <c r="C128" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128">
+        <v>270</v>
+      </c>
+      <c r="G128" t="s">
+        <v>26</v>
+      </c>
+      <c r="H128">
+        <v>0.45</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <v>33.287671232876711</v>
+      </c>
+      <c r="K128" s="2">
+        <v>135.95342465753424</v>
+      </c>
+      <c r="L128" s="2">
+        <v>0.48603703703703693</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" s="1">
+        <v>100</v>
+      </c>
+      <c r="C129" t="s">
+        <v>38</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129">
+        <v>360</v>
+      </c>
+      <c r="G129" t="s">
+        <v>26</v>
+      </c>
+      <c r="H129">
+        <v>0.45</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129">
         <v>44.38356164383562</v>
       </c>
-      <c r="K121" s="2">
+      <c r="K129" s="2">
         <v>147.27123287671233</v>
       </c>
-      <c r="L121" s="2">
+      <c r="L129" s="2">
         <v>0.4792777777777778</v>
       </c>
     </row>
